--- a/Gen3Dupes.xlsx
+++ b/Gen3Dupes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C083F615-4843-4C98-AF77-83F039F8BC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431CD70B-CF6E-49DC-9693-95A8D15ABD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3C44F34A-807E-46C8-9DD2-DE8BB763117D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="411">
   <si>
     <t>Sunkern</t>
   </si>
@@ -1450,7 +1450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1486,10 +1486,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1504,6 +1503,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1551,16 +1560,6 @@
           <color indexed="64"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1672,13 +1671,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1696,6 +1688,13 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1724,7 +1723,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A049D3D9-A2D5-44C5-98D3-F4C05364500E}" name="Table1" displayName="Table1" ref="A1:G387" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A049D3D9-A2D5-44C5-98D3-F4C05364500E}" name="Table1" displayName="Table1" ref="A1:G387" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <autoFilter ref="A1:G387" xr:uid="{A049D3D9-A2D5-44C5-98D3-F4C05364500E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G387">
     <sortCondition descending="1" ref="G1:G387"/>
@@ -1734,13 +1733,13 @@
     <tableColumn id="2" xr3:uid="{E2C53321-A6E7-4FDE-AE0D-563F234BB54D}" name="Pokemon " dataDxfId="6"/>
     <tableColumn id="18" xr3:uid="{BD422956-B713-47C2-8DA0-58E077D4F672}" name="Type 1 " dataDxfId="5"/>
     <tableColumn id="19" xr3:uid="{168A5E0C-C172-415A-A20F-2185D7099D76}" name="Type 2 " dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{6F2F1EEC-D0C7-451F-87E7-36F78CA08CAB}" name="Type 3" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{6F2F1EEC-D0C7-451F-87E7-36F78CA08CAB}" name="Type 3" dataDxfId="3">
       <calculatedColumnFormula>C2 &amp; "/" &amp; D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{9784E26E-ED37-48B9-BA29-0A3B13899832}" name="Type 4" dataDxfId="3">
+    <tableColumn id="4" xr3:uid="{9784E26E-ED37-48B9-BA29-0A3B13899832}" name="Type 4" dataDxfId="2">
       <calculatedColumnFormula>IF(COUNTIF(E:E, E2)&gt;1, "Duplicate", "Unique")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{FC67BD8A-3B33-4D5D-AFD5-44A0C37CD472}" name="Type 5" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{FC67BD8A-3B33-4D5D-AFD5-44A0C37CD472}" name="Type 5" dataDxfId="1">
       <calculatedColumnFormula>COUNTIF(E:E, E2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2047,8 +2046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64334976-FEAC-49D8-899F-D33AD155E41F}">
   <dimension ref="A1:G475"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G145" sqref="G145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2056,7 +2055,7 @@
     <col min="1" max="1" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
@@ -2090,7 +2089,7 @@
       <c r="E1" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>409</v>
       </c>
       <c r="G1" s="11" t="s">
@@ -2112,7 +2111,7 @@
         <f>C2 &amp; "/" &amp; D2</f>
         <v>Normal/</v>
       </c>
-      <c r="F2" s="16" t="str">
+      <c r="F2" s="15" t="str">
         <f>IF(COUNTIF(E:E, E2)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -2136,7 +2135,7 @@
         <f>C3 &amp; "/" &amp; D3</f>
         <v>Normal/</v>
       </c>
-      <c r="F3" s="16" t="str">
+      <c r="F3" s="15" t="str">
         <f>IF(COUNTIF(E:E, E3)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -2160,7 +2159,7 @@
         <f>C4 &amp; "/" &amp; D4</f>
         <v>Normal/</v>
       </c>
-      <c r="F4" s="16" t="str">
+      <c r="F4" s="15" t="str">
         <f>IF(COUNTIF(E:E, E4)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -2184,7 +2183,7 @@
         <f>C5 &amp; "/" &amp; D5</f>
         <v>Normal/</v>
       </c>
-      <c r="F5" s="16" t="str">
+      <c r="F5" s="15" t="str">
         <f>IF(COUNTIF(E:E, E5)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -2208,7 +2207,7 @@
         <f>C6 &amp; "/" &amp; D6</f>
         <v>Normal/</v>
       </c>
-      <c r="F6" s="16" t="str">
+      <c r="F6" s="15" t="str">
         <f>IF(COUNTIF(E:E, E6)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -2232,7 +2231,7 @@
         <f>C7 &amp; "/" &amp; D7</f>
         <v>Normal/</v>
       </c>
-      <c r="F7" s="16" t="str">
+      <c r="F7" s="15" t="str">
         <f>IF(COUNTIF(E:E, E7)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -2256,7 +2255,7 @@
         <f>C8 &amp; "/" &amp; D8</f>
         <v>Normal/</v>
       </c>
-      <c r="F8" s="16" t="str">
+      <c r="F8" s="15" t="str">
         <f>IF(COUNTIF(E:E, E8)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -2280,7 +2279,7 @@
         <f>C9 &amp; "/" &amp; D9</f>
         <v>Normal/</v>
       </c>
-      <c r="F9" s="16" t="str">
+      <c r="F9" s="15" t="str">
         <f>IF(COUNTIF(E:E, E9)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -2304,7 +2303,7 @@
         <f>C10 &amp; "/" &amp; D10</f>
         <v>Normal/</v>
       </c>
-      <c r="F10" s="16" t="str">
+      <c r="F10" s="15" t="str">
         <f>IF(COUNTIF(E:E, E10)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -2328,7 +2327,7 @@
         <f>C11 &amp; "/" &amp; D11</f>
         <v>Normal/</v>
       </c>
-      <c r="F11" s="16" t="str">
+      <c r="F11" s="15" t="str">
         <f>IF(COUNTIF(E:E, E11)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -2352,7 +2351,7 @@
         <f>C12 &amp; "/" &amp; D12</f>
         <v>Normal/</v>
       </c>
-      <c r="F12" s="16" t="str">
+      <c r="F12" s="15" t="str">
         <f>IF(COUNTIF(E:E, E12)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -2376,7 +2375,7 @@
         <f>C13 &amp; "/" &amp; D13</f>
         <v>Normal/</v>
       </c>
-      <c r="F13" s="16" t="str">
+      <c r="F13" s="15" t="str">
         <f>IF(COUNTIF(E:E, E13)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -2400,7 +2399,7 @@
         <f>C14 &amp; "/" &amp; D14</f>
         <v>Normal/</v>
       </c>
-      <c r="F14" s="16" t="str">
+      <c r="F14" s="15" t="str">
         <f>IF(COUNTIF(E:E, E14)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -2424,7 +2423,7 @@
         <f>C15 &amp; "/" &amp; D15</f>
         <v>Normal/</v>
       </c>
-      <c r="F15" s="16" t="str">
+      <c r="F15" s="15" t="str">
         <f>IF(COUNTIF(E:E, E15)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -2448,7 +2447,7 @@
         <f>C16 &amp; "/" &amp; D16</f>
         <v>Normal/</v>
       </c>
-      <c r="F16" s="16" t="str">
+      <c r="F16" s="15" t="str">
         <f>IF(COUNTIF(E:E, E16)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -2472,7 +2471,7 @@
         <f>C17 &amp; "/" &amp; D17</f>
         <v>Normal/</v>
       </c>
-      <c r="F17" s="16" t="str">
+      <c r="F17" s="15" t="str">
         <f>IF(COUNTIF(E:E, E17)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -2496,7 +2495,7 @@
         <f>C18 &amp; "/" &amp; D18</f>
         <v>Normal/</v>
       </c>
-      <c r="F18" s="16" t="str">
+      <c r="F18" s="15" t="str">
         <f>IF(COUNTIF(E:E, E18)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -2520,7 +2519,7 @@
         <f>C19 &amp; "/" &amp; D19</f>
         <v>Normal/</v>
       </c>
-      <c r="F19" s="16" t="str">
+      <c r="F19" s="15" t="str">
         <f>IF(COUNTIF(E:E, E19)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -2544,7 +2543,7 @@
         <f>C20 &amp; "/" &amp; D20</f>
         <v>Normal/</v>
       </c>
-      <c r="F20" s="16" t="str">
+      <c r="F20" s="15" t="str">
         <f>IF(COUNTIF(E:E, E20)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -2568,7 +2567,7 @@
         <f>C21 &amp; "/" &amp; D21</f>
         <v>Normal/</v>
       </c>
-      <c r="F21" s="16" t="str">
+      <c r="F21" s="15" t="str">
         <f>IF(COUNTIF(E:E, E21)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -2592,7 +2591,7 @@
         <f>C22 &amp; "/" &amp; D22</f>
         <v>Normal/</v>
       </c>
-      <c r="F22" s="16" t="str">
+      <c r="F22" s="15" t="str">
         <f>IF(COUNTIF(E:E, E22)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -2616,7 +2615,7 @@
         <f>C23 &amp; "/" &amp; D23</f>
         <v>Normal/</v>
       </c>
-      <c r="F23" s="16" t="str">
+      <c r="F23" s="15" t="str">
         <f>IF(COUNTIF(E:E, E23)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -2640,7 +2639,7 @@
         <f>C24 &amp; "/" &amp; D24</f>
         <v>Normal/</v>
       </c>
-      <c r="F24" s="16" t="str">
+      <c r="F24" s="15" t="str">
         <f>IF(COUNTIF(E:E, E24)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -2664,7 +2663,7 @@
         <f>C25 &amp; "/" &amp; D25</f>
         <v>Normal/</v>
       </c>
-      <c r="F25" s="16" t="str">
+      <c r="F25" s="15" t="str">
         <f>IF(COUNTIF(E:E, E25)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -2688,7 +2687,7 @@
         <f>C26 &amp; "/" &amp; D26</f>
         <v>Normal/</v>
       </c>
-      <c r="F26" s="16" t="str">
+      <c r="F26" s="15" t="str">
         <f>IF(COUNTIF(E:E, E26)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -2712,7 +2711,7 @@
         <f>C27 &amp; "/" &amp; D27</f>
         <v>Normal/</v>
       </c>
-      <c r="F27" s="16" t="str">
+      <c r="F27" s="15" t="str">
         <f>IF(COUNTIF(E:E, E27)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -2736,7 +2735,7 @@
         <f>C28 &amp; "/" &amp; D28</f>
         <v>Normal/</v>
       </c>
-      <c r="F28" s="16" t="str">
+      <c r="F28" s="15" t="str">
         <f>IF(COUNTIF(E:E, E28)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -2760,7 +2759,7 @@
         <f>C29 &amp; "/" &amp; D29</f>
         <v>Normal/</v>
       </c>
-      <c r="F29" s="16" t="str">
+      <c r="F29" s="15" t="str">
         <f>IF(COUNTIF(E:E, E29)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -2784,7 +2783,7 @@
         <f>C30 &amp; "/" &amp; D30</f>
         <v>Normal/</v>
       </c>
-      <c r="F30" s="16" t="str">
+      <c r="F30" s="15" t="str">
         <f>IF(COUNTIF(E:E, E30)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -2808,7 +2807,7 @@
         <f>C31 &amp; "/" &amp; D31</f>
         <v>Normal/</v>
       </c>
-      <c r="F31" s="16" t="str">
+      <c r="F31" s="15" t="str">
         <f>IF(COUNTIF(E:E, E31)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -2832,7 +2831,7 @@
         <f>C32 &amp; "/" &amp; D32</f>
         <v>Normal/</v>
       </c>
-      <c r="F32" s="16" t="str">
+      <c r="F32" s="15" t="str">
         <f>IF(COUNTIF(E:E, E32)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -2856,7 +2855,7 @@
         <f>C33 &amp; "/" &amp; D33</f>
         <v>Normal/</v>
       </c>
-      <c r="F33" s="16" t="str">
+      <c r="F33" s="15" t="str">
         <f>IF(COUNTIF(E:E, E33)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -2880,7 +2879,7 @@
         <f>C34 &amp; "/" &amp; D34</f>
         <v>Normal/</v>
       </c>
-      <c r="F34" s="16" t="str">
+      <c r="F34" s="15" t="str">
         <f>IF(COUNTIF(E:E, E34)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -2904,7 +2903,7 @@
         <f>C35 &amp; "/" &amp; D35</f>
         <v>Normal/</v>
       </c>
-      <c r="F35" s="16" t="str">
+      <c r="F35" s="15" t="str">
         <f>IF(COUNTIF(E:E, E35)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -2928,7 +2927,7 @@
         <f>C36 &amp; "/" &amp; D36</f>
         <v>Normal/</v>
       </c>
-      <c r="F36" s="16" t="str">
+      <c r="F36" s="15" t="str">
         <f>IF(COUNTIF(E:E, E36)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -2952,7 +2951,7 @@
         <f>C37 &amp; "/" &amp; D37</f>
         <v>Normal/</v>
       </c>
-      <c r="F37" s="16" t="str">
+      <c r="F37" s="15" t="str">
         <f>IF(COUNTIF(E:E, E37)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -2976,7 +2975,7 @@
         <f>C38 &amp; "/" &amp; D38</f>
         <v>Normal/</v>
       </c>
-      <c r="F38" s="16" t="str">
+      <c r="F38" s="15" t="str">
         <f>IF(COUNTIF(E:E, E38)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -3000,7 +2999,7 @@
         <f>C39 &amp; "/" &amp; D39</f>
         <v>Normal/</v>
       </c>
-      <c r="F39" s="16" t="str">
+      <c r="F39" s="15" t="str">
         <f>IF(COUNTIF(E:E, E39)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -3024,7 +3023,7 @@
         <f>C40 &amp; "/" &amp; D40</f>
         <v>Normal/</v>
       </c>
-      <c r="F40" s="16" t="str">
+      <c r="F40" s="15" t="str">
         <f>IF(COUNTIF(E:E, E40)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -3048,7 +3047,7 @@
         <f>C41 &amp; "/" &amp; D41</f>
         <v>Normal/</v>
       </c>
-      <c r="F41" s="16" t="str">
+      <c r="F41" s="15" t="str">
         <f>IF(COUNTIF(E:E, E41)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -3072,7 +3071,7 @@
         <f>C42 &amp; "/" &amp; D42</f>
         <v>Normal/</v>
       </c>
-      <c r="F42" s="16" t="str">
+      <c r="F42" s="15" t="str">
         <f>IF(COUNTIF(E:E, E42)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -3096,7 +3095,7 @@
         <f>C43 &amp; "/" &amp; D43</f>
         <v>Normal/</v>
       </c>
-      <c r="F43" s="16" t="str">
+      <c r="F43" s="15" t="str">
         <f>IF(COUNTIF(E:E, E43)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -3120,7 +3119,7 @@
         <f>C44 &amp; "/" &amp; D44</f>
         <v>Normal/</v>
       </c>
-      <c r="F44" s="16" t="str">
+      <c r="F44" s="15" t="str">
         <f>IF(COUNTIF(E:E, E44)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -3144,7 +3143,7 @@
         <f>C45 &amp; "/" &amp; D45</f>
         <v>Normal/</v>
       </c>
-      <c r="F45" s="16" t="str">
+      <c r="F45" s="15" t="str">
         <f>IF(COUNTIF(E:E, E45)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -3168,7 +3167,7 @@
         <f>C46 &amp; "/" &amp; D46</f>
         <v>Normal/</v>
       </c>
-      <c r="F46" s="16" t="str">
+      <c r="F46" s="15" t="str">
         <f>IF(COUNTIF(E:E, E46)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -3192,7 +3191,7 @@
         <f>C47 &amp; "/" &amp; D47</f>
         <v>Normal/</v>
       </c>
-      <c r="F47" s="16" t="str">
+      <c r="F47" s="15" t="str">
         <f>IF(COUNTIF(E:E, E47)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -3216,7 +3215,7 @@
         <f>C48 &amp; "/" &amp; D48</f>
         <v>Normal/</v>
       </c>
-      <c r="F48" s="16" t="str">
+      <c r="F48" s="15" t="str">
         <f>IF(COUNTIF(E:E, E48)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -3240,7 +3239,7 @@
         <f>C49 &amp; "/" &amp; D49</f>
         <v>Normal/</v>
       </c>
-      <c r="F49" s="16" t="str">
+      <c r="F49" s="15" t="str">
         <f>IF(COUNTIF(E:E, E49)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -3264,7 +3263,7 @@
         <f>C50 &amp; "/" &amp; D50</f>
         <v>Water/</v>
       </c>
-      <c r="F50" s="16" t="str">
+      <c r="F50" s="15" t="str">
         <f>IF(COUNTIF(E:E, E50)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -3288,7 +3287,7 @@
         <f>C51 &amp; "/" &amp; D51</f>
         <v>Water/</v>
       </c>
-      <c r="F51" s="16" t="str">
+      <c r="F51" s="15" t="str">
         <f>IF(COUNTIF(E:E, E51)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -3312,7 +3311,7 @@
         <f>C52 &amp; "/" &amp; D52</f>
         <v>Water/</v>
       </c>
-      <c r="F52" s="16" t="str">
+      <c r="F52" s="15" t="str">
         <f>IF(COUNTIF(E:E, E52)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -3336,7 +3335,7 @@
         <f>C53 &amp; "/" &amp; D53</f>
         <v>Water/</v>
       </c>
-      <c r="F53" s="16" t="str">
+      <c r="F53" s="15" t="str">
         <f>IF(COUNTIF(E:E, E53)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -3360,7 +3359,7 @@
         <f>C54 &amp; "/" &amp; D54</f>
         <v>Water/</v>
       </c>
-      <c r="F54" s="16" t="str">
+      <c r="F54" s="15" t="str">
         <f>IF(COUNTIF(E:E, E54)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -3384,7 +3383,7 @@
         <f>C55 &amp; "/" &amp; D55</f>
         <v>Water/</v>
       </c>
-      <c r="F55" s="16" t="str">
+      <c r="F55" s="15" t="str">
         <f>IF(COUNTIF(E:E, E55)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -3408,7 +3407,7 @@
         <f>C56 &amp; "/" &amp; D56</f>
         <v>Water/</v>
       </c>
-      <c r="F56" s="16" t="str">
+      <c r="F56" s="15" t="str">
         <f>IF(COUNTIF(E:E, E56)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -3432,7 +3431,7 @@
         <f>C57 &amp; "/" &amp; D57</f>
         <v>Water/</v>
       </c>
-      <c r="F57" s="16" t="str">
+      <c r="F57" s="15" t="str">
         <f>IF(COUNTIF(E:E, E57)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -3456,7 +3455,7 @@
         <f>C58 &amp; "/" &amp; D58</f>
         <v>Water/</v>
       </c>
-      <c r="F58" s="16" t="str">
+      <c r="F58" s="15" t="str">
         <f>IF(COUNTIF(E:E, E58)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -3480,7 +3479,7 @@
         <f>C59 &amp; "/" &amp; D59</f>
         <v>Water/</v>
       </c>
-      <c r="F59" s="16" t="str">
+      <c r="F59" s="15" t="str">
         <f>IF(COUNTIF(E:E, E59)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -3504,7 +3503,7 @@
         <f>C60 &amp; "/" &amp; D60</f>
         <v>Water/</v>
       </c>
-      <c r="F60" s="16" t="str">
+      <c r="F60" s="15" t="str">
         <f>IF(COUNTIF(E:E, E60)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -3528,7 +3527,7 @@
         <f>C61 &amp; "/" &amp; D61</f>
         <v>Water/</v>
       </c>
-      <c r="F61" s="16" t="str">
+      <c r="F61" s="15" t="str">
         <f>IF(COUNTIF(E:E, E61)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -3552,7 +3551,7 @@
         <f>C62 &amp; "/" &amp; D62</f>
         <v>Water/</v>
       </c>
-      <c r="F62" s="16" t="str">
+      <c r="F62" s="15" t="str">
         <f>IF(COUNTIF(E:E, E62)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -3576,7 +3575,7 @@
         <f>C63 &amp; "/" &amp; D63</f>
         <v>Water/</v>
       </c>
-      <c r="F63" s="16" t="str">
+      <c r="F63" s="15" t="str">
         <f>IF(COUNTIF(E:E, E63)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -3600,7 +3599,7 @@
         <f>C64 &amp; "/" &amp; D64</f>
         <v>Water/</v>
       </c>
-      <c r="F64" s="16" t="str">
+      <c r="F64" s="15" t="str">
         <f>IF(COUNTIF(E:E, E64)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -3624,7 +3623,7 @@
         <f>C65 &amp; "/" &amp; D65</f>
         <v>Water/</v>
       </c>
-      <c r="F65" s="16" t="str">
+      <c r="F65" s="15" t="str">
         <f>IF(COUNTIF(E:E, E65)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -3648,7 +3647,7 @@
         <f>C66 &amp; "/" &amp; D66</f>
         <v>Water/</v>
       </c>
-      <c r="F66" s="16" t="str">
+      <c r="F66" s="15" t="str">
         <f>IF(COUNTIF(E:E, E66)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -3672,7 +3671,7 @@
         <f>C67 &amp; "/" &amp; D67</f>
         <v>Water/</v>
       </c>
-      <c r="F67" s="16" t="str">
+      <c r="F67" s="15" t="str">
         <f>IF(COUNTIF(E:E, E67)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -3696,7 +3695,7 @@
         <f>C68 &amp; "/" &amp; D68</f>
         <v>Water/</v>
       </c>
-      <c r="F68" s="16" t="str">
+      <c r="F68" s="15" t="str">
         <f>IF(COUNTIF(E:E, E68)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -3720,7 +3719,7 @@
         <f>C69 &amp; "/" &amp; D69</f>
         <v>Water/</v>
       </c>
-      <c r="F69" s="16" t="str">
+      <c r="F69" s="15" t="str">
         <f>IF(COUNTIF(E:E, E69)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -3744,7 +3743,7 @@
         <f>C70 &amp; "/" &amp; D70</f>
         <v>Water/</v>
       </c>
-      <c r="F70" s="16" t="str">
+      <c r="F70" s="15" t="str">
         <f>IF(COUNTIF(E:E, E70)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -3768,7 +3767,7 @@
         <f>C71 &amp; "/" &amp; D71</f>
         <v>Water/</v>
       </c>
-      <c r="F71" s="16" t="str">
+      <c r="F71" s="15" t="str">
         <f>IF(COUNTIF(E:E, E71)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -3792,7 +3791,7 @@
         <f>C72 &amp; "/" &amp; D72</f>
         <v>Water/</v>
       </c>
-      <c r="F72" s="16" t="str">
+      <c r="F72" s="15" t="str">
         <f>IF(COUNTIF(E:E, E72)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -3816,7 +3815,7 @@
         <f>C73 &amp; "/" &amp; D73</f>
         <v>Water/</v>
       </c>
-      <c r="F73" s="16" t="str">
+      <c r="F73" s="15" t="str">
         <f>IF(COUNTIF(E:E, E73)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -3840,7 +3839,7 @@
         <f>C74 &amp; "/" &amp; D74</f>
         <v>Water/</v>
       </c>
-      <c r="F74" s="16" t="str">
+      <c r="F74" s="15" t="str">
         <f>IF(COUNTIF(E:E, E74)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -3864,7 +3863,7 @@
         <f>C75 &amp; "/" &amp; D75</f>
         <v>Water/</v>
       </c>
-      <c r="F75" s="16" t="str">
+      <c r="F75" s="15" t="str">
         <f>IF(COUNTIF(E:E, E75)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -3888,7 +3887,7 @@
         <f>C76 &amp; "/" &amp; D76</f>
         <v>Water/</v>
       </c>
-      <c r="F76" s="16" t="str">
+      <c r="F76" s="15" t="str">
         <f>IF(COUNTIF(E:E, E76)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -3912,7 +3911,7 @@
         <f>C77 &amp; "/" &amp; D77</f>
         <v>Water/</v>
       </c>
-      <c r="F77" s="16" t="str">
+      <c r="F77" s="15" t="str">
         <f>IF(COUNTIF(E:E, E77)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -3936,7 +3935,7 @@
         <f>C78 &amp; "/" &amp; D78</f>
         <v>Water/</v>
       </c>
-      <c r="F78" s="16" t="str">
+      <c r="F78" s="15" t="str">
         <f>IF(COUNTIF(E:E, E78)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -3960,7 +3959,7 @@
         <f>C79 &amp; "/" &amp; D79</f>
         <v>Water/</v>
       </c>
-      <c r="F79" s="16" t="str">
+      <c r="F79" s="15" t="str">
         <f>IF(COUNTIF(E:E, E79)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -3984,7 +3983,7 @@
         <f>C80 &amp; "/" &amp; D80</f>
         <v>Water/</v>
       </c>
-      <c r="F80" s="16" t="str">
+      <c r="F80" s="15" t="str">
         <f>IF(COUNTIF(E:E, E80)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -4008,7 +4007,7 @@
         <f>C81 &amp; "/" &amp; D81</f>
         <v>Water/</v>
       </c>
-      <c r="F81" s="16" t="str">
+      <c r="F81" s="15" t="str">
         <f>IF(COUNTIF(E:E, E81)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -4032,7 +4031,7 @@
         <f>C82 &amp; "/" &amp; D82</f>
         <v>Water/</v>
       </c>
-      <c r="F82" s="16" t="str">
+      <c r="F82" s="15" t="str">
         <f>IF(COUNTIF(E:E, E82)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -4056,7 +4055,7 @@
         <f>C83 &amp; "/" &amp; D83</f>
         <v>Water/</v>
       </c>
-      <c r="F83" s="16" t="str">
+      <c r="F83" s="15" t="str">
         <f>IF(COUNTIF(E:E, E83)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -4080,7 +4079,7 @@
         <f>C84 &amp; "/" &amp; D84</f>
         <v>Water/</v>
       </c>
-      <c r="F84" s="16" t="str">
+      <c r="F84" s="15" t="str">
         <f>IF(COUNTIF(E:E, E84)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -4104,7 +4103,7 @@
         <f>C85 &amp; "/" &amp; D85</f>
         <v>Water/</v>
       </c>
-      <c r="F85" s="16" t="str">
+      <c r="F85" s="15" t="str">
         <f>IF(COUNTIF(E:E, E85)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -4128,7 +4127,7 @@
         <f>C86 &amp; "/" &amp; D86</f>
         <v>Psychic/</v>
       </c>
-      <c r="F86" s="16" t="str">
+      <c r="F86" s="15" t="str">
         <f>IF(COUNTIF(E:E, E86)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -4152,7 +4151,7 @@
         <f>C87 &amp; "/" &amp; D87</f>
         <v>Psychic/</v>
       </c>
-      <c r="F87" s="16" t="str">
+      <c r="F87" s="15" t="str">
         <f>IF(COUNTIF(E:E, E87)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -4176,7 +4175,7 @@
         <f>C88 &amp; "/" &amp; D88</f>
         <v>Psychic/</v>
       </c>
-      <c r="F88" s="16" t="str">
+      <c r="F88" s="15" t="str">
         <f>IF(COUNTIF(E:E, E88)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -4200,7 +4199,7 @@
         <f>C89 &amp; "/" &amp; D89</f>
         <v>Psychic/</v>
       </c>
-      <c r="F89" s="16" t="str">
+      <c r="F89" s="15" t="str">
         <f>IF(COUNTIF(E:E, E89)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -4224,7 +4223,7 @@
         <f>C90 &amp; "/" &amp; D90</f>
         <v>Psychic/</v>
       </c>
-      <c r="F90" s="16" t="str">
+      <c r="F90" s="15" t="str">
         <f>IF(COUNTIF(E:E, E90)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -4248,7 +4247,7 @@
         <f>C91 &amp; "/" &amp; D91</f>
         <v>Psychic/</v>
       </c>
-      <c r="F91" s="16" t="str">
+      <c r="F91" s="15" t="str">
         <f>IF(COUNTIF(E:E, E91)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -4272,7 +4271,7 @@
         <f>C92 &amp; "/" &amp; D92</f>
         <v>Psychic/</v>
       </c>
-      <c r="F92" s="16" t="str">
+      <c r="F92" s="15" t="str">
         <f>IF(COUNTIF(E:E, E92)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -4296,7 +4295,7 @@
         <f>C93 &amp; "/" &amp; D93</f>
         <v>Psychic/</v>
       </c>
-      <c r="F93" s="16" t="str">
+      <c r="F93" s="15" t="str">
         <f>IF(COUNTIF(E:E, E93)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -4320,7 +4319,7 @@
         <f>C94 &amp; "/" &amp; D94</f>
         <v>Psychic/</v>
       </c>
-      <c r="F94" s="16" t="str">
+      <c r="F94" s="15" t="str">
         <f>IF(COUNTIF(E:E, E94)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -4344,7 +4343,7 @@
         <f>C95 &amp; "/" &amp; D95</f>
         <v>Psychic/</v>
       </c>
-      <c r="F95" s="16" t="str">
+      <c r="F95" s="15" t="str">
         <f>IF(COUNTIF(E:E, E95)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -4368,7 +4367,7 @@
         <f>C96 &amp; "/" &amp; D96</f>
         <v>Psychic/</v>
       </c>
-      <c r="F96" s="16" t="str">
+      <c r="F96" s="15" t="str">
         <f>IF(COUNTIF(E:E, E96)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -4392,7 +4391,7 @@
         <f>C97 &amp; "/" &amp; D97</f>
         <v>Psychic/</v>
       </c>
-      <c r="F97" s="16" t="str">
+      <c r="F97" s="15" t="str">
         <f>IF(COUNTIF(E:E, E97)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -4416,7 +4415,7 @@
         <f>C98 &amp; "/" &amp; D98</f>
         <v>Psychic/</v>
       </c>
-      <c r="F98" s="16" t="str">
+      <c r="F98" s="15" t="str">
         <f>IF(COUNTIF(E:E, E98)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -4440,7 +4439,7 @@
         <f>C99 &amp; "/" &amp; D99</f>
         <v>Psychic/</v>
       </c>
-      <c r="F99" s="16" t="str">
+      <c r="F99" s="15" t="str">
         <f>IF(COUNTIF(E:E, E99)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -4464,7 +4463,7 @@
         <f>C100 &amp; "/" &amp; D100</f>
         <v>Psychic/</v>
       </c>
-      <c r="F100" s="16" t="str">
+      <c r="F100" s="15" t="str">
         <f>IF(COUNTIF(E:E, E100)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -4488,7 +4487,7 @@
         <f>C101 &amp; "/" &amp; D101</f>
         <v>Psychic/</v>
       </c>
-      <c r="F101" s="16" t="str">
+      <c r="F101" s="15" t="str">
         <f>IF(COUNTIF(E:E, E101)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -4512,7 +4511,7 @@
         <f>C102 &amp; "/" &amp; D102</f>
         <v>Psychic/</v>
       </c>
-      <c r="F102" s="16" t="str">
+      <c r="F102" s="15" t="str">
         <f>IF(COUNTIF(E:E, E102)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -4536,7 +4535,7 @@
         <f>C103 &amp; "/" &amp; D103</f>
         <v>Psychic/</v>
       </c>
-      <c r="F103" s="16" t="str">
+      <c r="F103" s="15" t="str">
         <f>IF(COUNTIF(E:E, E103)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -4560,7 +4559,7 @@
         <f>C104 &amp; "/" &amp; D104</f>
         <v>Psychic/</v>
       </c>
-      <c r="F104" s="16" t="str">
+      <c r="F104" s="15" t="str">
         <f>IF(COUNTIF(E:E, E104)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -4584,7 +4583,7 @@
         <f>C105 &amp; "/" &amp; D105</f>
         <v>Fire/</v>
       </c>
-      <c r="F105" s="16" t="str">
+      <c r="F105" s="15" t="str">
         <f>IF(COUNTIF(E:E, E105)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -4608,7 +4607,7 @@
         <f>C106 &amp; "/" &amp; D106</f>
         <v>Fire/</v>
       </c>
-      <c r="F106" s="16" t="str">
+      <c r="F106" s="15" t="str">
         <f>IF(COUNTIF(E:E, E106)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -4632,7 +4631,7 @@
         <f>C107 &amp; "/" &amp; D107</f>
         <v>Fire/</v>
       </c>
-      <c r="F107" s="16" t="str">
+      <c r="F107" s="15" t="str">
         <f>IF(COUNTIF(E:E, E107)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -4656,7 +4655,7 @@
         <f>C108 &amp; "/" &amp; D108</f>
         <v>Fire/</v>
       </c>
-      <c r="F108" s="16" t="str">
+      <c r="F108" s="15" t="str">
         <f>IF(COUNTIF(E:E, E108)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -4680,7 +4679,7 @@
         <f>C109 &amp; "/" &amp; D109</f>
         <v>Fire/</v>
       </c>
-      <c r="F109" s="16" t="str">
+      <c r="F109" s="15" t="str">
         <f>IF(COUNTIF(E:E, E109)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -4704,7 +4703,7 @@
         <f>C110 &amp; "/" &amp; D110</f>
         <v>Fire/</v>
       </c>
-      <c r="F110" s="16" t="str">
+      <c r="F110" s="15" t="str">
         <f>IF(COUNTIF(E:E, E110)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -4728,7 +4727,7 @@
         <f>C111 &amp; "/" &amp; D111</f>
         <v>Fire/</v>
       </c>
-      <c r="F111" s="16" t="str">
+      <c r="F111" s="15" t="str">
         <f>IF(COUNTIF(E:E, E111)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -4752,7 +4751,7 @@
         <f>C112 &amp; "/" &amp; D112</f>
         <v>Fire/</v>
       </c>
-      <c r="F112" s="16" t="str">
+      <c r="F112" s="15" t="str">
         <f>IF(COUNTIF(E:E, E112)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -4776,7 +4775,7 @@
         <f>C113 &amp; "/" &amp; D113</f>
         <v>Fire/</v>
       </c>
-      <c r="F113" s="16" t="str">
+      <c r="F113" s="15" t="str">
         <f>IF(COUNTIF(E:E, E113)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -4800,7 +4799,7 @@
         <f>C114 &amp; "/" &amp; D114</f>
         <v>Fire/</v>
       </c>
-      <c r="F114" s="16" t="str">
+      <c r="F114" s="15" t="str">
         <f>IF(COUNTIF(E:E, E114)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -4824,7 +4823,7 @@
         <f>C115 &amp; "/" &amp; D115</f>
         <v>Fire/</v>
       </c>
-      <c r="F115" s="16" t="str">
+      <c r="F115" s="15" t="str">
         <f>IF(COUNTIF(E:E, E115)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -4848,7 +4847,7 @@
         <f>C116 &amp; "/" &amp; D116</f>
         <v>Fire/</v>
       </c>
-      <c r="F116" s="16" t="str">
+      <c r="F116" s="15" t="str">
         <f>IF(COUNTIF(E:E, E116)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -4872,7 +4871,7 @@
         <f>C117 &amp; "/" &amp; D117</f>
         <v>Fire/</v>
       </c>
-      <c r="F117" s="16" t="str">
+      <c r="F117" s="15" t="str">
         <f>IF(COUNTIF(E:E, E117)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -4896,7 +4895,7 @@
         <f>C118 &amp; "/" &amp; D118</f>
         <v>Fire/</v>
       </c>
-      <c r="F118" s="16" t="str">
+      <c r="F118" s="15" t="str">
         <f>IF(COUNTIF(E:E, E118)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -4920,7 +4919,7 @@
         <f>C119 &amp; "/" &amp; D119</f>
         <v>Fire/</v>
       </c>
-      <c r="F119" s="16" t="str">
+      <c r="F119" s="15" t="str">
         <f>IF(COUNTIF(E:E, E119)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -4944,7 +4943,7 @@
         <f>C120 &amp; "/" &amp; D120</f>
         <v>Fire/</v>
       </c>
-      <c r="F120" s="16" t="str">
+      <c r="F120" s="15" t="str">
         <f>IF(COUNTIF(E:E, E120)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -4968,7 +4967,7 @@
         <f>C121 &amp; "/" &amp; D121</f>
         <v>Fire/</v>
       </c>
-      <c r="F121" s="16" t="str">
+      <c r="F121" s="15" t="str">
         <f>IF(COUNTIF(E:E, E121)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -4992,7 +4991,7 @@
         <f>C122 &amp; "/" &amp; D122</f>
         <v>Fire/</v>
       </c>
-      <c r="F122" s="16" t="str">
+      <c r="F122" s="15" t="str">
         <f>IF(COUNTIF(E:E, E122)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -5016,7 +5015,7 @@
         <f>C123 &amp; "/" &amp; D123</f>
         <v>Electric/</v>
       </c>
-      <c r="F123" s="16" t="str">
+      <c r="F123" s="15" t="str">
         <f>IF(COUNTIF(E:E, E123)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -5040,7 +5039,7 @@
         <f>C124 &amp; "/" &amp; D124</f>
         <v>Electric/</v>
       </c>
-      <c r="F124" s="16" t="str">
+      <c r="F124" s="15" t="str">
         <f>IF(COUNTIF(E:E, E124)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -5064,7 +5063,7 @@
         <f>C125 &amp; "/" &amp; D125</f>
         <v>Electric/</v>
       </c>
-      <c r="F125" s="16" t="str">
+      <c r="F125" s="15" t="str">
         <f>IF(COUNTIF(E:E, E125)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -5088,7 +5087,7 @@
         <f>C126 &amp; "/" &amp; D126</f>
         <v>Electric/</v>
       </c>
-      <c r="F126" s="16" t="str">
+      <c r="F126" s="15" t="str">
         <f>IF(COUNTIF(E:E, E126)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -5112,7 +5111,7 @@
         <f>C127 &amp; "/" &amp; D127</f>
         <v>Electric/</v>
       </c>
-      <c r="F127" s="16" t="str">
+      <c r="F127" s="15" t="str">
         <f>IF(COUNTIF(E:E, E127)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -5136,7 +5135,7 @@
         <f>C128 &amp; "/" &amp; D128</f>
         <v>Electric/</v>
       </c>
-      <c r="F128" s="16" t="str">
+      <c r="F128" s="15" t="str">
         <f>IF(COUNTIF(E:E, E128)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -5160,7 +5159,7 @@
         <f>C129 &amp; "/" &amp; D129</f>
         <v>Electric/</v>
       </c>
-      <c r="F129" s="16" t="str">
+      <c r="F129" s="15" t="str">
         <f>IF(COUNTIF(E:E, E129)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -5184,7 +5183,7 @@
         <f>C130 &amp; "/" &amp; D130</f>
         <v>Electric/</v>
       </c>
-      <c r="F130" s="16" t="str">
+      <c r="F130" s="15" t="str">
         <f>IF(COUNTIF(E:E, E130)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -5208,7 +5207,7 @@
         <f>C131 &amp; "/" &amp; D131</f>
         <v>Electric/</v>
       </c>
-      <c r="F131" s="16" t="str">
+      <c r="F131" s="15" t="str">
         <f>IF(COUNTIF(E:E, E131)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -5232,7 +5231,7 @@
         <f>C132 &amp; "/" &amp; D132</f>
         <v>Electric/</v>
       </c>
-      <c r="F132" s="16" t="str">
+      <c r="F132" s="15" t="str">
         <f>IF(COUNTIF(E:E, E132)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -5256,7 +5255,7 @@
         <f>C133 &amp; "/" &amp; D133</f>
         <v>Electric/</v>
       </c>
-      <c r="F133" s="16" t="str">
+      <c r="F133" s="15" t="str">
         <f>IF(COUNTIF(E:E, E133)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -5280,7 +5279,7 @@
         <f>C134 &amp; "/" &amp; D134</f>
         <v>Electric/</v>
       </c>
-      <c r="F134" s="16" t="str">
+      <c r="F134" s="15" t="str">
         <f>IF(COUNTIF(E:E, E134)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -5304,7 +5303,7 @@
         <f>C135 &amp; "/" &amp; D135</f>
         <v>Electric/</v>
       </c>
-      <c r="F135" s="16" t="str">
+      <c r="F135" s="15" t="str">
         <f>IF(COUNTIF(E:E, E135)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -5328,7 +5327,7 @@
         <f>C136 &amp; "/" &amp; D136</f>
         <v>Electric/</v>
       </c>
-      <c r="F136" s="16" t="str">
+      <c r="F136" s="15" t="str">
         <f>IF(COUNTIF(E:E, E136)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -5352,7 +5351,7 @@
         <f>C137 &amp; "/" &amp; D137</f>
         <v>Electric/</v>
       </c>
-      <c r="F137" s="16" t="str">
+      <c r="F137" s="15" t="str">
         <f>IF(COUNTIF(E:E, E137)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -5376,7 +5375,7 @@
         <f>C138 &amp; "/" &amp; D138</f>
         <v>Electric/</v>
       </c>
-      <c r="F138" s="16" t="str">
+      <c r="F138" s="15" t="str">
         <f>IF(COUNTIF(E:E, E138)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -5400,13 +5399,13 @@
         <f>C139 &amp; "/" &amp; D139</f>
         <v>Grass/</v>
       </c>
-      <c r="F139" s="16" t="str">
+      <c r="F139" s="15" t="str">
         <f>IF(COUNTIF(E:E, E139)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
       <c r="G139" s="3">
         <f>COUNTIF(E:E, E139)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -5424,13 +5423,13 @@
         <f>C140 &amp; "/" &amp; D140</f>
         <v>Grass/</v>
       </c>
-      <c r="F140" s="16" t="str">
+      <c r="F140" s="15" t="str">
         <f>IF(COUNTIF(E:E, E140)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
       <c r="G140" s="3">
         <f>COUNTIF(E:E, E140)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -5448,13 +5447,13 @@
         <f>C141 &amp; "/" &amp; D141</f>
         <v>Grass/</v>
       </c>
-      <c r="F141" s="16" t="str">
+      <c r="F141" s="15" t="str">
         <f>IF(COUNTIF(E:E, E141)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
       <c r="G141" s="3">
         <f>COUNTIF(E:E, E141)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -5472,13 +5471,13 @@
         <f>C142 &amp; "/" &amp; D142</f>
         <v>Grass/</v>
       </c>
-      <c r="F142" s="16" t="str">
+      <c r="F142" s="15" t="str">
         <f>IF(COUNTIF(E:E, E142)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
       <c r="G142" s="3">
         <f>COUNTIF(E:E, E142)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -5496,13 +5495,13 @@
         <f>C143 &amp; "/" &amp; D143</f>
         <v>Grass/</v>
       </c>
-      <c r="F143" s="16" t="str">
+      <c r="F143" s="15" t="str">
         <f>IF(COUNTIF(E:E, E143)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
       <c r="G143" s="3">
         <f>COUNTIF(E:E, E143)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -5520,13 +5519,13 @@
         <f>C144 &amp; "/" &amp; D144</f>
         <v>Grass/</v>
       </c>
-      <c r="F144" s="16" t="str">
+      <c r="F144" s="15" t="str">
         <f>IF(COUNTIF(E:E, E144)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
       <c r="G144" s="3">
         <f>COUNTIF(E:E, E144)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -5539,18 +5538,20 @@
       <c r="C145" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="D145" s="4"/>
+      <c r="D145" s="4" t="s">
+        <v>389</v>
+      </c>
       <c r="E145" s="3" t="str">
         <f>C145 &amp; "/" &amp; D145</f>
-        <v>Grass/</v>
-      </c>
-      <c r="F145" s="16" t="str">
+        <v>Grass/Flying</v>
+      </c>
+      <c r="F145" s="15" t="str">
         <f>IF(COUNTIF(E:E, E145)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
       <c r="G145" s="3">
         <f>COUNTIF(E:E, E145)</f>
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -5563,18 +5564,20 @@
       <c r="C146" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="D146" s="4"/>
+      <c r="D146" s="4" t="s">
+        <v>389</v>
+      </c>
       <c r="E146" s="3" t="str">
         <f>C146 &amp; "/" &amp; D146</f>
-        <v>Grass/</v>
-      </c>
-      <c r="F146" s="16" t="str">
+        <v>Grass/Flying</v>
+      </c>
+      <c r="F146" s="15" t="str">
         <f>IF(COUNTIF(E:E, E146)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
       <c r="G146" s="3">
         <f>COUNTIF(E:E, E146)</f>
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -5592,13 +5595,13 @@
         <f>C147 &amp; "/" &amp; D147</f>
         <v>Grass/</v>
       </c>
-      <c r="F147" s="16" t="str">
+      <c r="F147" s="15" t="str">
         <f>IF(COUNTIF(E:E, E147)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
       <c r="G147" s="3">
         <f>COUNTIF(E:E, E147)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -5616,13 +5619,13 @@
         <f>C148 &amp; "/" &amp; D148</f>
         <v>Grass/</v>
       </c>
-      <c r="F148" s="16" t="str">
+      <c r="F148" s="15" t="str">
         <f>IF(COUNTIF(E:E, E148)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
       <c r="G148" s="3">
         <f>COUNTIF(E:E, E148)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -5640,13 +5643,13 @@
         <f>C149 &amp; "/" &amp; D149</f>
         <v>Grass/</v>
       </c>
-      <c r="F149" s="16" t="str">
+      <c r="F149" s="15" t="str">
         <f>IF(COUNTIF(E:E, E149)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
       <c r="G149" s="3">
         <f>COUNTIF(E:E, E149)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -5664,13 +5667,13 @@
         <f>C150 &amp; "/" &amp; D150</f>
         <v>Grass/</v>
       </c>
-      <c r="F150" s="16" t="str">
+      <c r="F150" s="15" t="str">
         <f>IF(COUNTIF(E:E, E150)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
       <c r="G150" s="3">
         <f>COUNTIF(E:E, E150)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -5688,13 +5691,13 @@
         <f>C151 &amp; "/" &amp; D151</f>
         <v>Grass/</v>
       </c>
-      <c r="F151" s="16" t="str">
+      <c r="F151" s="15" t="str">
         <f>IF(COUNTIF(E:E, E151)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
       <c r="G151" s="3">
         <f>COUNTIF(E:E, E151)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -5712,13 +5715,13 @@
         <f>C152 &amp; "/" &amp; D152</f>
         <v>Grass/</v>
       </c>
-      <c r="F152" s="16" t="str">
+      <c r="F152" s="15" t="str">
         <f>IF(COUNTIF(E:E, E152)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
       <c r="G152" s="3">
         <f>COUNTIF(E:E, E152)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -5736,13 +5739,13 @@
         <f>C153 &amp; "/" &amp; D153</f>
         <v>Grass/</v>
       </c>
-      <c r="F153" s="16" t="str">
+      <c r="F153" s="15" t="str">
         <f>IF(COUNTIF(E:E, E153)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
       <c r="G153" s="3">
         <f>COUNTIF(E:E, E153)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -5762,7 +5765,7 @@
         <f>C154 &amp; "/" &amp; D154</f>
         <v>Normal/Flying</v>
       </c>
-      <c r="F154" s="16" t="str">
+      <c r="F154" s="15" t="str">
         <f>IF(COUNTIF(E:E, E154)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -5788,7 +5791,7 @@
         <f>C155 &amp; "/" &amp; D155</f>
         <v>Normal/Flying</v>
       </c>
-      <c r="F155" s="16" t="str">
+      <c r="F155" s="15" t="str">
         <f>IF(COUNTIF(E:E, E155)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -5814,7 +5817,7 @@
         <f>C156 &amp; "/" &amp; D156</f>
         <v>Normal/Flying</v>
       </c>
-      <c r="F156" s="16" t="str">
+      <c r="F156" s="15" t="str">
         <f>IF(COUNTIF(E:E, E156)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -5840,7 +5843,7 @@
         <f>C157 &amp; "/" &amp; D157</f>
         <v>Normal/Flying</v>
       </c>
-      <c r="F157" s="16" t="str">
+      <c r="F157" s="15" t="str">
         <f>IF(COUNTIF(E:E, E157)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -5866,7 +5869,7 @@
         <f>C158 &amp; "/" &amp; D158</f>
         <v>Normal/Flying</v>
       </c>
-      <c r="F158" s="16" t="str">
+      <c r="F158" s="15" t="str">
         <f>IF(COUNTIF(E:E, E158)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -5890,7 +5893,7 @@
         <f>C159 &amp; "/" &amp; D159</f>
         <v>Poison/</v>
       </c>
-      <c r="F159" s="16" t="str">
+      <c r="F159" s="15" t="str">
         <f>IF(COUNTIF(E:E, E159)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -5914,7 +5917,7 @@
         <f>C160 &amp; "/" &amp; D160</f>
         <v>Poison/</v>
       </c>
-      <c r="F160" s="16" t="str">
+      <c r="F160" s="15" t="str">
         <f>IF(COUNTIF(E:E, E160)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -5938,7 +5941,7 @@
         <f>C161 &amp; "/" &amp; D161</f>
         <v>Poison/</v>
       </c>
-      <c r="F161" s="16" t="str">
+      <c r="F161" s="15" t="str">
         <f>IF(COUNTIF(E:E, E161)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -5962,7 +5965,7 @@
         <f>C162 &amp; "/" &amp; D162</f>
         <v>Poison/</v>
       </c>
-      <c r="F162" s="16" t="str">
+      <c r="F162" s="15" t="str">
         <f>IF(COUNTIF(E:E, E162)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -5986,7 +5989,7 @@
         <f>C163 &amp; "/" &amp; D163</f>
         <v>Poison/</v>
       </c>
-      <c r="F163" s="16" t="str">
+      <c r="F163" s="15" t="str">
         <f>IF(COUNTIF(E:E, E163)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -6010,7 +6013,7 @@
         <f>C164 &amp; "/" &amp; D164</f>
         <v>Poison/</v>
       </c>
-      <c r="F164" s="16" t="str">
+      <c r="F164" s="15" t="str">
         <f>IF(COUNTIF(E:E, E164)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -6036,7 +6039,7 @@
         <f>C165 &amp; "/" &amp; D165</f>
         <v>Normal/Flying</v>
       </c>
-      <c r="F165" s="16" t="str">
+      <c r="F165" s="15" t="str">
         <f>IF(COUNTIF(E:E, E165)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -6062,7 +6065,7 @@
         <f>C166 &amp; "/" &amp; D166</f>
         <v>Normal/Flying</v>
       </c>
-      <c r="F166" s="16" t="str">
+      <c r="F166" s="15" t="str">
         <f>IF(COUNTIF(E:E, E166)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -6088,7 +6091,7 @@
         <f>C167 &amp; "/" &amp; D167</f>
         <v>Normal/Flying</v>
       </c>
-      <c r="F167" s="16" t="str">
+      <c r="F167" s="15" t="str">
         <f>IF(COUNTIF(E:E, E167)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -6112,7 +6115,7 @@
         <f>C168 &amp; "/" &amp; D168</f>
         <v>Poison/</v>
       </c>
-      <c r="F168" s="16" t="str">
+      <c r="F168" s="15" t="str">
         <f>IF(COUNTIF(E:E, E168)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -6136,7 +6139,7 @@
         <f>C169 &amp; "/" &amp; D169</f>
         <v>Poison/</v>
       </c>
-      <c r="F169" s="16" t="str">
+      <c r="F169" s="15" t="str">
         <f>IF(COUNTIF(E:E, E169)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -6160,7 +6163,7 @@
         <f>C170 &amp; "/" &amp; D170</f>
         <v>Poison/</v>
       </c>
-      <c r="F170" s="16" t="str">
+      <c r="F170" s="15" t="str">
         <f>IF(COUNTIF(E:E, E170)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -6184,7 +6187,7 @@
         <f>C171 &amp; "/" &amp; D171</f>
         <v>Poison/</v>
       </c>
-      <c r="F171" s="16" t="str">
+      <c r="F171" s="15" t="str">
         <f>IF(COUNTIF(E:E, E171)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -6210,7 +6213,7 @@
         <f>C172 &amp; "/" &amp; D172</f>
         <v>Normal/Flying</v>
       </c>
-      <c r="F172" s="16" t="str">
+      <c r="F172" s="15" t="str">
         <f>IF(COUNTIF(E:E, E172)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -6236,7 +6239,7 @@
         <f>C173 &amp; "/" &amp; D173</f>
         <v>Normal/Flying</v>
       </c>
-      <c r="F173" s="16" t="str">
+      <c r="F173" s="15" t="str">
         <f>IF(COUNTIF(E:E, E173)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -6262,7 +6265,7 @@
         <f>C174 &amp; "/" &amp; D174</f>
         <v>Normal/Flying</v>
       </c>
-      <c r="F174" s="16" t="str">
+      <c r="F174" s="15" t="str">
         <f>IF(COUNTIF(E:E, E174)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -6288,7 +6291,7 @@
         <f>C175 &amp; "/" &amp; D175</f>
         <v>Normal/Flying</v>
       </c>
-      <c r="F175" s="16" t="str">
+      <c r="F175" s="15" t="str">
         <f>IF(COUNTIF(E:E, E175)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -6312,7 +6315,7 @@
         <f>C176 &amp; "/" &amp; D176</f>
         <v>Poison/</v>
       </c>
-      <c r="F176" s="16" t="str">
+      <c r="F176" s="15" t="str">
         <f>IF(COUNTIF(E:E, E176)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -6336,7 +6339,7 @@
         <f>C177 &amp; "/" &amp; D177</f>
         <v>Poison/</v>
       </c>
-      <c r="F177" s="16" t="str">
+      <c r="F177" s="15" t="str">
         <f>IF(COUNTIF(E:E, E177)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -6362,7 +6365,7 @@
         <f>C178 &amp; "/" &amp; D178</f>
         <v>Normal/Flying</v>
       </c>
-      <c r="F178" s="16" t="str">
+      <c r="F178" s="15" t="str">
         <f>IF(COUNTIF(E:E, E178)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -6386,7 +6389,7 @@
         <f>C179 &amp; "/" &amp; D179</f>
         <v>Poison/</v>
       </c>
-      <c r="F179" s="16" t="str">
+      <c r="F179" s="15" t="str">
         <f>IF(COUNTIF(E:E, E179)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -6410,7 +6413,7 @@
         <f>C180 &amp; "/" &amp; D180</f>
         <v>Fighting/</v>
       </c>
-      <c r="F180" s="16" t="str">
+      <c r="F180" s="15" t="str">
         <f>IF(COUNTIF(E:E, E180)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -6434,7 +6437,7 @@
         <f>C181 &amp; "/" &amp; D181</f>
         <v>Fighting/</v>
       </c>
-      <c r="F181" s="16" t="str">
+      <c r="F181" s="15" t="str">
         <f>IF(COUNTIF(E:E, E181)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -6458,7 +6461,7 @@
         <f>C182 &amp; "/" &amp; D182</f>
         <v>Fighting/</v>
       </c>
-      <c r="F182" s="16" t="str">
+      <c r="F182" s="15" t="str">
         <f>IF(COUNTIF(E:E, E182)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -6482,7 +6485,7 @@
         <f>C183 &amp; "/" &amp; D183</f>
         <v>Fighting/</v>
       </c>
-      <c r="F183" s="16" t="str">
+      <c r="F183" s="15" t="str">
         <f>IF(COUNTIF(E:E, E183)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -6506,7 +6509,7 @@
         <f>C184 &amp; "/" &amp; D184</f>
         <v>Fighting/</v>
       </c>
-      <c r="F184" s="16" t="str">
+      <c r="F184" s="15" t="str">
         <f>IF(COUNTIF(E:E, E184)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -6530,7 +6533,7 @@
         <f>C185 &amp; "/" &amp; D185</f>
         <v>Fighting/</v>
       </c>
-      <c r="F185" s="16" t="str">
+      <c r="F185" s="15" t="str">
         <f>IF(COUNTIF(E:E, E185)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -6554,7 +6557,7 @@
         <f>C186 &amp; "/" &amp; D186</f>
         <v>Fighting/</v>
       </c>
-      <c r="F186" s="16" t="str">
+      <c r="F186" s="15" t="str">
         <f>IF(COUNTIF(E:E, E186)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -6578,7 +6581,7 @@
         <f>C187 &amp; "/" &amp; D187</f>
         <v>Fighting/</v>
       </c>
-      <c r="F187" s="16" t="str">
+      <c r="F187" s="15" t="str">
         <f>IF(COUNTIF(E:E, E187)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -6602,7 +6605,7 @@
         <f>C188 &amp; "/" &amp; D188</f>
         <v>Fighting/</v>
       </c>
-      <c r="F188" s="16" t="str">
+      <c r="F188" s="15" t="str">
         <f>IF(COUNTIF(E:E, E188)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -6626,7 +6629,7 @@
         <f>C189 &amp; "/" &amp; D189</f>
         <v>Fighting/</v>
       </c>
-      <c r="F189" s="16" t="str">
+      <c r="F189" s="15" t="str">
         <f>IF(COUNTIF(E:E, E189)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -6650,7 +6653,7 @@
         <f>C190 &amp; "/" &amp; D190</f>
         <v>Fighting/</v>
       </c>
-      <c r="F190" s="16" t="str">
+      <c r="F190" s="15" t="str">
         <f>IF(COUNTIF(E:E, E190)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -6676,7 +6679,7 @@
         <f>C191 &amp; "/" &amp; D191</f>
         <v>Grass/Poison</v>
       </c>
-      <c r="F191" s="16" t="str">
+      <c r="F191" s="15" t="str">
         <f>IF(COUNTIF(E:E, E191)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -6702,7 +6705,7 @@
         <f>C192 &amp; "/" &amp; D192</f>
         <v>Grass/Poison</v>
       </c>
-      <c r="F192" s="16" t="str">
+      <c r="F192" s="15" t="str">
         <f>IF(COUNTIF(E:E, E192)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -6728,7 +6731,7 @@
         <f>C193 &amp; "/" &amp; D193</f>
         <v>Grass/Poison</v>
       </c>
-      <c r="F193" s="16" t="str">
+      <c r="F193" s="15" t="str">
         <f>IF(COUNTIF(E:E, E193)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -6752,7 +6755,7 @@
         <f>C194 &amp; "/" &amp; D194</f>
         <v>Ground/</v>
       </c>
-      <c r="F194" s="16" t="str">
+      <c r="F194" s="15" t="str">
         <f>IF(COUNTIF(E:E, E194)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -6776,7 +6779,7 @@
         <f>C195 &amp; "/" &amp; D195</f>
         <v>Ground/</v>
       </c>
-      <c r="F195" s="16" t="str">
+      <c r="F195" s="15" t="str">
         <f>IF(COUNTIF(E:E, E195)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -6802,7 +6805,7 @@
         <f>C196 &amp; "/" &amp; D196</f>
         <v>Grass/Poison</v>
       </c>
-      <c r="F196" s="16" t="str">
+      <c r="F196" s="15" t="str">
         <f>IF(COUNTIF(E:E, E196)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -6828,7 +6831,7 @@
         <f>C197 &amp; "/" &amp; D197</f>
         <v>Grass/Poison</v>
       </c>
-      <c r="F197" s="16" t="str">
+      <c r="F197" s="15" t="str">
         <f>IF(COUNTIF(E:E, E197)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -6854,7 +6857,7 @@
         <f>C198 &amp; "/" &amp; D198</f>
         <v>Grass/Poison</v>
       </c>
-      <c r="F198" s="16" t="str">
+      <c r="F198" s="15" t="str">
         <f>IF(COUNTIF(E:E, E198)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -6878,7 +6881,7 @@
         <f>C199 &amp; "/" &amp; D199</f>
         <v>Ground/</v>
       </c>
-      <c r="F199" s="16" t="str">
+      <c r="F199" s="15" t="str">
         <f>IF(COUNTIF(E:E, E199)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -6902,7 +6905,7 @@
         <f>C200 &amp; "/" &amp; D200</f>
         <v>Ground/</v>
       </c>
-      <c r="F200" s="16" t="str">
+      <c r="F200" s="15" t="str">
         <f>IF(COUNTIF(E:E, E200)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -6928,7 +6931,7 @@
         <f>C201 &amp; "/" &amp; D201</f>
         <v>Grass/Poison</v>
       </c>
-      <c r="F201" s="16" t="str">
+      <c r="F201" s="15" t="str">
         <f>IF(COUNTIF(E:E, E201)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -6954,7 +6957,7 @@
         <f>C202 &amp; "/" &amp; D202</f>
         <v>Grass/Poison</v>
       </c>
-      <c r="F202" s="16" t="str">
+      <c r="F202" s="15" t="str">
         <f>IF(COUNTIF(E:E, E202)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -6980,7 +6983,7 @@
         <f>C203 &amp; "/" &amp; D203</f>
         <v>Grass/Poison</v>
       </c>
-      <c r="F203" s="16" t="str">
+      <c r="F203" s="15" t="str">
         <f>IF(COUNTIF(E:E, E203)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -7004,7 +7007,7 @@
         <f>C204 &amp; "/" &amp; D204</f>
         <v>Ground/</v>
       </c>
-      <c r="F204" s="16" t="str">
+      <c r="F204" s="15" t="str">
         <f>IF(COUNTIF(E:E, E204)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -7028,7 +7031,7 @@
         <f>C205 &amp; "/" &amp; D205</f>
         <v>Ground/</v>
       </c>
-      <c r="F205" s="16" t="str">
+      <c r="F205" s="15" t="str">
         <f>IF(COUNTIF(E:E, E205)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -7052,7 +7055,7 @@
         <f>C206 &amp; "/" &amp; D206</f>
         <v>Ground/</v>
       </c>
-      <c r="F206" s="16" t="str">
+      <c r="F206" s="15" t="str">
         <f>IF(COUNTIF(E:E, E206)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -7076,7 +7079,7 @@
         <f>C207 &amp; "/" &amp; D207</f>
         <v>Ground/</v>
       </c>
-      <c r="F207" s="16" t="str">
+      <c r="F207" s="15" t="str">
         <f>IF(COUNTIF(E:E, E207)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -7102,7 +7105,7 @@
         <f>C208 &amp; "/" &amp; D208</f>
         <v>Grass/Poison</v>
       </c>
-      <c r="F208" s="16" t="str">
+      <c r="F208" s="15" t="str">
         <f>IF(COUNTIF(E:E, E208)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -7126,7 +7129,7 @@
         <f>C209 &amp; "/" &amp; D209</f>
         <v>Ground/</v>
       </c>
-      <c r="F209" s="16" t="str">
+      <c r="F209" s="15" t="str">
         <f>IF(COUNTIF(E:E, E209)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -7150,7 +7153,7 @@
         <f>C210 &amp; "/" &amp; D210</f>
         <v>Ground/</v>
       </c>
-      <c r="F210" s="16" t="str">
+      <c r="F210" s="15" t="str">
         <f>IF(COUNTIF(E:E, E210)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -7174,7 +7177,7 @@
         <f>C211 &amp; "/" &amp; D211</f>
         <v>Bug/</v>
       </c>
-      <c r="F211" s="16" t="str">
+      <c r="F211" s="15" t="str">
         <f>IF(COUNTIF(E:E, E211)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -7198,7 +7201,7 @@
         <f>C212 &amp; "/" &amp; D212</f>
         <v>Bug/</v>
       </c>
-      <c r="F212" s="16" t="str">
+      <c r="F212" s="15" t="str">
         <f>IF(COUNTIF(E:E, E212)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -7222,7 +7225,7 @@
         <f>C213 &amp; "/" &amp; D213</f>
         <v>Bug/</v>
       </c>
-      <c r="F213" s="16" t="str">
+      <c r="F213" s="15" t="str">
         <f>IF(COUNTIF(E:E, E213)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -7246,7 +7249,7 @@
         <f>C214 &amp; "/" &amp; D214</f>
         <v>Bug/</v>
       </c>
-      <c r="F214" s="16" t="str">
+      <c r="F214" s="15" t="str">
         <f>IF(COUNTIF(E:E, E214)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -7270,7 +7273,7 @@
         <f>C215 &amp; "/" &amp; D215</f>
         <v>Bug/</v>
       </c>
-      <c r="F215" s="16" t="str">
+      <c r="F215" s="15" t="str">
         <f>IF(COUNTIF(E:E, E215)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -7294,7 +7297,7 @@
         <f>C216 &amp; "/" &amp; D216</f>
         <v>Bug/</v>
       </c>
-      <c r="F216" s="16" t="str">
+      <c r="F216" s="15" t="str">
         <f>IF(COUNTIF(E:E, E216)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -7318,7 +7321,7 @@
         <f>C217 &amp; "/" &amp; D217</f>
         <v>Bug/</v>
       </c>
-      <c r="F217" s="16" t="str">
+      <c r="F217" s="15" t="str">
         <f>IF(COUNTIF(E:E, E217)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -7342,7 +7345,7 @@
         <f>C218 &amp; "/" &amp; D218</f>
         <v>Bug/</v>
       </c>
-      <c r="F218" s="16" t="str">
+      <c r="F218" s="15" t="str">
         <f>IF(COUNTIF(E:E, E218)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -7366,7 +7369,7 @@
         <f>C219 &amp; "/" &amp; D219</f>
         <v>Bug/</v>
       </c>
-      <c r="F219" s="16" t="str">
+      <c r="F219" s="15" t="str">
         <f>IF(COUNTIF(E:E, E219)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -7392,7 +7395,7 @@
         <f>C220 &amp; "/" &amp; D220</f>
         <v>Bug/Poison</v>
       </c>
-      <c r="F220" s="16" t="str">
+      <c r="F220" s="15" t="str">
         <f>IF(COUNTIF(E:E, E220)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -7418,7 +7421,7 @@
         <f>C221 &amp; "/" &amp; D221</f>
         <v>Bug/Poison</v>
       </c>
-      <c r="F221" s="16" t="str">
+      <c r="F221" s="15" t="str">
         <f>IF(COUNTIF(E:E, E221)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -7444,7 +7447,7 @@
         <f>C222 &amp; "/" &amp; D222</f>
         <v>Bug/Poison</v>
       </c>
-      <c r="F222" s="16" t="str">
+      <c r="F222" s="15" t="str">
         <f>IF(COUNTIF(E:E, E222)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -7470,7 +7473,7 @@
         <f>C223 &amp; "/" &amp; D223</f>
         <v>Bug/Poison</v>
       </c>
-      <c r="F223" s="16" t="str">
+      <c r="F223" s="15" t="str">
         <f>IF(COUNTIF(E:E, E223)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -7496,7 +7499,7 @@
         <f>C224 &amp; "/" &amp; D224</f>
         <v>Bug/Poison</v>
       </c>
-      <c r="F224" s="16" t="str">
+      <c r="F224" s="15" t="str">
         <f>IF(COUNTIF(E:E, E224)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -7522,7 +7525,7 @@
         <f>C225 &amp; "/" &amp; D225</f>
         <v>Rock/Ground</v>
       </c>
-      <c r="F225" s="16" t="str">
+      <c r="F225" s="15" t="str">
         <f>IF(COUNTIF(E:E, E225)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -7548,7 +7551,7 @@
         <f>C226 &amp; "/" &amp; D226</f>
         <v>Rock/Ground</v>
       </c>
-      <c r="F226" s="16" t="str">
+      <c r="F226" s="15" t="str">
         <f>IF(COUNTIF(E:E, E226)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -7574,7 +7577,7 @@
         <f>C227 &amp; "/" &amp; D227</f>
         <v>Rock/Ground</v>
       </c>
-      <c r="F227" s="16" t="str">
+      <c r="F227" s="15" t="str">
         <f>IF(COUNTIF(E:E, E227)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -7600,7 +7603,7 @@
         <f>C228 &amp; "/" &amp; D228</f>
         <v>Rock/Ground</v>
       </c>
-      <c r="F228" s="16" t="str">
+      <c r="F228" s="15" t="str">
         <f>IF(COUNTIF(E:E, E228)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -7626,7 +7629,7 @@
         <f>C229 &amp; "/" &amp; D229</f>
         <v>Rock/Ground</v>
       </c>
-      <c r="F229" s="16" t="str">
+      <c r="F229" s="15" t="str">
         <f>IF(COUNTIF(E:E, E229)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -7652,7 +7655,7 @@
         <f>C230 &amp; "/" &amp; D230</f>
         <v>Rock/Ground</v>
       </c>
-      <c r="F230" s="16" t="str">
+      <c r="F230" s="15" t="str">
         <f>IF(COUNTIF(E:E, E230)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -7678,7 +7681,7 @@
         <f>C231 &amp; "/" &amp; D231</f>
         <v>Bug/Poison</v>
       </c>
-      <c r="F231" s="16" t="str">
+      <c r="F231" s="15" t="str">
         <f>IF(COUNTIF(E:E, E231)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -7704,7 +7707,7 @@
         <f>C232 &amp; "/" &amp; D232</f>
         <v>Bug/Poison</v>
       </c>
-      <c r="F232" s="16" t="str">
+      <c r="F232" s="15" t="str">
         <f>IF(COUNTIF(E:E, E232)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -7730,7 +7733,7 @@
         <f>C233 &amp; "/" &amp; D233</f>
         <v>Rock/Ground</v>
       </c>
-      <c r="F233" s="16" t="str">
+      <c r="F233" s="15" t="str">
         <f>IF(COUNTIF(E:E, E233)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -7756,7 +7759,7 @@
         <f>C234 &amp; "/" &amp; D234</f>
         <v>Rock/Ground</v>
       </c>
-      <c r="F234" s="16" t="str">
+      <c r="F234" s="15" t="str">
         <f>IF(COUNTIF(E:E, E234)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -7782,7 +7785,7 @@
         <f>C235 &amp; "/" &amp; D235</f>
         <v>Bug/Poison</v>
       </c>
-      <c r="F235" s="16" t="str">
+      <c r="F235" s="15" t="str">
         <f>IF(COUNTIF(E:E, E235)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -7808,7 +7811,7 @@
         <f>C236 &amp; "/" &amp; D236</f>
         <v>Bug/Flying</v>
       </c>
-      <c r="F236" s="16" t="str">
+      <c r="F236" s="15" t="str">
         <f>IF(COUNTIF(E:E, E236)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -7834,7 +7837,7 @@
         <f>C237 &amp; "/" &amp; D237</f>
         <v>Bug/Flying</v>
       </c>
-      <c r="F237" s="16" t="str">
+      <c r="F237" s="15" t="str">
         <f>IF(COUNTIF(E:E, E237)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -7860,7 +7863,7 @@
         <f>C238 &amp; "/" &amp; D238</f>
         <v>Bug/Flying</v>
       </c>
-      <c r="F238" s="16" t="str">
+      <c r="F238" s="15" t="str">
         <f>IF(COUNTIF(E:E, E238)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -7886,7 +7889,7 @@
         <f>C239 &amp; "/" &amp; D239</f>
         <v>Bug/Flying</v>
       </c>
-      <c r="F239" s="16" t="str">
+      <c r="F239" s="15" t="str">
         <f>IF(COUNTIF(E:E, E239)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -7912,7 +7915,7 @@
         <f>C240 &amp; "/" &amp; D240</f>
         <v>Bug/Flying</v>
       </c>
-      <c r="F240" s="16" t="str">
+      <c r="F240" s="15" t="str">
         <f>IF(COUNTIF(E:E, E240)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -7938,7 +7941,7 @@
         <f>C241 &amp; "/" &amp; D241</f>
         <v>Bug/Flying</v>
       </c>
-      <c r="F241" s="16" t="str">
+      <c r="F241" s="15" t="str">
         <f>IF(COUNTIF(E:E, E241)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -7964,7 +7967,7 @@
         <f>C242 &amp; "/" &amp; D242</f>
         <v>Bug/Flying</v>
       </c>
-      <c r="F242" s="16" t="str">
+      <c r="F242" s="15" t="str">
         <f>IF(COUNTIF(E:E, E242)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -7990,7 +7993,7 @@
         <f>C243 &amp; "/" &amp; D243</f>
         <v>Water/Rock</v>
       </c>
-      <c r="F243" s="16" t="str">
+      <c r="F243" s="15" t="str">
         <f>IF(COUNTIF(E:E, E243)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -8016,7 +8019,7 @@
         <f>C244 &amp; "/" &amp; D244</f>
         <v>Water/Rock</v>
       </c>
-      <c r="F244" s="16" t="str">
+      <c r="F244" s="15" t="str">
         <f>IF(COUNTIF(E:E, E244)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -8042,7 +8045,7 @@
         <f>C245 &amp; "/" &amp; D245</f>
         <v>Water/Rock</v>
       </c>
-      <c r="F245" s="16" t="str">
+      <c r="F245" s="15" t="str">
         <f>IF(COUNTIF(E:E, E245)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -8068,7 +8071,7 @@
         <f>C246 &amp; "/" &amp; D246</f>
         <v>Water/Rock</v>
       </c>
-      <c r="F246" s="16" t="str">
+      <c r="F246" s="15" t="str">
         <f>IF(COUNTIF(E:E, E246)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -8094,7 +8097,7 @@
         <f>C247 &amp; "/" &amp; D247</f>
         <v>Water/Ground</v>
       </c>
-      <c r="F247" s="16" t="str">
+      <c r="F247" s="15" t="str">
         <f>IF(COUNTIF(E:E, E247)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -8120,7 +8123,7 @@
         <f>C248 &amp; "/" &amp; D248</f>
         <v>Water/Ground</v>
       </c>
-      <c r="F248" s="16" t="str">
+      <c r="F248" s="15" t="str">
         <f>IF(COUNTIF(E:E, E248)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -8146,7 +8149,7 @@
         <f>C249 &amp; "/" &amp; D249</f>
         <v>Water/Rock</v>
       </c>
-      <c r="F249" s="16" t="str">
+      <c r="F249" s="15" t="str">
         <f>IF(COUNTIF(E:E, E249)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -8172,7 +8175,7 @@
         <f>C250 &amp; "/" &amp; D250</f>
         <v>Water/Ground</v>
       </c>
-      <c r="F250" s="16" t="str">
+      <c r="F250" s="15" t="str">
         <f>IF(COUNTIF(E:E, E250)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -8198,7 +8201,7 @@
         <f>C251 &amp; "/" &amp; D251</f>
         <v>Water/Ground</v>
       </c>
-      <c r="F251" s="16" t="str">
+      <c r="F251" s="15" t="str">
         <f>IF(COUNTIF(E:E, E251)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -8224,7 +8227,7 @@
         <f>C252 &amp; "/" &amp; D252</f>
         <v>Water/Ground</v>
       </c>
-      <c r="F252" s="16" t="str">
+      <c r="F252" s="15" t="str">
         <f>IF(COUNTIF(E:E, E252)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -8250,7 +8253,7 @@
         <f>C253 &amp; "/" &amp; D253</f>
         <v>Water/Ground</v>
       </c>
-      <c r="F253" s="16" t="str">
+      <c r="F253" s="15" t="str">
         <f>IF(COUNTIF(E:E, E253)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -8276,7 +8279,7 @@
         <f>C254 &amp; "/" &amp; D254</f>
         <v>Water/Rock</v>
       </c>
-      <c r="F254" s="16" t="str">
+      <c r="F254" s="15" t="str">
         <f>IF(COUNTIF(E:E, E254)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -8302,7 +8305,7 @@
         <f>C255 &amp; "/" &amp; D255</f>
         <v>Water/Psychic</v>
       </c>
-      <c r="F255" s="16" t="str">
+      <c r="F255" s="15" t="str">
         <f>IF(COUNTIF(E:E, E255)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -8328,7 +8331,7 @@
         <f>C256 &amp; "/" &amp; D256</f>
         <v>Water/Psychic</v>
       </c>
-      <c r="F256" s="16" t="str">
+      <c r="F256" s="15" t="str">
         <f>IF(COUNTIF(E:E, E256)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -8354,7 +8357,7 @@
         <f>C257 &amp; "/" &amp; D257</f>
         <v>Water/Psychic</v>
       </c>
-      <c r="F257" s="16" t="str">
+      <c r="F257" s="15" t="str">
         <f>IF(COUNTIF(E:E, E257)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -8380,7 +8383,7 @@
         <f>C258 &amp; "/" &amp; D258</f>
         <v>Water/Psychic</v>
       </c>
-      <c r="F258" s="16" t="str">
+      <c r="F258" s="15" t="str">
         <f>IF(COUNTIF(E:E, E258)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -8406,7 +8409,7 @@
         <f>C259 &amp; "/" &amp; D259</f>
         <v>Water/Psychic</v>
       </c>
-      <c r="F259" s="16" t="str">
+      <c r="F259" s="15" t="str">
         <f>IF(COUNTIF(E:E, E259)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -8430,7 +8433,7 @@
         <f>C260 &amp; "/" &amp; D260</f>
         <v>Ghost/</v>
       </c>
-      <c r="F260" s="16" t="str">
+      <c r="F260" s="15" t="str">
         <f>IF(COUNTIF(E:E, E260)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -8454,7 +8457,7 @@
         <f>C261 &amp; "/" &amp; D261</f>
         <v>Ghost/</v>
       </c>
-      <c r="F261" s="16" t="str">
+      <c r="F261" s="15" t="str">
         <f>IF(COUNTIF(E:E, E261)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -8478,7 +8481,7 @@
         <f>C262 &amp; "/" &amp; D262</f>
         <v>Ghost/</v>
       </c>
-      <c r="F262" s="16" t="str">
+      <c r="F262" s="15" t="str">
         <f>IF(COUNTIF(E:E, E262)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -8502,7 +8505,7 @@
         <f>C263 &amp; "/" &amp; D263</f>
         <v>Ghost/</v>
       </c>
-      <c r="F263" s="16" t="str">
+      <c r="F263" s="15" t="str">
         <f>IF(COUNTIF(E:E, E263)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -8526,7 +8529,7 @@
         <f>C264 &amp; "/" &amp; D264</f>
         <v>Ghost/</v>
       </c>
-      <c r="F264" s="16" t="str">
+      <c r="F264" s="15" t="str">
         <f>IF(COUNTIF(E:E, E264)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -8552,7 +8555,7 @@
         <f>C265 &amp; "/" &amp; D265</f>
         <v>Water/Flying</v>
       </c>
-      <c r="F265" s="16" t="str">
+      <c r="F265" s="15" t="str">
         <f>IF(COUNTIF(E:E, E265)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -8576,7 +8579,7 @@
         <f>C266 &amp; "/" &amp; D266</f>
         <v>Dragon/</v>
       </c>
-      <c r="F266" s="16" t="str">
+      <c r="F266" s="15" t="str">
         <f>IF(COUNTIF(E:E, E266)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -8600,7 +8603,7 @@
         <f>C267 &amp; "/" &amp; D267</f>
         <v>Dragon/</v>
       </c>
-      <c r="F267" s="16" t="str">
+      <c r="F267" s="15" t="str">
         <f>IF(COUNTIF(E:E, E267)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -8626,7 +8629,7 @@
         <f>C268 &amp; "/" &amp; D268</f>
         <v>Dragon/Flying</v>
       </c>
-      <c r="F268" s="16" t="str">
+      <c r="F268" s="15" t="str">
         <f>IF(COUNTIF(E:E, E268)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -8650,7 +8653,7 @@
         <f>C269 &amp; "/" &amp; D269</f>
         <v>Dark/</v>
       </c>
-      <c r="F269" s="16" t="str">
+      <c r="F269" s="15" t="str">
         <f>IF(COUNTIF(E:E, E269)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -8676,7 +8679,7 @@
         <f>C270 &amp; "/" &amp; D270</f>
         <v>Steel/Rock</v>
       </c>
-      <c r="F270" s="16" t="str">
+      <c r="F270" s="15" t="str">
         <f>IF(COUNTIF(E:E, E270)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -8702,7 +8705,7 @@
         <f>C271 &amp; "/" &amp; D271</f>
         <v>Water/Flying</v>
       </c>
-      <c r="F271" s="16" t="str">
+      <c r="F271" s="15" t="str">
         <f>IF(COUNTIF(E:E, E271)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -8726,7 +8729,7 @@
         <f>C272 &amp; "/" &amp; D272</f>
         <v>Dark/</v>
       </c>
-      <c r="F272" s="16" t="str">
+      <c r="F272" s="15" t="str">
         <f>IF(COUNTIF(E:E, E272)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -8750,7 +8753,7 @@
         <f>C273 &amp; "/" &amp; D273</f>
         <v>Dark/</v>
       </c>
-      <c r="F273" s="16" t="str">
+      <c r="F273" s="15" t="str">
         <f>IF(COUNTIF(E:E, E273)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -8776,7 +8779,7 @@
         <f>C274 &amp; "/" &amp; D274</f>
         <v>Grass/Dark</v>
       </c>
-      <c r="F274" s="16" t="str">
+      <c r="F274" s="15" t="str">
         <f>IF(COUNTIF(E:E, E274)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -8802,7 +8805,7 @@
         <f>C275 &amp; "/" &amp; D275</f>
         <v>Grass/Dark</v>
       </c>
-      <c r="F275" s="16" t="str">
+      <c r="F275" s="15" t="str">
         <f>IF(COUNTIF(E:E, E275)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -8828,7 +8831,7 @@
         <f>C276 &amp; "/" &amp; D276</f>
         <v>Water/Flying</v>
       </c>
-      <c r="F276" s="16" t="str">
+      <c r="F276" s="15" t="str">
         <f>IF(COUNTIF(E:E, E276)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -8854,7 +8857,7 @@
         <f>C277 &amp; "/" &amp; D277</f>
         <v>Water/Flying</v>
       </c>
-      <c r="F277" s="16" t="str">
+      <c r="F277" s="15" t="str">
         <f>IF(COUNTIF(E:E, E277)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -8880,7 +8883,7 @@
         <f>C278 &amp; "/" &amp; D278</f>
         <v>Steel/Rock</v>
       </c>
-      <c r="F278" s="16" t="str">
+      <c r="F278" s="15" t="str">
         <f>IF(COUNTIF(E:E, E278)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -8906,7 +8909,7 @@
         <f>C279 &amp; "/" &amp; D279</f>
         <v>Steel/Rock</v>
       </c>
-      <c r="F279" s="16" t="str">
+      <c r="F279" s="15" t="str">
         <f>IF(COUNTIF(E:E, E279)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -8932,7 +8935,7 @@
         <f>C280 &amp; "/" &amp; D280</f>
         <v>Steel/Rock</v>
       </c>
-      <c r="F280" s="16" t="str">
+      <c r="F280" s="15" t="str">
         <f>IF(COUNTIF(E:E, E280)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -8958,7 +8961,7 @@
         <f>C281 &amp; "/" &amp; D281</f>
         <v>Water/Dark</v>
       </c>
-      <c r="F281" s="16" t="str">
+      <c r="F281" s="15" t="str">
         <f>IF(COUNTIF(E:E, E281)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -8984,7 +8987,7 @@
         <f>C282 &amp; "/" &amp; D282</f>
         <v>Water/Dark</v>
       </c>
-      <c r="F282" s="16" t="str">
+      <c r="F282" s="15" t="str">
         <f>IF(COUNTIF(E:E, E282)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -9010,7 +9013,7 @@
         <f>C283 &amp; "/" &amp; D283</f>
         <v>Grass/Dark</v>
       </c>
-      <c r="F283" s="16" t="str">
+      <c r="F283" s="15" t="str">
         <f>IF(COUNTIF(E:E, E283)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -9036,7 +9039,7 @@
         <f>C284 &amp; "/" &amp; D284</f>
         <v>Grass/Dark</v>
       </c>
-      <c r="F284" s="16" t="str">
+      <c r="F284" s="15" t="str">
         <f>IF(COUNTIF(E:E, E284)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -9062,7 +9065,7 @@
         <f>C285 &amp; "/" &amp; D285</f>
         <v>Dragon/Flying</v>
       </c>
-      <c r="F285" s="16" t="str">
+      <c r="F285" s="15" t="str">
         <f>IF(COUNTIF(E:E, E285)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -9088,7 +9091,7 @@
         <f>C286 &amp; "/" &amp; D286</f>
         <v>Water/Dark</v>
       </c>
-      <c r="F286" s="16" t="str">
+      <c r="F286" s="15" t="str">
         <f>IF(COUNTIF(E:E, E286)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -9114,7 +9117,7 @@
         <f>C287 &amp; "/" &amp; D287</f>
         <v>Water/Dark</v>
       </c>
-      <c r="F287" s="16" t="str">
+      <c r="F287" s="15" t="str">
         <f>IF(COUNTIF(E:E, E287)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -9138,7 +9141,7 @@
         <f>C288 &amp; "/" &amp; D288</f>
         <v>Dark/</v>
       </c>
-      <c r="F288" s="16" t="str">
+      <c r="F288" s="15" t="str">
         <f>IF(COUNTIF(E:E, E288)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -9162,7 +9165,7 @@
         <f>C289 &amp; "/" &amp; D289</f>
         <v>Dragon/</v>
       </c>
-      <c r="F289" s="16" t="str">
+      <c r="F289" s="15" t="str">
         <f>IF(COUNTIF(E:E, E289)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -9186,7 +9189,7 @@
         <f>C290 &amp; "/" &amp; D290</f>
         <v>Dragon/</v>
       </c>
-      <c r="F290" s="16" t="str">
+      <c r="F290" s="15" t="str">
         <f>IF(COUNTIF(E:E, E290)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -9212,7 +9215,7 @@
         <f>C291 &amp; "/" &amp; D291</f>
         <v>Dragon/Flying</v>
       </c>
-      <c r="F291" s="16" t="str">
+      <c r="F291" s="15" t="str">
         <f>IF(COUNTIF(E:E, E291)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -9238,7 +9241,7 @@
         <f>C292 &amp; "/" &amp; D292</f>
         <v>Steel/Psychic</v>
       </c>
-      <c r="F292" s="16" t="str">
+      <c r="F292" s="15" t="str">
         <f>IF(COUNTIF(E:E, E292)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -9264,7 +9267,7 @@
         <f>C293 &amp; "/" &amp; D293</f>
         <v>Steel/Psychic</v>
       </c>
-      <c r="F293" s="16" t="str">
+      <c r="F293" s="15" t="str">
         <f>IF(COUNTIF(E:E, E293)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -9290,7 +9293,7 @@
         <f>C294 &amp; "/" &amp; D294</f>
         <v>Steel/Psychic</v>
       </c>
-      <c r="F294" s="16" t="str">
+      <c r="F294" s="15" t="str">
         <f>IF(COUNTIF(E:E, E294)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -9316,7 +9319,7 @@
         <f>C295 &amp; "/" &amp; D295</f>
         <v>Dragon/Flying</v>
       </c>
-      <c r="F295" s="16" t="str">
+      <c r="F295" s="15" t="str">
         <f>IF(COUNTIF(E:E, E295)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -9342,7 +9345,7 @@
         <f>C296 &amp; "/" &amp; D296</f>
         <v>Steel/Psychic</v>
       </c>
-      <c r="F296" s="16" t="str">
+      <c r="F296" s="15" t="str">
         <f>IF(COUNTIF(E:E, E296)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -9368,7 +9371,7 @@
         <f>C297 &amp; "/" &amp; D297</f>
         <v>Fire/Flying</v>
       </c>
-      <c r="F297" s="16" t="str">
+      <c r="F297" s="15" t="str">
         <f>IF(COUNTIF(E:E, E297)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -9394,7 +9397,7 @@
         <f>C298 &amp; "/" &amp; D298</f>
         <v>Poison/Flying</v>
       </c>
-      <c r="F298" s="16" t="str">
+      <c r="F298" s="15" t="str">
         <f>IF(COUNTIF(E:E, E298)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -9420,7 +9423,7 @@
         <f>C299 &amp; "/" &amp; D299</f>
         <v>Poison/Flying</v>
       </c>
-      <c r="F299" s="16" t="str">
+      <c r="F299" s="15" t="str">
         <f>IF(COUNTIF(E:E, E299)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -9446,7 +9449,7 @@
         <f>C300 &amp; "/" &amp; D300</f>
         <v>Water/Poison</v>
       </c>
-      <c r="F300" s="16" t="str">
+      <c r="F300" s="15" t="str">
         <f>IF(COUNTIF(E:E, E300)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -9472,7 +9475,7 @@
         <f>C301 &amp; "/" &amp; D301</f>
         <v>Water/Poison</v>
       </c>
-      <c r="F301" s="16" t="str">
+      <c r="F301" s="15" t="str">
         <f>IF(COUNTIF(E:E, E301)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -9498,7 +9501,7 @@
         <f>C302 &amp; "/" &amp; D302</f>
         <v>Water/Ice</v>
       </c>
-      <c r="F302" s="16" t="str">
+      <c r="F302" s="15" t="str">
         <f>IF(COUNTIF(E:E, E302)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -9524,7 +9527,7 @@
         <f>C303 &amp; "/" &amp; D303</f>
         <v>Water/Ice</v>
       </c>
-      <c r="F303" s="16" t="str">
+      <c r="F303" s="15" t="str">
         <f>IF(COUNTIF(E:E, E303)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -9550,7 +9553,7 @@
         <f>C304 &amp; "/" &amp; D304</f>
         <v>Ghost/Poison</v>
       </c>
-      <c r="F304" s="16" t="str">
+      <c r="F304" s="15" t="str">
         <f>IF(COUNTIF(E:E, E304)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -9576,7 +9579,7 @@
         <f>C305 &amp; "/" &amp; D305</f>
         <v>Ghost/Poison</v>
       </c>
-      <c r="F305" s="16" t="str">
+      <c r="F305" s="15" t="str">
         <f>IF(COUNTIF(E:E, E305)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -9602,7 +9605,7 @@
         <f>C306 &amp; "/" &amp; D306</f>
         <v>Ghost/Poison</v>
       </c>
-      <c r="F306" s="16" t="str">
+      <c r="F306" s="15" t="str">
         <f>IF(COUNTIF(E:E, E306)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -9628,7 +9631,7 @@
         <f>C307 &amp; "/" &amp; D307</f>
         <v>Water/Ice</v>
       </c>
-      <c r="F307" s="16" t="str">
+      <c r="F307" s="15" t="str">
         <f>IF(COUNTIF(E:E, E307)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -9654,7 +9657,7 @@
         <f>C308 &amp; "/" &amp; D308</f>
         <v>Fire/Flying</v>
       </c>
-      <c r="F308" s="16" t="str">
+      <c r="F308" s="15" t="str">
         <f>IF(COUNTIF(E:E, E308)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -9680,7 +9683,7 @@
         <f>C309 &amp; "/" &amp; D309</f>
         <v>Poison/Flying</v>
       </c>
-      <c r="F309" s="16" t="str">
+      <c r="F309" s="15" t="str">
         <f>IF(COUNTIF(E:E, E309)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -9706,7 +9709,7 @@
         <f>C310 &amp; "/" &amp; D310</f>
         <v>Psychic/Flying</v>
       </c>
-      <c r="F310" s="16" t="str">
+      <c r="F310" s="15" t="str">
         <f>IF(COUNTIF(E:E, E310)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -9732,7 +9735,7 @@
         <f>C311 &amp; "/" &amp; D311</f>
         <v>Psychic/Flying</v>
       </c>
-      <c r="F311" s="16" t="str">
+      <c r="F311" s="15" t="str">
         <f>IF(COUNTIF(E:E, E311)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -9756,7 +9759,7 @@
         <f>C312 &amp; "/" &amp; D312</f>
         <v>Rock/</v>
       </c>
-      <c r="F312" s="16" t="str">
+      <c r="F312" s="15" t="str">
         <f>IF(COUNTIF(E:E, E312)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -9782,7 +9785,7 @@
         <f>C313 &amp; "/" &amp; D313</f>
         <v>Water/Poison</v>
       </c>
-      <c r="F313" s="16" t="str">
+      <c r="F313" s="15" t="str">
         <f>IF(COUNTIF(E:E, E313)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -9808,7 +9811,7 @@
         <f>C314 &amp; "/" &amp; D314</f>
         <v>Bug/Rock</v>
       </c>
-      <c r="F314" s="16" t="str">
+      <c r="F314" s="15" t="str">
         <f>IF(COUNTIF(E:E, E314)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -9834,7 +9837,7 @@
         <f>C315 &amp; "/" &amp; D315</f>
         <v>Psychic/Flying</v>
       </c>
-      <c r="F315" s="16" t="str">
+      <c r="F315" s="15" t="str">
         <f>IF(COUNTIF(E:E, E315)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -9860,7 +9863,7 @@
         <f>C316 &amp; "/" &amp; D316</f>
         <v>Fire/Flying</v>
       </c>
-      <c r="F316" s="16" t="str">
+      <c r="F316" s="15" t="str">
         <f>IF(COUNTIF(E:E, E316)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -9886,7 +9889,7 @@
         <f>C317 &amp; "/" &amp; D317</f>
         <v>Water/Grass</v>
       </c>
-      <c r="F317" s="16" t="str">
+      <c r="F317" s="15" t="str">
         <f>IF(COUNTIF(E:E, E317)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -9912,7 +9915,7 @@
         <f>C318 &amp; "/" &amp; D318</f>
         <v>Water/Grass</v>
       </c>
-      <c r="F318" s="16" t="str">
+      <c r="F318" s="15" t="str">
         <f>IF(COUNTIF(E:E, E318)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -9938,7 +9941,7 @@
         <f>C319 &amp; "/" &amp; D319</f>
         <v>Water/Grass</v>
       </c>
-      <c r="F319" s="16" t="str">
+      <c r="F319" s="15" t="str">
         <f>IF(COUNTIF(E:E, E319)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -9962,7 +9965,7 @@
         <f>C320 &amp; "/" &amp; D320</f>
         <v>Rock/</v>
       </c>
-      <c r="F320" s="16" t="str">
+      <c r="F320" s="15" t="str">
         <f>IF(COUNTIF(E:E, E320)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -9988,7 +9991,7 @@
         <f>C321 &amp; "/" &amp; D321</f>
         <v>Bug/Rock</v>
       </c>
-      <c r="F321" s="16" t="str">
+      <c r="F321" s="15" t="str">
         <f>IF(COUNTIF(E:E, E321)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -10014,7 +10017,7 @@
         <f>C322 &amp; "/" &amp; D322</f>
         <v>Bug/Rock</v>
       </c>
-      <c r="F322" s="16" t="str">
+      <c r="F322" s="15" t="str">
         <f>IF(COUNTIF(E:E, E322)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -10038,7 +10041,7 @@
         <f>C323 &amp; "/" &amp; D323</f>
         <v>Ice/</v>
       </c>
-      <c r="F323" s="16" t="str">
+      <c r="F323" s="15" t="str">
         <f>IF(COUNTIF(E:E, E323)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -10062,7 +10065,7 @@
         <f>C324 &amp; "/" &amp; D324</f>
         <v>Ice/</v>
       </c>
-      <c r="F324" s="16" t="str">
+      <c r="F324" s="15" t="str">
         <f>IF(COUNTIF(E:E, E324)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -10088,7 +10091,7 @@
         <f>C325 &amp; "/" &amp; D325</f>
         <v>Ice/Water</v>
       </c>
-      <c r="F325" s="16" t="str">
+      <c r="F325" s="15" t="str">
         <f>IF(COUNTIF(E:E, E325)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -10114,7 +10117,7 @@
         <f>C326 &amp; "/" &amp; D326</f>
         <v>Ice/Water</v>
       </c>
-      <c r="F326" s="16" t="str">
+      <c r="F326" s="15" t="str">
         <f>IF(COUNTIF(E:E, E326)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -10140,7 +10143,7 @@
         <f>C327 &amp; "/" &amp; D327</f>
         <v>Ice/Water</v>
       </c>
-      <c r="F327" s="16" t="str">
+      <c r="F327" s="15" t="str">
         <f>IF(COUNTIF(E:E, E327)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -10164,7 +10167,7 @@
         <f>C328 &amp; "/" &amp; D328</f>
         <v>Rock/</v>
       </c>
-      <c r="F328" s="16" t="str">
+      <c r="F328" s="15" t="str">
         <f>IF(COUNTIF(E:E, E328)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -10188,7 +10191,7 @@
         <f>C329 &amp; "/" &amp; D329</f>
         <v>Ice/</v>
       </c>
-      <c r="F329" s="16" t="str">
+      <c r="F329" s="15" t="str">
         <f>IF(COUNTIF(E:E, E329)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -10214,7 +10217,7 @@
         <f>C330 &amp; "/" &amp; D330</f>
         <v>Poison/Ground</v>
       </c>
-      <c r="F330" s="16" t="str">
+      <c r="F330" s="15" t="str">
         <f>IF(COUNTIF(E:E, E330)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -10240,7 +10243,7 @@
         <f>C331 &amp; "/" &amp; D331</f>
         <v>Poison/Ground</v>
       </c>
-      <c r="F331" s="16" t="str">
+      <c r="F331" s="15" t="str">
         <f>IF(COUNTIF(E:E, E331)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -10266,7 +10269,7 @@
         <f>C332 &amp; "/" &amp; D332</f>
         <v>Bug/Grass</v>
       </c>
-      <c r="F332" s="16" t="str">
+      <c r="F332" s="15" t="str">
         <f>IF(COUNTIF(E:E, E332)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -10292,7 +10295,7 @@
         <f>C333 &amp; "/" &amp; D333</f>
         <v>Bug/Grass</v>
       </c>
-      <c r="F333" s="16" t="str">
+      <c r="F333" s="15" t="str">
         <f>IF(COUNTIF(E:E, E333)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -10318,7 +10321,7 @@
         <f>C334 &amp; "/" &amp; D334</f>
         <v>Electric/Steel</v>
       </c>
-      <c r="F334" s="16" t="str">
+      <c r="F334" s="15" t="str">
         <f>IF(COUNTIF(E:E, E334)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -10344,7 +10347,7 @@
         <f>C335 &amp; "/" &amp; D335</f>
         <v>Electric/Steel</v>
       </c>
-      <c r="F335" s="16" t="str">
+      <c r="F335" s="15" t="str">
         <f>IF(COUNTIF(E:E, E335)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -10370,7 +10373,7 @@
         <f>C336 &amp; "/" &amp; D336</f>
         <v>Grass/Psychic</v>
       </c>
-      <c r="F336" s="16" t="str">
+      <c r="F336" s="15" t="str">
         <f>IF(COUNTIF(E:E, E336)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -10396,7 +10399,7 @@
         <f>C337 &amp; "/" &amp; D337</f>
         <v>Ice/Psychic</v>
       </c>
-      <c r="F337" s="16" t="str">
+      <c r="F337" s="15" t="str">
         <f>IF(COUNTIF(E:E, E337)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -10422,7 +10425,7 @@
         <f>C338 &amp; "/" &amp; D338</f>
         <v>Ice/Flying</v>
       </c>
-      <c r="F338" s="16" t="str">
+      <c r="F338" s="15" t="str">
         <f>IF(COUNTIF(E:E, E338)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -10448,7 +10451,7 @@
         <f>C339 &amp; "/" &amp; D339</f>
         <v>Water/Electic</v>
       </c>
-      <c r="F339" s="16" t="str">
+      <c r="F339" s="15" t="str">
         <f>IF(COUNTIF(E:E, E339)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -10474,7 +10477,7 @@
         <f>C340 &amp; "/" &amp; D340</f>
         <v>Water/Electic</v>
       </c>
-      <c r="F340" s="16" t="str">
+      <c r="F340" s="15" t="str">
         <f>IF(COUNTIF(E:E, E340)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -10500,13 +10503,13 @@
         <f>C341 &amp; "/" &amp; D341</f>
         <v>Grass/Flying</v>
       </c>
-      <c r="F341" s="16" t="str">
+      <c r="F341" s="15" t="str">
         <f>IF(COUNTIF(E:E, E341)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
       <c r="G341" s="3">
         <f>COUNTIF(E:E, E341)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
@@ -10526,7 +10529,7 @@
         <f>C342 &amp; "/" &amp; D342</f>
         <v>Ground/Ice</v>
       </c>
-      <c r="F342" s="16" t="str">
+      <c r="F342" s="15" t="str">
         <f>IF(COUNTIF(E:E, E342)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -10552,7 +10555,7 @@
         <f>C343 &amp; "/" &amp; D343</f>
         <v>Ground/Ice</v>
       </c>
-      <c r="F343" s="16" t="str">
+      <c r="F343" s="15" t="str">
         <f>IF(COUNTIF(E:E, E343)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -10578,7 +10581,7 @@
         <f>C344 &amp; "/" &amp; D344</f>
         <v>Ice/Flying</v>
       </c>
-      <c r="F344" s="16" t="str">
+      <c r="F344" s="15" t="str">
         <f>IF(COUNTIF(E:E, E344)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -10604,7 +10607,7 @@
         <f>C345 &amp; "/" &amp; D345</f>
         <v>Dark/Fire</v>
       </c>
-      <c r="F345" s="16" t="str">
+      <c r="F345" s="15" t="str">
         <f>IF(COUNTIF(E:E, E345)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -10630,7 +10633,7 @@
         <f>C346 &amp; "/" &amp; D346</f>
         <v>Dark/Fire</v>
       </c>
-      <c r="F346" s="16" t="str">
+      <c r="F346" s="15" t="str">
         <f>IF(COUNTIF(E:E, E346)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -10656,7 +10659,7 @@
         <f>C347 &amp; "/" &amp; D347</f>
         <v>Ice/Psychic</v>
       </c>
-      <c r="F347" s="16" t="str">
+      <c r="F347" s="15" t="str">
         <f>IF(COUNTIF(E:E, E347)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -10682,7 +10685,7 @@
         <f>C348 &amp; "/" &amp; D348</f>
         <v>Grass/Psychic</v>
       </c>
-      <c r="F348" s="16" t="str">
+      <c r="F348" s="15" t="str">
         <f>IF(COUNTIF(E:E, E348)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -10708,7 +10711,7 @@
         <f>C349 &amp; "/" &amp; D349</f>
         <v>Fire/Fighting</v>
       </c>
-      <c r="F349" s="16" t="str">
+      <c r="F349" s="15" t="str">
         <f>IF(COUNTIF(E:E, E349)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -10734,7 +10737,7 @@
         <f>C350 &amp; "/" &amp; D350</f>
         <v>Fire/Fighting</v>
       </c>
-      <c r="F350" s="16" t="str">
+      <c r="F350" s="15" t="str">
         <f>IF(COUNTIF(E:E, E350)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -10760,7 +10763,7 @@
         <f>C351 &amp; "/" &amp; D351</f>
         <v>Bug/Water</v>
       </c>
-      <c r="F351" s="16" t="str">
+      <c r="F351" s="15" t="str">
         <f>IF(COUNTIF(E:E, E351)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -10786,7 +10789,7 @@
         <f>C352 &amp; "/" &amp; D352</f>
         <v>Bug/Water</v>
       </c>
-      <c r="F352" s="16" t="str">
+      <c r="F352" s="15" t="str">
         <f>IF(COUNTIF(E:E, E352)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -10810,7 +10813,7 @@
         <f>C353 &amp; "/" &amp; D353</f>
         <v>Steel/</v>
       </c>
-      <c r="F353" s="16" t="str">
+      <c r="F353" s="15" t="str">
         <f>IF(COUNTIF(E:E, E353)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -10836,7 +10839,7 @@
         <f>C354 &amp; "/" &amp; D354</f>
         <v>Fighting/Psychic</v>
       </c>
-      <c r="F354" s="16" t="str">
+      <c r="F354" s="15" t="str">
         <f>IF(COUNTIF(E:E, E354)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -10862,7 +10865,7 @@
         <f>C355 &amp; "/" &amp; D355</f>
         <v>Fighting/Psychic</v>
       </c>
-      <c r="F355" s="16" t="str">
+      <c r="F355" s="15" t="str">
         <f>IF(COUNTIF(E:E, E355)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -10888,7 +10891,7 @@
         <f>C356 &amp; "/" &amp; D356</f>
         <v>Fire/Ground</v>
       </c>
-      <c r="F356" s="16" t="str">
+      <c r="F356" s="15" t="str">
         <f>IF(COUNTIF(E:E, E356)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -10914,7 +10917,7 @@
         <f>C357 &amp; "/" &amp; D357</f>
         <v>Fire/Ground</v>
       </c>
-      <c r="F357" s="16" t="str">
+      <c r="F357" s="15" t="str">
         <f>IF(COUNTIF(E:E, E357)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -10940,7 +10943,7 @@
         <f>C358 &amp; "/" &amp; D358</f>
         <v>Ground/Dragon</v>
       </c>
-      <c r="F358" s="16" t="str">
+      <c r="F358" s="15" t="str">
         <f>IF(COUNTIF(E:E, E358)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -10966,7 +10969,7 @@
         <f>C359 &amp; "/" &amp; D359</f>
         <v>Ground/Dragon</v>
       </c>
-      <c r="F359" s="16" t="str">
+      <c r="F359" s="15" t="str">
         <f>IF(COUNTIF(E:E, E359)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -10992,7 +10995,7 @@
         <f>C360 &amp; "/" &amp; D360</f>
         <v>Rock/Psychic</v>
       </c>
-      <c r="F360" s="16" t="str">
+      <c r="F360" s="15" t="str">
         <f>IF(COUNTIF(E:E, E360)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -11018,7 +11021,7 @@
         <f>C361 &amp; "/" &amp; D361</f>
         <v>Rock/Psychic</v>
       </c>
-      <c r="F361" s="16" t="str">
+      <c r="F361" s="15" t="str">
         <f>IF(COUNTIF(E:E, E361)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -11044,7 +11047,7 @@
         <f>C362 &amp; "/" &amp; D362</f>
         <v>Ground/Psychic</v>
       </c>
-      <c r="F362" s="16" t="str">
+      <c r="F362" s="15" t="str">
         <f>IF(COUNTIF(E:E, E362)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -11070,7 +11073,7 @@
         <f>C363 &amp; "/" &amp; D363</f>
         <v>Ground/Psychic</v>
       </c>
-      <c r="F363" s="16" t="str">
+      <c r="F363" s="15" t="str">
         <f>IF(COUNTIF(E:E, E363)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -11096,7 +11099,7 @@
         <f>C364 &amp; "/" &amp; D364</f>
         <v>Grass/Rock</v>
       </c>
-      <c r="F364" s="16" t="str">
+      <c r="F364" s="15" t="str">
         <f>IF(COUNTIF(E:E, E364)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -11122,7 +11125,7 @@
         <f>C365 &amp; "/" &amp; D365</f>
         <v>Grass/Rock</v>
       </c>
-      <c r="F365" s="16" t="str">
+      <c r="F365" s="15" t="str">
         <f>IF(COUNTIF(E:E, E365)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -11148,13 +11151,13 @@
         <f>C366 &amp; "/" &amp; D366</f>
         <v>Grass/Flying</v>
       </c>
-      <c r="F366" s="16" t="str">
+      <c r="F366" s="15" t="str">
         <f>IF(COUNTIF(E:E, E366)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
       <c r="G366" s="3">
         <f>COUNTIF(E:E, E366)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
@@ -11172,7 +11175,7 @@
         <f>C367 &amp; "/" &amp; D367</f>
         <v>Steel/</v>
       </c>
-      <c r="F367" s="16" t="str">
+      <c r="F367" s="15" t="str">
         <f>IF(COUNTIF(E:E, E367)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -11198,7 +11201,7 @@
         <f>C368 &amp; "/" &amp; D368</f>
         <v>Dragon/Psychic</v>
       </c>
-      <c r="F368" s="16" t="str">
+      <c r="F368" s="15" t="str">
         <f>IF(COUNTIF(E:E, E368)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -11224,7 +11227,7 @@
         <f>C369 &amp; "/" &amp; D369</f>
         <v>Dragon/Psychic</v>
       </c>
-      <c r="F369" s="16" t="str">
+      <c r="F369" s="15" t="str">
         <f>IF(COUNTIF(E:E, E369)&gt;1, "Duplicate", "Unique")</f>
         <v>Duplicate</v>
       </c>
@@ -11250,7 +11253,7 @@
         <f>C370 &amp; "/" &amp; D370</f>
         <v>Water/Fighting</v>
       </c>
-      <c r="F370" s="16" t="str">
+      <c r="F370" s="15" t="str">
         <f>IF(COUNTIF(E:E, E370)&gt;1, "Duplicate", "Unique")</f>
         <v>Unique</v>
       </c>
@@ -11276,7 +11279,7 @@
         <f>C371 &amp; "/" &amp; D371</f>
         <v>Rock/Flying</v>
       </c>
-      <c r="F371" s="16" t="str">
+      <c r="F371" s="15" t="str">
         <f>IF(COUNTIF(E:E, E371)&gt;1, "Duplicate", "Unique")</f>
         <v>Unique</v>
       </c>
@@ -11302,7 +11305,7 @@
         <f>C372 &amp; "/" &amp; D372</f>
         <v>Electric/Flying</v>
       </c>
-      <c r="F372" s="16" t="str">
+      <c r="F372" s="15" t="str">
         <f>IF(COUNTIF(E:E, E372)&gt;1, "Duplicate", "Unique")</f>
         <v>Unique</v>
       </c>
@@ -11328,7 +11331,7 @@
         <f>C373 &amp; "/" &amp; D373</f>
         <v>Dark/Flying</v>
       </c>
-      <c r="F373" s="16" t="str">
+      <c r="F373" s="15" t="str">
         <f>IF(COUNTIF(E:E, E373)&gt;1, "Duplicate", "Unique")</f>
         <v>Unique</v>
       </c>
@@ -11354,7 +11357,7 @@
         <f>C374 &amp; "/" &amp; D374</f>
         <v>Normal/Psychic</v>
       </c>
-      <c r="F374" s="16" t="str">
+      <c r="F374" s="15" t="str">
         <f>IF(COUNTIF(E:E, E374)&gt;1, "Duplicate", "Unique")</f>
         <v>Unique</v>
       </c>
@@ -11380,7 +11383,7 @@
         <f>C375 &amp; "/" &amp; D375</f>
         <v>Bug/Steel</v>
       </c>
-      <c r="F375" s="16" t="str">
+      <c r="F375" s="15" t="str">
         <f>IF(COUNTIF(E:E, E375)&gt;1, "Duplicate", "Unique")</f>
         <v>Unique</v>
       </c>
@@ -11406,7 +11409,7 @@
         <f>C376 &amp; "/" &amp; D376</f>
         <v>Ground/Flying</v>
       </c>
-      <c r="F376" s="16" t="str">
+      <c r="F376" s="15" t="str">
         <f>IF(COUNTIF(E:E, E376)&gt;1, "Duplicate", "Unique")</f>
         <v>Unique</v>
       </c>
@@ -11432,7 +11435,7 @@
         <f>C377 &amp; "/" &amp; D377</f>
         <v>Steel/Bug</v>
       </c>
-      <c r="F377" s="16" t="str">
+      <c r="F377" s="15" t="str">
         <f>IF(COUNTIF(E:E, E377)&gt;1, "Duplicate", "Unique")</f>
         <v>Unique</v>
       </c>
@@ -11458,7 +11461,7 @@
         <f>C378 &amp; "/" &amp; D378</f>
         <v>Bug/Fighting</v>
       </c>
-      <c r="F378" s="16" t="str">
+      <c r="F378" s="15" t="str">
         <f>IF(COUNTIF(E:E, E378)&gt;1, "Duplicate", "Unique")</f>
         <v>Unique</v>
       </c>
@@ -11484,7 +11487,7 @@
         <f>C379 &amp; "/" &amp; D379</f>
         <v>Dark/Ice</v>
       </c>
-      <c r="F379" s="16" t="str">
+      <c r="F379" s="15" t="str">
         <f>IF(COUNTIF(E:E, E379)&gt;1, "Duplicate", "Unique")</f>
         <v>Unique</v>
       </c>
@@ -11510,7 +11513,7 @@
         <f>C380 &amp; "/" &amp; D380</f>
         <v>Fire/Rock</v>
       </c>
-      <c r="F380" s="16" t="str">
+      <c r="F380" s="15" t="str">
         <f>IF(COUNTIF(E:E, E380)&gt;1, "Duplicate", "Unique")</f>
         <v>Unique</v>
       </c>
@@ -11536,7 +11539,7 @@
         <f>C381 &amp; "/" &amp; D381</f>
         <v>Steel/Flying</v>
       </c>
-      <c r="F381" s="16" t="str">
+      <c r="F381" s="15" t="str">
         <f>IF(COUNTIF(E:E, E381)&gt;1, "Duplicate", "Unique")</f>
         <v>Unique</v>
       </c>
@@ -11562,7 +11565,7 @@
         <f>C382 &amp; "/" &amp; D382</f>
         <v>Water/Dragon</v>
       </c>
-      <c r="F382" s="16" t="str">
+      <c r="F382" s="15" t="str">
         <f>IF(COUNTIF(E:E, E382)&gt;1, "Duplicate", "Unique")</f>
         <v>Unique</v>
       </c>
@@ -11588,7 +11591,7 @@
         <f>C383 &amp; "/" &amp; D383</f>
         <v>Rock/Dark</v>
       </c>
-      <c r="F383" s="16" t="str">
+      <c r="F383" s="15" t="str">
         <f>IF(COUNTIF(E:E, E383)&gt;1, "Duplicate", "Unique")</f>
         <v>Unique</v>
       </c>
@@ -11614,7 +11617,7 @@
         <f>C384 &amp; "/" &amp; D384</f>
         <v>Grass/Fighting</v>
       </c>
-      <c r="F384" s="16" t="str">
+      <c r="F384" s="15" t="str">
         <f>IF(COUNTIF(E:E, E384)&gt;1, "Duplicate", "Unique")</f>
         <v>Unique</v>
       </c>
@@ -11640,7 +11643,7 @@
         <f>C385 &amp; "/" &amp; D385</f>
         <v>Bug/Ground</v>
       </c>
-      <c r="F385" s="16" t="str">
+      <c r="F385" s="15" t="str">
         <f>IF(COUNTIF(E:E, E385)&gt;1, "Duplicate", "Unique")</f>
         <v>Unique</v>
       </c>
@@ -11666,7 +11669,7 @@
         <f>C386 &amp; "/" &amp; D386</f>
         <v>Bug/Ghost</v>
       </c>
-      <c r="F386" s="16" t="str">
+      <c r="F386" s="15" t="str">
         <f>IF(COUNTIF(E:E, E386)&gt;1, "Duplicate", "Unique")</f>
         <v>Unique</v>
       </c>
@@ -11692,7 +11695,7 @@
         <f>C387 &amp; "/" &amp; D387</f>
         <v>Ghost/Dark</v>
       </c>
-      <c r="F387" s="17" t="str">
+      <c r="F387" s="16" t="str">
         <f>IF(COUNTIF(E:E, E387)&gt;1, "Duplicate", "Unique")</f>
         <v>Unique</v>
       </c>
@@ -11702,361 +11705,273 @@
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F388" s="14"/>
-      <c r="G388" s="14"/>
+      <c r="G388"/>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F389" s="14"/>
-      <c r="G389" s="14"/>
+      <c r="G389"/>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F390" s="14"/>
-      <c r="G390" s="14"/>
+      <c r="G390"/>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F391" s="14"/>
-      <c r="G391" s="14"/>
+      <c r="G391"/>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F392" s="14"/>
-      <c r="G392" s="14"/>
+      <c r="G392"/>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F393" s="14"/>
-      <c r="G393" s="14"/>
+      <c r="G393"/>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F394" s="14"/>
-      <c r="G394" s="14"/>
+      <c r="G394"/>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F395" s="14"/>
-      <c r="G395" s="14"/>
+      <c r="G395"/>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F396" s="14"/>
-      <c r="G396" s="14"/>
+      <c r="G396"/>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F397" s="14"/>
-      <c r="G397" s="14"/>
+      <c r="G397"/>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F398" s="14"/>
-      <c r="G398" s="14"/>
+      <c r="G398"/>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F399" s="14"/>
-      <c r="G399" s="14"/>
+      <c r="G399"/>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F400" s="14"/>
-      <c r="G400" s="14"/>
-    </row>
-    <row r="401" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F401" s="14"/>
-      <c r="G401" s="14"/>
-    </row>
-    <row r="402" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F402" s="14"/>
-      <c r="G402" s="14"/>
-    </row>
-    <row r="403" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F403" s="14"/>
-      <c r="G403" s="14"/>
-    </row>
-    <row r="404" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F404" s="14"/>
-      <c r="G404" s="14"/>
-    </row>
-    <row r="405" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F405" s="14"/>
-      <c r="G405" s="14"/>
-    </row>
-    <row r="406" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F406" s="14"/>
-      <c r="G406" s="14"/>
-    </row>
-    <row r="407" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F407" s="14"/>
-      <c r="G407" s="14"/>
-    </row>
-    <row r="408" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F408" s="14"/>
-      <c r="G408" s="14"/>
-    </row>
-    <row r="409" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F409" s="14"/>
-      <c r="G409" s="14"/>
-    </row>
-    <row r="410" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F410" s="14"/>
-      <c r="G410" s="14"/>
-    </row>
-    <row r="411" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F411" s="14"/>
-      <c r="G411" s="14"/>
-    </row>
-    <row r="412" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F412" s="14"/>
-      <c r="G412" s="14"/>
-    </row>
-    <row r="413" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F413" s="14"/>
-      <c r="G413" s="14"/>
-    </row>
-    <row r="414" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F414" s="14"/>
-      <c r="G414" s="14"/>
-    </row>
-    <row r="415" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F415" s="14"/>
-      <c r="G415" s="14"/>
-    </row>
-    <row r="416" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F416" s="14"/>
-      <c r="G416" s="14"/>
-    </row>
-    <row r="417" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F417" s="14"/>
-      <c r="G417" s="14"/>
-    </row>
-    <row r="418" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F418" s="14"/>
-      <c r="G418" s="14"/>
-    </row>
-    <row r="419" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F419" s="14"/>
-      <c r="G419" s="14"/>
-    </row>
-    <row r="420" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F420" s="14"/>
-      <c r="G420" s="14"/>
-    </row>
-    <row r="421" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F421" s="14"/>
-      <c r="G421" s="14"/>
-    </row>
-    <row r="422" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F422" s="14"/>
-      <c r="G422" s="14"/>
-    </row>
-    <row r="423" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F423" s="14"/>
-      <c r="G423" s="14"/>
-    </row>
-    <row r="424" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F424" s="14"/>
-      <c r="G424" s="14"/>
-    </row>
-    <row r="425" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F425" s="14"/>
-      <c r="G425" s="14"/>
-    </row>
-    <row r="426" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F426" s="14"/>
-      <c r="G426" s="14"/>
-    </row>
-    <row r="427" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F427" s="14"/>
-      <c r="G427" s="14"/>
-    </row>
-    <row r="428" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F428" s="14"/>
-      <c r="G428" s="14"/>
-    </row>
-    <row r="429" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F429" s="14"/>
-      <c r="G429" s="14"/>
-    </row>
-    <row r="430" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F430" s="14"/>
-      <c r="G430" s="14"/>
-    </row>
-    <row r="431" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F431" s="14"/>
-      <c r="G431" s="14"/>
-    </row>
-    <row r="432" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F432" s="14"/>
-      <c r="G432" s="14"/>
-    </row>
-    <row r="433" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F433" s="14"/>
-      <c r="G433" s="14"/>
-    </row>
-    <row r="434" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F434" s="14"/>
-      <c r="G434" s="14"/>
-    </row>
-    <row r="435" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F435" s="14"/>
-      <c r="G435" s="14"/>
-    </row>
-    <row r="436" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F436" s="14"/>
-      <c r="G436" s="14"/>
-    </row>
-    <row r="437" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F437" s="14"/>
-      <c r="G437" s="14"/>
-    </row>
-    <row r="438" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F438" s="14"/>
-      <c r="G438" s="14"/>
-    </row>
-    <row r="439" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F439" s="14"/>
-      <c r="G439" s="14"/>
-    </row>
-    <row r="440" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F440" s="14"/>
-      <c r="G440" s="14"/>
-    </row>
-    <row r="441" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F441" s="14"/>
-      <c r="G441" s="14"/>
-    </row>
-    <row r="442" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F442" s="14"/>
-      <c r="G442" s="14"/>
-    </row>
-    <row r="443" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F443" s="14"/>
-      <c r="G443" s="14"/>
-    </row>
-    <row r="444" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F444" s="14"/>
-      <c r="G444" s="14"/>
-    </row>
-    <row r="445" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F445" s="14"/>
-      <c r="G445" s="14"/>
-    </row>
-    <row r="446" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F446" s="14"/>
-      <c r="G446" s="14"/>
-    </row>
-    <row r="447" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F447" s="14"/>
-      <c r="G447" s="14"/>
-    </row>
-    <row r="448" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F448" s="14"/>
-      <c r="G448" s="14"/>
-    </row>
-    <row r="449" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F449" s="14"/>
-      <c r="G449" s="14"/>
-    </row>
-    <row r="450" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F450" s="14"/>
-      <c r="G450" s="14"/>
-    </row>
-    <row r="451" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F451" s="14"/>
-      <c r="G451" s="14"/>
-    </row>
-    <row r="452" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F452" s="14"/>
-      <c r="G452" s="14"/>
-    </row>
-    <row r="453" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F453" s="14"/>
-      <c r="G453" s="14"/>
-    </row>
-    <row r="454" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F454" s="14"/>
-      <c r="G454" s="14"/>
-    </row>
-    <row r="455" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F455" s="14"/>
-      <c r="G455" s="14"/>
-    </row>
-    <row r="456" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F456" s="14"/>
-      <c r="G456" s="14"/>
-    </row>
-    <row r="457" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F457" s="14"/>
-      <c r="G457" s="14"/>
-    </row>
-    <row r="458" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F458" s="14"/>
-      <c r="G458" s="14"/>
-    </row>
-    <row r="459" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F459" s="14"/>
-      <c r="G459" s="14"/>
-    </row>
-    <row r="460" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F460" s="14"/>
-      <c r="G460" s="14"/>
-    </row>
-    <row r="461" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F461" s="14"/>
-      <c r="G461" s="14"/>
-    </row>
-    <row r="462" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F462" s="14"/>
-      <c r="G462" s="14"/>
-    </row>
-    <row r="463" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F463" s="14"/>
-      <c r="G463" s="14"/>
-    </row>
-    <row r="464" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F464" s="14"/>
-      <c r="G464" s="14"/>
-    </row>
-    <row r="465" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F465" s="14"/>
-      <c r="G465" s="14"/>
-    </row>
-    <row r="466" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F466" s="14"/>
-      <c r="G466" s="14"/>
-    </row>
-    <row r="467" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F467" s="14"/>
-      <c r="G467" s="14"/>
-    </row>
-    <row r="468" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F468" s="14"/>
-      <c r="G468" s="14"/>
-    </row>
-    <row r="469" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F469" s="14"/>
-      <c r="G469" s="14"/>
-    </row>
-    <row r="470" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F470" s="14"/>
-      <c r="G470" s="14"/>
-    </row>
-    <row r="471" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F471" s="14"/>
-      <c r="G471" s="14"/>
-    </row>
-    <row r="472" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F472" s="14"/>
-      <c r="G472" s="14"/>
-    </row>
-    <row r="473" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F473" s="14"/>
-      <c r="G473" s="14"/>
-    </row>
-    <row r="474" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F474" s="14"/>
-      <c r="G474" s="14"/>
-    </row>
-    <row r="475" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F475" s="14"/>
-      <c r="G475" s="14"/>
+      <c r="G400"/>
+    </row>
+    <row r="401" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G401"/>
+    </row>
+    <row r="402" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G402"/>
+    </row>
+    <row r="403" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G403"/>
+    </row>
+    <row r="404" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G404"/>
+    </row>
+    <row r="405" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G405"/>
+    </row>
+    <row r="406" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G406"/>
+    </row>
+    <row r="407" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G407"/>
+    </row>
+    <row r="408" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G408"/>
+    </row>
+    <row r="409" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G409"/>
+    </row>
+    <row r="410" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G410"/>
+    </row>
+    <row r="411" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G411"/>
+    </row>
+    <row r="412" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G412"/>
+    </row>
+    <row r="413" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G413"/>
+    </row>
+    <row r="414" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G414"/>
+    </row>
+    <row r="415" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G415"/>
+    </row>
+    <row r="416" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G416"/>
+    </row>
+    <row r="417" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G417"/>
+    </row>
+    <row r="418" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G418"/>
+    </row>
+    <row r="419" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G419"/>
+    </row>
+    <row r="420" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G420"/>
+    </row>
+    <row r="421" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G421"/>
+    </row>
+    <row r="422" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G422"/>
+    </row>
+    <row r="423" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G423"/>
+    </row>
+    <row r="424" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G424"/>
+    </row>
+    <row r="425" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G425"/>
+    </row>
+    <row r="426" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G426"/>
+    </row>
+    <row r="427" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G427"/>
+    </row>
+    <row r="428" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G428"/>
+    </row>
+    <row r="429" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G429"/>
+    </row>
+    <row r="430" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G430"/>
+    </row>
+    <row r="431" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G431"/>
+    </row>
+    <row r="432" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G432"/>
+    </row>
+    <row r="433" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G433"/>
+    </row>
+    <row r="434" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G434"/>
+    </row>
+    <row r="435" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G435"/>
+    </row>
+    <row r="436" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G436"/>
+    </row>
+    <row r="437" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G437"/>
+    </row>
+    <row r="438" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G438"/>
+    </row>
+    <row r="439" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G439"/>
+    </row>
+    <row r="440" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G440"/>
+    </row>
+    <row r="441" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G441"/>
+    </row>
+    <row r="442" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G442"/>
+    </row>
+    <row r="443" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G443"/>
+    </row>
+    <row r="444" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G444"/>
+    </row>
+    <row r="445" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G445"/>
+    </row>
+    <row r="446" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G446"/>
+    </row>
+    <row r="447" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G447"/>
+    </row>
+    <row r="448" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G448"/>
+    </row>
+    <row r="449" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G449"/>
+    </row>
+    <row r="450" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G450"/>
+    </row>
+    <row r="451" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G451"/>
+    </row>
+    <row r="452" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G452"/>
+    </row>
+    <row r="453" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G453"/>
+    </row>
+    <row r="454" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G454"/>
+    </row>
+    <row r="455" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G455"/>
+    </row>
+    <row r="456" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G456"/>
+    </row>
+    <row r="457" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G457"/>
+    </row>
+    <row r="458" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G458"/>
+    </row>
+    <row r="459" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G459"/>
+    </row>
+    <row r="460" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G460"/>
+    </row>
+    <row r="461" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G461"/>
+    </row>
+    <row r="462" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G462"/>
+    </row>
+    <row r="463" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G463"/>
+    </row>
+    <row r="464" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G464"/>
+    </row>
+    <row r="465" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G465"/>
+    </row>
+    <row r="466" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G466"/>
+    </row>
+    <row r="467" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G467"/>
+    </row>
+    <row r="468" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G468"/>
+    </row>
+    <row r="469" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G469"/>
+    </row>
+    <row r="470" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G470"/>
+    </row>
+    <row r="471" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G471"/>
+    </row>
+    <row r="472" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G472"/>
+    </row>
+    <row r="473" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G473"/>
+    </row>
+    <row r="474" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G474"/>
+    </row>
+    <row r="475" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G475"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Gen3Dupes.xlsx
+++ b/Gen3Dupes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\EpicRomHackWithBussinRespectfully-main\EpicRomHackWithBussinRespectfully-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A11B5DD-C237-42E9-B561-0A491A13DC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2986D66B-692F-40C1-951B-7394E7057001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3C44F34A-807E-46C8-9DD2-DE8BB763117D}"/>
   </bookViews>
@@ -1265,12 +1265,6 @@
     <t>Type 3</t>
   </si>
   <si>
-    <t>Type 4</t>
-  </si>
-  <si>
-    <t>Type 5</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -1280,12 +1274,6 @@
     <t>Final Evo</t>
   </si>
   <si>
-    <t>Type 6</t>
-  </si>
-  <si>
-    <t>Type 7</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -1467,6 +1455,18 @@
   </si>
   <si>
     <t>Water/Ground</t>
+  </si>
+  <si>
+    <t>Duplicate</t>
+  </si>
+  <si>
+    <t>TotalDuplicates</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>NewType</t>
   </si>
 </sst>
 </file>
@@ -1665,27 +1665,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1900,27 +1884,10 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border>
         <top style="thin">
           <color indexed="64"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1940,14 +1907,27 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1963,35 +1943,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{88ACAE72-EC54-4344-AC1D-3E55AA8B66B0}" name="Table1" displayName="Table1" ref="A1:M387" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="17" tableBorderDxfId="18" totalsRowBorderDxfId="16" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{88ACAE72-EC54-4344-AC1D-3E55AA8B66B0}" name="Table1" displayName="Table1" ref="A1:M387" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="A1:M387" xr:uid="{88ACAE72-EC54-4344-AC1D-3E55AA8B66B0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M387">
     <sortCondition ref="A1:A387"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{BF425647-1C71-4B47-97FD-C97D10AE6205}" name="National Dex " dataDxfId="14" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{704DEF1C-D09B-479C-81AB-AEAD60C83E5A}" name="Pokemon " dataDxfId="13" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{0FD1FEE2-0A7E-4421-B1D8-514BA588F0D3}" name="Type 1 " dataDxfId="12" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{082C6F5B-E72A-48EE-BFDA-8E7BD3186742}" name="Type 2 " dataDxfId="11" dataCellStyle="Normal"/>
-    <tableColumn id="13" xr3:uid="{C3CE66E7-B3CE-4263-A213-374B5DE95C69}" name="Final Evo" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{F1DA8BEA-8A6B-4E18-9CAA-8EE1F9993CD0}" name="Type 3" dataDxfId="9" dataCellStyle="Normal">
+    <tableColumn id="1" xr3:uid="{BF425647-1C71-4B47-97FD-C97D10AE6205}" name="National Dex " dataDxfId="12" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{704DEF1C-D09B-479C-81AB-AEAD60C83E5A}" name="Pokemon " dataDxfId="11" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{0FD1FEE2-0A7E-4421-B1D8-514BA588F0D3}" name="Type 1 " dataDxfId="10" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{082C6F5B-E72A-48EE-BFDA-8E7BD3186742}" name="Type 2 " dataDxfId="9" dataCellStyle="Normal"/>
+    <tableColumn id="13" xr3:uid="{C3CE66E7-B3CE-4263-A213-374B5DE95C69}" name="Final Evo" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{F1DA8BEA-8A6B-4E18-9CAA-8EE1F9993CD0}" name="Type 3" dataDxfId="7" dataCellStyle="Normal">
       <calculatedColumnFormula>C2 &amp; "/" &amp; D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{07E114FB-E46D-4614-B198-3C1C207FE92D}" name="Type 4" dataDxfId="8" dataCellStyle="Normal">
+    <tableColumn id="6" xr3:uid="{07E114FB-E46D-4614-B198-3C1C207FE92D}" name="Duplicate" dataDxfId="6" dataCellStyle="Normal">
       <calculatedColumnFormula>IF(COUNTIF(F:F, F2)&gt;1, "Duplicate", "Unique")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5A9151F0-7DCB-4AEF-9D8E-B4A2C035FC23}" name="Type 5" dataDxfId="7" dataCellStyle="Normal">
+    <tableColumn id="7" xr3:uid="{5A9151F0-7DCB-4AEF-9D8E-B4A2C035FC23}" name="TotalDuplicates" dataDxfId="5" dataCellStyle="Normal">
       <calculatedColumnFormula>COUNTIF(F:F, F2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{8BAF26C7-7974-4F34-ADD9-8BBB9C7B4A20}" name="Type 6" dataDxfId="6" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{7DEB0BCE-4ED4-4DB5-B7E5-2317C74E1936}" name="Type 7" dataDxfId="5" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{A5A180FC-5DD3-4B1B-9A0E-EDE21D06920F}" name="Type" dataDxfId="4" dataCellStyle="Normal">
+    <tableColumn id="8" xr3:uid="{8BAF26C7-7974-4F34-ADD9-8BBB9C7B4A20}" name="NewType" dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{7DEB0BCE-4ED4-4DB5-B7E5-2317C74E1936}" name="Comments" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{A5A180FC-5DD3-4B1B-9A0E-EDE21D06920F}" name="Type" dataDxfId="2" dataCellStyle="Normal">
       <calculatedColumnFormula>IF(I2="", F2, I2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{8A9BCDFF-5A5B-40FD-9D5D-AD30E2388CA7}" name="NewDuplicates" dataDxfId="3" dataCellStyle="Normal">
-      <calculatedColumnFormula>COUNTIF(K:K, K2)</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{8A9BCDFF-5A5B-40FD-9D5D-AD30E2388CA7}" name="NewDuplicates" dataDxfId="0" dataCellStyle="Normal">
+      <calculatedColumnFormula>COUNTIFS(K:K, K2, E:E, "T")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{4DC697CB-54E5-43D6-8022-44DE54B87327}" name="NewUnique" dataDxfId="2" dataCellStyle="Normal">
+    <tableColumn id="14" xr3:uid="{4DC697CB-54E5-43D6-8022-44DE54B87327}" name="NewUnique" dataDxfId="1" dataCellStyle="Normal">
       <calculatedColumnFormula>IF(COUNTIF(K:K, K2)&gt;1, "Duplicate", "Unique")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2299,7 +2279,7 @@
   <dimension ref="A1:M475"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2309,8 +2289,8 @@
     <col min="3" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -2340,31 +2320,31 @@
         <v>404</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>408</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>409</v>
+        <v>473</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>410</v>
+        <v>474</v>
       </c>
       <c r="I1" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>414</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>417</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -2381,7 +2361,7 @@
         <v>387</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>C2 &amp; "/" &amp; D2</f>
@@ -2402,8 +2382,8 @@
         <v>Grass/Poison</v>
       </c>
       <c r="L2" s="8">
-        <f>COUNTIF(K:K, K2)</f>
-        <v>9</v>
+        <f>COUNTIFS(K:K, K2, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M2" s="8" t="str">
         <f>IF(COUNTIF(K:K, K2)&gt;1, "Duplicate", "Unique")</f>
@@ -2424,7 +2404,7 @@
         <v>387</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F3" s="6" t="str">
         <f>C3 &amp; "/" &amp; D3</f>
@@ -2445,8 +2425,8 @@
         <v>Grass/Poison</v>
       </c>
       <c r="L3" s="6">
-        <f>COUNTIF(K:K, K3)</f>
-        <v>9</v>
+        <f>COUNTIFS(K:K, K3, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M3" s="6" t="str">
         <f>IF(COUNTIF(K:K, K3)&gt;1, "Duplicate", "Unique")</f>
@@ -2467,7 +2447,7 @@
         <v>387</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F4" s="6" t="str">
         <f>C4 &amp; "/" &amp; D4</f>
@@ -2488,8 +2468,8 @@
         <v>Grass/Poison</v>
       </c>
       <c r="L4" s="6">
-        <f>COUNTIF(K:K, K4)</f>
-        <v>9</v>
+        <f>COUNTIFS(K:K, K4, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M4" s="6" t="str">
         <f>IF(COUNTIF(K:K, K4)&gt;1, "Duplicate", "Unique")</f>
@@ -2508,7 +2488,7 @@
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F5" s="6" t="str">
         <f>C5 &amp; "/" &amp; D5</f>
@@ -2529,8 +2509,8 @@
         <v>Fire/</v>
       </c>
       <c r="L5" s="6">
-        <f>COUNTIF(K:K, K5)</f>
-        <v>15</v>
+        <f>COUNTIFS(K:K, K5, E:E, "T")</f>
+        <v>5</v>
       </c>
       <c r="M5" s="6" t="str">
         <f>IF(COUNTIF(K:K, K5)&gt;1, "Duplicate", "Unique")</f>
@@ -2549,7 +2529,7 @@
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F6" s="6" t="str">
         <f>C6 &amp; "/" &amp; D6</f>
@@ -2570,8 +2550,8 @@
         <v>Fire/</v>
       </c>
       <c r="L6" s="6">
-        <f>COUNTIF(K:K, K6)</f>
-        <v>15</v>
+        <f>COUNTIFS(K:K, K6, E:E, "T")</f>
+        <v>5</v>
       </c>
       <c r="M6" s="6" t="str">
         <f>IF(COUNTIF(K:K, K6)&gt;1, "Duplicate", "Unique")</f>
@@ -2592,7 +2572,7 @@
         <v>389</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F7" s="6" t="str">
         <f>C7 &amp; "/" &amp; D7</f>
@@ -2607,17 +2587,17 @@
         <v>3</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="K7" s="7" t="str">
         <f>IF(I7="", F7, I7)</f>
         <v>Fire/Dragon</v>
       </c>
       <c r="L7" s="6">
-        <f>COUNTIF(K:K, K7)</f>
+        <f>COUNTIFS(K:K, K7, E:E, "T")</f>
         <v>1</v>
       </c>
       <c r="M7" s="6" t="str">
@@ -2637,7 +2617,7 @@
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F8" s="6" t="str">
         <f>C8 &amp; "/" &amp; D8</f>
@@ -2658,8 +2638,8 @@
         <v>Water/</v>
       </c>
       <c r="L8" s="6">
-        <f>COUNTIF(K:K, K8)</f>
-        <v>28</v>
+        <f>COUNTIFS(K:K, K8, E:E, "T")</f>
+        <v>8</v>
       </c>
       <c r="M8" s="6" t="str">
         <f>IF(COUNTIF(K:K, K8)&gt;1, "Duplicate", "Unique")</f>
@@ -2678,7 +2658,7 @@
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F9" s="6" t="str">
         <f>C9 &amp; "/" &amp; D9</f>
@@ -2699,8 +2679,8 @@
         <v>Water/</v>
       </c>
       <c r="L9" s="6">
-        <f>COUNTIF(K:K, K9)</f>
-        <v>28</v>
+        <f>COUNTIFS(K:K, K9, E:E, "T")</f>
+        <v>8</v>
       </c>
       <c r="M9" s="6" t="str">
         <f>IF(COUNTIF(K:K, K9)&gt;1, "Duplicate", "Unique")</f>
@@ -2719,7 +2699,7 @@
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F10" s="6" t="str">
         <f>C10 &amp; "/" &amp; D10</f>
@@ -2734,7 +2714,7 @@
         <v>36</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="7" t="str">
@@ -2742,7 +2722,7 @@
         <v>Water/Steel</v>
       </c>
       <c r="L10" s="6">
-        <f>COUNTIF(K:K, K10)</f>
+        <f>COUNTIFS(K:K, K10, E:E, "T")</f>
         <v>1</v>
       </c>
       <c r="M10" s="6" t="str">
@@ -2762,7 +2742,7 @@
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F11" s="6" t="str">
         <f>C11 &amp; "/" &amp; D11</f>
@@ -2783,8 +2763,8 @@
         <v>Bug/</v>
       </c>
       <c r="L11" s="6">
-        <f>COUNTIF(K:K, K11)</f>
-        <v>7</v>
+        <f>COUNTIFS(K:K, K11, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M11" s="6" t="str">
         <f>IF(COUNTIF(K:K, K11)&gt;1, "Duplicate", "Unique")</f>
@@ -2803,7 +2783,7 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F12" s="6" t="str">
         <f>C12 &amp; "/" &amp; D12</f>
@@ -2824,8 +2804,8 @@
         <v>Bug/</v>
       </c>
       <c r="L12" s="6">
-        <f>COUNTIF(K:K, K12)</f>
-        <v>7</v>
+        <f>COUNTIFS(K:K, K12, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M12" s="6" t="str">
         <f>IF(COUNTIF(K:K, K12)&gt;1, "Duplicate", "Unique")</f>
@@ -2846,7 +2826,7 @@
         <v>389</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F13" s="6" t="str">
         <f>C13 &amp; "/" &amp; D13</f>
@@ -2861,7 +2841,7 @@
         <v>7</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="7" t="str">
@@ -2869,7 +2849,7 @@
         <v>Bug/Psychic</v>
       </c>
       <c r="L13" s="6">
-        <f>COUNTIF(K:K, K13)</f>
+        <f>COUNTIFS(K:K, K13, E:E, "T")</f>
         <v>1</v>
       </c>
       <c r="M13" s="6" t="str">
@@ -2891,7 +2871,7 @@
         <v>387</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F14" s="6" t="str">
         <f>C14 &amp; "/" &amp; D14</f>
@@ -2912,8 +2892,8 @@
         <v>Bug/Poison</v>
       </c>
       <c r="L14" s="6">
-        <f>COUNTIF(K:K, K14)</f>
-        <v>6</v>
+        <f>COUNTIFS(K:K, K14, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M14" s="6" t="str">
         <f>IF(COUNTIF(K:K, K14)&gt;1, "Duplicate", "Unique")</f>
@@ -2934,7 +2914,7 @@
         <v>387</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F15" s="6" t="str">
         <f>C15 &amp; "/" &amp; D15</f>
@@ -2955,8 +2935,8 @@
         <v>Bug/Poison</v>
       </c>
       <c r="L15" s="6">
-        <f>COUNTIF(K:K, K15)</f>
-        <v>6</v>
+        <f>COUNTIFS(K:K, K15, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M15" s="6" t="str">
         <f>IF(COUNTIF(K:K, K15)&gt;1, "Duplicate", "Unique")</f>
@@ -2977,7 +2957,7 @@
         <v>387</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F16" s="6" t="str">
         <f>C16 &amp; "/" &amp; D16</f>
@@ -2998,8 +2978,8 @@
         <v>Bug/Poison</v>
       </c>
       <c r="L16" s="6">
-        <f>COUNTIF(K:K, K16)</f>
-        <v>6</v>
+        <f>COUNTIFS(K:K, K16, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M16" s="6" t="str">
         <f>IF(COUNTIF(K:K, K16)&gt;1, "Duplicate", "Unique")</f>
@@ -3020,7 +3000,7 @@
         <v>389</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F17" s="6" t="str">
         <f>C17 &amp; "/" &amp; D17</f>
@@ -3041,8 +3021,8 @@
         <v>Normal/Flying</v>
       </c>
       <c r="L17" s="6">
-        <f>COUNTIF(K:K, K17)</f>
-        <v>10</v>
+        <f>COUNTIFS(K:K, K17, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M17" s="6" t="str">
         <f>IF(COUNTIF(K:K, K17)&gt;1, "Duplicate", "Unique")</f>
@@ -3063,7 +3043,7 @@
         <v>389</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F18" s="6" t="str">
         <f>C18 &amp; "/" &amp; D18</f>
@@ -3084,8 +3064,8 @@
         <v>Normal/Flying</v>
       </c>
       <c r="L18" s="6">
-        <f>COUNTIF(K:K, K18)</f>
-        <v>10</v>
+        <f>COUNTIFS(K:K, K18, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M18" s="6" t="str">
         <f>IF(COUNTIF(K:K, K18)&gt;1, "Duplicate", "Unique")</f>
@@ -3106,7 +3086,7 @@
         <v>389</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F19" s="6" t="str">
         <f>C19 &amp; "/" &amp; D19</f>
@@ -3121,7 +3101,7 @@
         <v>13</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="7" t="str">
@@ -3129,7 +3109,7 @@
         <v>Electric/Flying</v>
       </c>
       <c r="L19" s="6">
-        <f>COUNTIF(K:K, K19)</f>
+        <f>COUNTIFS(K:K, K19, E:E, "T")</f>
         <v>2</v>
       </c>
       <c r="M19" s="6" t="str">
@@ -3149,7 +3129,7 @@
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F20" s="6" t="str">
         <f>C20 &amp; "/" &amp; D20</f>
@@ -3164,7 +3144,7 @@
         <v>48</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="7" t="str">
@@ -3172,8 +3152,8 @@
         <v>Dark/Normal</v>
       </c>
       <c r="L20" s="6">
-        <f>COUNTIF(K:K, K20)</f>
-        <v>4</v>
+        <f>COUNTIFS(K:K, K20, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M20" s="6" t="str">
         <f>IF(COUNTIF(K:K, K20)&gt;1, "Duplicate", "Unique")</f>
@@ -3192,7 +3172,7 @@
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F21" s="6" t="str">
         <f>C21 &amp; "/" &amp; D21</f>
@@ -3207,7 +3187,7 @@
         <v>48</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="7" t="str">
@@ -3215,8 +3195,8 @@
         <v>Dark/Normal</v>
       </c>
       <c r="L21" s="6">
-        <f>COUNTIF(K:K, K21)</f>
-        <v>4</v>
+        <f>COUNTIFS(K:K, K21, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M21" s="6" t="str">
         <f>IF(COUNTIF(K:K, K21)&gt;1, "Duplicate", "Unique")</f>
@@ -3237,7 +3217,7 @@
         <v>389</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F22" s="6" t="str">
         <f>C22 &amp; "/" &amp; D22</f>
@@ -3258,8 +3238,8 @@
         <v>Normal/Flying</v>
       </c>
       <c r="L22" s="6">
-        <f>COUNTIF(K:K, K22)</f>
-        <v>10</v>
+        <f>COUNTIFS(K:K, K22, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M22" s="6" t="str">
         <f>IF(COUNTIF(K:K, K22)&gt;1, "Duplicate", "Unique")</f>
@@ -3280,7 +3260,7 @@
         <v>389</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F23" s="6" t="str">
         <f>C23 &amp; "/" &amp; D23</f>
@@ -3295,7 +3275,7 @@
         <v>13</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="7" t="str">
@@ -3303,7 +3283,7 @@
         <v>Ground/Flying</v>
       </c>
       <c r="L23" s="6">
-        <f>COUNTIF(K:K, K23)</f>
+        <f>COUNTIFS(K:K, K23, E:E, "T")</f>
         <v>2</v>
       </c>
       <c r="M23" s="6" t="str">
@@ -3323,7 +3303,7 @@
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F24" s="6" t="str">
         <f>C24 &amp; "/" &amp; D24</f>
@@ -3344,8 +3324,8 @@
         <v>Poison/</v>
       </c>
       <c r="L24" s="6">
-        <f>COUNTIF(K:K, K24)</f>
-        <v>10</v>
+        <f>COUNTIFS(K:K, K24, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M24" s="6" t="str">
         <f>IF(COUNTIF(K:K, K24)&gt;1, "Duplicate", "Unique")</f>
@@ -3364,7 +3344,7 @@
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F25" s="6" t="str">
         <f>C25 &amp; "/" &amp; D25</f>
@@ -3379,7 +3359,7 @@
         <v>13</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="7" t="str">
@@ -3387,7 +3367,7 @@
         <v>Poison/Dark</v>
       </c>
       <c r="L25" s="6">
-        <f>COUNTIF(K:K, K25)</f>
+        <f>COUNTIFS(K:K, K25, E:E, "T")</f>
         <v>1</v>
       </c>
       <c r="M25" s="6" t="str">
@@ -3407,7 +3387,7 @@
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F26" s="6" t="str">
         <f>C26 &amp; "/" &amp; D26</f>
@@ -3428,8 +3408,8 @@
         <v>Electric/</v>
       </c>
       <c r="L26" s="6">
-        <f>COUNTIF(K:K, K26)</f>
-        <v>13</v>
+        <f>COUNTIFS(K:K, K26, E:E, "T")</f>
+        <v>6</v>
       </c>
       <c r="M26" s="6" t="str">
         <f>IF(COUNTIF(K:K, K26)&gt;1, "Duplicate", "Unique")</f>
@@ -3448,7 +3428,7 @@
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F27" s="6" t="str">
         <f>C27 &amp; "/" &amp; D27</f>
@@ -3463,7 +3443,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="7" t="str">
@@ -3471,7 +3451,7 @@
         <v>Electric/Psychic</v>
       </c>
       <c r="L27" s="6">
-        <f>COUNTIF(K:K, K27)</f>
+        <f>COUNTIFS(K:K, K27, E:E, "T")</f>
         <v>1</v>
       </c>
       <c r="M27" s="6" t="str">
@@ -3491,7 +3471,7 @@
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F28" s="6" t="str">
         <f>C28 &amp; "/" &amp; D28</f>
@@ -3506,7 +3486,7 @@
         <v>10</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="J28" s="6"/>
       <c r="K28" s="7" t="str">
@@ -3514,8 +3494,8 @@
         <v>Ice/Steel</v>
       </c>
       <c r="L28" s="6">
-        <f>COUNTIF(K:K, K28)</f>
-        <v>2</v>
+        <f>COUNTIFS(K:K, K28, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M28" s="6" t="str">
         <f>IF(COUNTIF(K:K, K28)&gt;1, "Duplicate", "Unique")</f>
@@ -3534,7 +3514,7 @@
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F29" s="6" t="str">
         <f>C29 &amp; "/" &amp; D29</f>
@@ -3549,7 +3529,7 @@
         <v>10</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="7" t="str">
@@ -3557,8 +3537,8 @@
         <v>Ice/Steel</v>
       </c>
       <c r="L29" s="6">
-        <f>COUNTIF(K:K, K29)</f>
-        <v>2</v>
+        <f>COUNTIFS(K:K, K29, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M29" s="6" t="str">
         <f>IF(COUNTIF(K:K, K29)&gt;1, "Duplicate", "Unique")</f>
@@ -3577,7 +3557,7 @@
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F30" s="6" t="str">
         <f>C30 &amp; "/" &amp; D30</f>
@@ -3598,8 +3578,8 @@
         <v>Poison/</v>
       </c>
       <c r="L30" s="6">
-        <f>COUNTIF(K:K, K30)</f>
-        <v>10</v>
+        <f>COUNTIFS(K:K, K30, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M30" s="6" t="str">
         <f>IF(COUNTIF(K:K, K30)&gt;1, "Duplicate", "Unique")</f>
@@ -3618,7 +3598,7 @@
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F31" s="6" t="str">
         <f>C31 &amp; "/" &amp; D31</f>
@@ -3639,8 +3619,8 @@
         <v>Poison/</v>
       </c>
       <c r="L31" s="6">
-        <f>COUNTIF(K:K, K31)</f>
-        <v>10</v>
+        <f>COUNTIFS(K:K, K31, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M31" s="6" t="str">
         <f>IF(COUNTIF(K:K, K31)&gt;1, "Duplicate", "Unique")</f>
@@ -3661,7 +3641,7 @@
         <v>394</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F32" s="6" t="str">
         <f>C32 &amp; "/" &amp; D32</f>
@@ -3682,7 +3662,7 @@
         <v>Poison/Ground</v>
       </c>
       <c r="L32" s="6">
-        <f>COUNTIF(K:K, K32)</f>
+        <f>COUNTIFS(K:K, K32, E:E, "T")</f>
         <v>2</v>
       </c>
       <c r="M32" s="6" t="str">
@@ -3702,7 +3682,7 @@
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F33" s="6" t="str">
         <f>C33 &amp; "/" &amp; D33</f>
@@ -3723,8 +3703,8 @@
         <v>Poison/</v>
       </c>
       <c r="L33" s="6">
-        <f>COUNTIF(K:K, K33)</f>
-        <v>10</v>
+        <f>COUNTIFS(K:K, K33, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M33" s="6" t="str">
         <f>IF(COUNTIF(K:K, K33)&gt;1, "Duplicate", "Unique")</f>
@@ -3743,7 +3723,7 @@
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F34" s="6" t="str">
         <f>C34 &amp; "/" &amp; D34</f>
@@ -3764,8 +3744,8 @@
         <v>Poison/</v>
       </c>
       <c r="L34" s="6">
-        <f>COUNTIF(K:K, K34)</f>
-        <v>10</v>
+        <f>COUNTIFS(K:K, K34, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M34" s="6" t="str">
         <f>IF(COUNTIF(K:K, K34)&gt;1, "Duplicate", "Unique")</f>
@@ -3786,7 +3766,7 @@
         <v>394</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F35" s="6" t="str">
         <f>C35 &amp; "/" &amp; D35</f>
@@ -3807,7 +3787,7 @@
         <v>Poison/Ground</v>
       </c>
       <c r="L35" s="6">
-        <f>COUNTIF(K:K, K35)</f>
+        <f>COUNTIFS(K:K, K35, E:E, "T")</f>
         <v>2</v>
       </c>
       <c r="M35" s="6" t="str">
@@ -3827,7 +3807,7 @@
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F36" s="6" t="str">
         <f>C36 &amp; "/" &amp; D36</f>
@@ -3848,8 +3828,8 @@
         <v>Normal/</v>
       </c>
       <c r="L36" s="6">
-        <f>COUNTIF(K:K, K36)</f>
-        <v>33</v>
+        <f>COUNTIFS(K:K, K36, E:E, "T")</f>
+        <v>18</v>
       </c>
       <c r="M36" s="6" t="str">
         <f>IF(COUNTIF(K:K, K36)&gt;1, "Duplicate", "Unique")</f>
@@ -3868,7 +3848,7 @@
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F37" s="6" t="str">
         <f>C37 &amp; "/" &amp; D37</f>
@@ -3889,8 +3869,8 @@
         <v>Normal/</v>
       </c>
       <c r="L37" s="6">
-        <f>COUNTIF(K:K, K37)</f>
-        <v>33</v>
+        <f>COUNTIFS(K:K, K37, E:E, "T")</f>
+        <v>18</v>
       </c>
       <c r="M37" s="6" t="str">
         <f>IF(COUNTIF(K:K, K37)&gt;1, "Duplicate", "Unique")</f>
@@ -3909,7 +3889,7 @@
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F38" s="6" t="str">
         <f>C38 &amp; "/" &amp; D38</f>
@@ -3930,8 +3910,8 @@
         <v>Fire/</v>
       </c>
       <c r="L38" s="6">
-        <f>COUNTIF(K:K, K38)</f>
-        <v>15</v>
+        <f>COUNTIFS(K:K, K38, E:E, "T")</f>
+        <v>5</v>
       </c>
       <c r="M38" s="6" t="str">
         <f>IF(COUNTIF(K:K, K38)&gt;1, "Duplicate", "Unique")</f>
@@ -3950,7 +3930,7 @@
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F39" s="6" t="str">
         <f>C39 &amp; "/" &amp; D39</f>
@@ -3965,7 +3945,7 @@
         <v>18</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="J39" s="6"/>
       <c r="K39" s="7" t="str">
@@ -3973,7 +3953,7 @@
         <v>Fire/Ghost</v>
       </c>
       <c r="L39" s="6">
-        <f>COUNTIF(K:K, K39)</f>
+        <f>COUNTIFS(K:K, K39, E:E, "T")</f>
         <v>2</v>
       </c>
       <c r="M39" s="6" t="str">
@@ -3993,7 +3973,7 @@
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F40" s="6" t="str">
         <f>C40 &amp; "/" &amp; D40</f>
@@ -4014,8 +3994,8 @@
         <v>Normal/</v>
       </c>
       <c r="L40" s="6">
-        <f>COUNTIF(K:K, K40)</f>
-        <v>33</v>
+        <f>COUNTIFS(K:K, K40, E:E, "T")</f>
+        <v>18</v>
       </c>
       <c r="M40" s="6" t="str">
         <f>IF(COUNTIF(K:K, K40)&gt;1, "Duplicate", "Unique")</f>
@@ -4034,7 +4014,7 @@
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F41" s="6" t="str">
         <f>C41 &amp; "/" &amp; D41</f>
@@ -4055,8 +4035,8 @@
         <v>Normal/</v>
       </c>
       <c r="L41" s="6">
-        <f>COUNTIF(K:K, K41)</f>
-        <v>33</v>
+        <f>COUNTIFS(K:K, K41, E:E, "T")</f>
+        <v>18</v>
       </c>
       <c r="M41" s="6" t="str">
         <f>IF(COUNTIF(K:K, K41)&gt;1, "Duplicate", "Unique")</f>
@@ -4077,7 +4057,7 @@
         <v>389</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F42" s="6" t="str">
         <f>C42 &amp; "/" &amp; D42</f>
@@ -4098,8 +4078,8 @@
         <v>Poison/Flying</v>
       </c>
       <c r="L42" s="6">
-        <f>COUNTIF(K:K, K42)</f>
-        <v>3</v>
+        <f>COUNTIFS(K:K, K42, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M42" s="6" t="str">
         <f>IF(COUNTIF(K:K, K42)&gt;1, "Duplicate", "Unique")</f>
@@ -4120,7 +4100,7 @@
         <v>389</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F43" s="6" t="str">
         <f>C43 &amp; "/" &amp; D43</f>
@@ -4141,8 +4121,8 @@
         <v>Poison/Flying</v>
       </c>
       <c r="L43" s="6">
-        <f>COUNTIF(K:K, K43)</f>
-        <v>3</v>
+        <f>COUNTIFS(K:K, K43, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M43" s="6" t="str">
         <f>IF(COUNTIF(K:K, K43)&gt;1, "Duplicate", "Unique")</f>
@@ -4163,7 +4143,7 @@
         <v>387</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F44" s="6" t="str">
         <f>C44 &amp; "/" &amp; D44</f>
@@ -4184,8 +4164,8 @@
         <v>Grass/Poison</v>
       </c>
       <c r="L44" s="6">
-        <f>COUNTIF(K:K, K44)</f>
-        <v>9</v>
+        <f>COUNTIFS(K:K, K44, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M44" s="6" t="str">
         <f>IF(COUNTIF(K:K, K44)&gt;1, "Duplicate", "Unique")</f>
@@ -4206,7 +4186,7 @@
         <v>387</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F45" s="6" t="str">
         <f>C45 &amp; "/" &amp; D45</f>
@@ -4227,8 +4207,8 @@
         <v>Grass/Poison</v>
       </c>
       <c r="L45" s="6">
-        <f>COUNTIF(K:K, K45)</f>
-        <v>9</v>
+        <f>COUNTIFS(K:K, K45, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M45" s="6" t="str">
         <f>IF(COUNTIF(K:K, K45)&gt;1, "Duplicate", "Unique")</f>
@@ -4249,7 +4229,7 @@
         <v>387</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F46" s="6" t="str">
         <f>C46 &amp; "/" &amp; D46</f>
@@ -4270,8 +4250,8 @@
         <v>Grass/Poison</v>
       </c>
       <c r="L46" s="6">
-        <f>COUNTIF(K:K, K46)</f>
-        <v>9</v>
+        <f>COUNTIFS(K:K, K46, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M46" s="6" t="str">
         <f>IF(COUNTIF(K:K, K46)&gt;1, "Duplicate", "Unique")</f>
@@ -4292,7 +4272,7 @@
         <v>386</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F47" s="6" t="str">
         <f>C47 &amp; "/" &amp; D47</f>
@@ -4313,8 +4293,8 @@
         <v>Bug/Grass</v>
       </c>
       <c r="L47" s="6">
-        <f>COUNTIF(K:K, K47)</f>
-        <v>2</v>
+        <f>COUNTIFS(K:K, K47, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M47" s="6" t="str">
         <f>IF(COUNTIF(K:K, K47)&gt;1, "Duplicate", "Unique")</f>
@@ -4335,7 +4315,7 @@
         <v>386</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F48" s="6" t="str">
         <f>C48 &amp; "/" &amp; D48</f>
@@ -4356,8 +4336,8 @@
         <v>Bug/Grass</v>
       </c>
       <c r="L48" s="6">
-        <f>COUNTIF(K:K, K48)</f>
-        <v>2</v>
+        <f>COUNTIFS(K:K, K48, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M48" s="6" t="str">
         <f>IF(COUNTIF(K:K, K48)&gt;1, "Duplicate", "Unique")</f>
@@ -4378,7 +4358,7 @@
         <v>387</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F49" s="6" t="str">
         <f>C49 &amp; "/" &amp; D49</f>
@@ -4399,8 +4379,8 @@
         <v>Bug/Poison</v>
       </c>
       <c r="L49" s="6">
-        <f>COUNTIF(K:K, K49)</f>
-        <v>6</v>
+        <f>COUNTIFS(K:K, K49, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M49" s="6" t="str">
         <f>IF(COUNTIF(K:K, K49)&gt;1, "Duplicate", "Unique")</f>
@@ -4421,7 +4401,7 @@
         <v>387</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F50" s="6" t="str">
         <f>C50 &amp; "/" &amp; D50</f>
@@ -4442,8 +4422,8 @@
         <v>Bug/Poison</v>
       </c>
       <c r="L50" s="6">
-        <f>COUNTIF(K:K, K50)</f>
-        <v>6</v>
+        <f>COUNTIFS(K:K, K50, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M50" s="6" t="str">
         <f>IF(COUNTIF(K:K, K50)&gt;1, "Duplicate", "Unique")</f>
@@ -4462,7 +4442,7 @@
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F51" s="6" t="str">
         <f>C51 &amp; "/" &amp; D51</f>
@@ -4477,7 +4457,7 @@
         <v>10</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="J51" s="6"/>
       <c r="K51" s="7" t="str">
@@ -4485,8 +4465,8 @@
         <v>Ground/Steel</v>
       </c>
       <c r="L51" s="6">
-        <f>COUNTIF(K:K, K51)</f>
-        <v>2</v>
+        <f>COUNTIFS(K:K, K51, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M51" s="6" t="str">
         <f>IF(COUNTIF(K:K, K51)&gt;1, "Duplicate", "Unique")</f>
@@ -4505,7 +4485,7 @@
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F52" s="6" t="str">
         <f>C52 &amp; "/" &amp; D52</f>
@@ -4520,7 +4500,7 @@
         <v>10</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="J52" s="6"/>
       <c r="K52" s="7" t="str">
@@ -4528,8 +4508,8 @@
         <v>Ground/Steel</v>
       </c>
       <c r="L52" s="6">
-        <f>COUNTIF(K:K, K52)</f>
-        <v>2</v>
+        <f>COUNTIFS(K:K, K52, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M52" s="6" t="str">
         <f>IF(COUNTIF(K:K, K52)&gt;1, "Duplicate", "Unique")</f>
@@ -4548,7 +4528,7 @@
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F53" s="6" t="str">
         <f>C53 &amp; "/" &amp; D53</f>
@@ -4569,8 +4549,8 @@
         <v>Normal/</v>
       </c>
       <c r="L53" s="6">
-        <f>COUNTIF(K:K, K53)</f>
-        <v>33</v>
+        <f>COUNTIFS(K:K, K53, E:E, "T")</f>
+        <v>18</v>
       </c>
       <c r="M53" s="6" t="str">
         <f>IF(COUNTIF(K:K, K53)&gt;1, "Duplicate", "Unique")</f>
@@ -4589,7 +4569,7 @@
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F54" s="6" t="str">
         <f>C54 &amp; "/" &amp; D54</f>
@@ -4604,7 +4584,7 @@
         <v>48</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="J54" s="6"/>
       <c r="K54" s="7" t="str">
@@ -4612,7 +4592,7 @@
         <v>Normal/Ghost</v>
       </c>
       <c r="L54" s="6">
-        <f>COUNTIF(K:K, K54)</f>
+        <f>COUNTIFS(K:K, K54, E:E, "T")</f>
         <v>1</v>
       </c>
       <c r="M54" s="6" t="str">
@@ -4632,7 +4612,7 @@
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F55" s="6" t="str">
         <f>C55 &amp; "/" &amp; D55</f>
@@ -4653,8 +4633,8 @@
         <v>Water/</v>
       </c>
       <c r="L55" s="6">
-        <f>COUNTIF(K:K, K55)</f>
-        <v>28</v>
+        <f>COUNTIFS(K:K, K55, E:E, "T")</f>
+        <v>8</v>
       </c>
       <c r="M55" s="6" t="str">
         <f>IF(COUNTIF(K:K, K55)&gt;1, "Duplicate", "Unique")</f>
@@ -4673,7 +4653,7 @@
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F56" s="6" t="str">
         <f>C56 &amp; "/" &amp; D56</f>
@@ -4688,7 +4668,7 @@
         <v>36</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="J56" s="6"/>
       <c r="K56" s="7" t="str">
@@ -4696,8 +4676,8 @@
         <v>Water/Psychic</v>
       </c>
       <c r="L56" s="6">
-        <f>COUNTIF(K:K, K56)</f>
-        <v>7</v>
+        <f>COUNTIFS(K:K, K56, E:E, "T")</f>
+        <v>5</v>
       </c>
       <c r="M56" s="6" t="str">
         <f>IF(COUNTIF(K:K, K56)&gt;1, "Duplicate", "Unique")</f>
@@ -4716,7 +4696,7 @@
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F57" s="6" t="str">
         <f>C57 &amp; "/" &amp; D57</f>
@@ -4737,8 +4717,8 @@
         <v>Fighting/</v>
       </c>
       <c r="L57" s="6">
-        <f>COUNTIF(K:K, K57)</f>
-        <v>7</v>
+        <f>COUNTIFS(K:K, K57, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M57" s="6" t="str">
         <f>IF(COUNTIF(K:K, K57)&gt;1, "Duplicate", "Unique")</f>
@@ -4757,7 +4737,7 @@
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F58" s="6" t="str">
         <f>C58 &amp; "/" &amp; D58</f>
@@ -4772,7 +4752,7 @@
         <v>11</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="J58" s="6"/>
       <c r="K58" s="7" t="str">
@@ -4780,7 +4760,7 @@
         <v>Fighting/Ground</v>
       </c>
       <c r="L58" s="6">
-        <f>COUNTIF(K:K, K58)</f>
+        <f>COUNTIFS(K:K, K58, E:E, "T")</f>
         <v>1</v>
       </c>
       <c r="M58" s="6" t="str">
@@ -4800,7 +4780,7 @@
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F59" s="6" t="str">
         <f>C59 &amp; "/" &amp; D59</f>
@@ -4821,8 +4801,8 @@
         <v>Fire/</v>
       </c>
       <c r="L59" s="6">
-        <f>COUNTIF(K:K, K59)</f>
-        <v>15</v>
+        <f>COUNTIFS(K:K, K59, E:E, "T")</f>
+        <v>5</v>
       </c>
       <c r="M59" s="6" t="str">
         <f>IF(COUNTIF(K:K, K59)&gt;1, "Duplicate", "Unique")</f>
@@ -4841,7 +4821,7 @@
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F60" s="6" t="str">
         <f>C60 &amp; "/" &amp; D60</f>
@@ -4862,8 +4842,8 @@
         <v>Fire/</v>
       </c>
       <c r="L60" s="6">
-        <f>COUNTIF(K:K, K60)</f>
-        <v>15</v>
+        <f>COUNTIFS(K:K, K60, E:E, "T")</f>
+        <v>5</v>
       </c>
       <c r="M60" s="6" t="str">
         <f>IF(COUNTIF(K:K, K60)&gt;1, "Duplicate", "Unique")</f>
@@ -4882,7 +4862,7 @@
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F61" s="6" t="str">
         <f>C61 &amp; "/" &amp; D61</f>
@@ -4903,8 +4883,8 @@
         <v>Water/</v>
       </c>
       <c r="L61" s="6">
-        <f>COUNTIF(K:K, K61)</f>
-        <v>28</v>
+        <f>COUNTIFS(K:K, K61, E:E, "T")</f>
+        <v>8</v>
       </c>
       <c r="M61" s="6" t="str">
         <f>IF(COUNTIF(K:K, K61)&gt;1, "Duplicate", "Unique")</f>
@@ -4923,7 +4903,7 @@
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F62" s="6" t="str">
         <f>C62 &amp; "/" &amp; D62</f>
@@ -4944,8 +4924,8 @@
         <v>Water/</v>
       </c>
       <c r="L62" s="6">
-        <f>COUNTIF(K:K, K62)</f>
-        <v>28</v>
+        <f>COUNTIFS(K:K, K62, E:E, "T")</f>
+        <v>8</v>
       </c>
       <c r="M62" s="6" t="str">
         <f>IF(COUNTIF(K:K, K62)&gt;1, "Duplicate", "Unique")</f>
@@ -4966,7 +4946,7 @@
         <v>395</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F63" s="6" t="str">
         <f>C63 &amp; "/" &amp; D63</f>
@@ -4987,7 +4967,7 @@
         <v>Water/Fighting</v>
       </c>
       <c r="L63" s="6">
-        <f>COUNTIF(K:K, K63)</f>
+        <f>COUNTIFS(K:K, K63, E:E, "T")</f>
         <v>1</v>
       </c>
       <c r="M63" s="6" t="str">
@@ -5007,7 +4987,7 @@
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F64" s="6" t="str">
         <f>C64 &amp; "/" &amp; D64</f>
@@ -5028,8 +5008,8 @@
         <v>Psychic/</v>
       </c>
       <c r="L64" s="6">
-        <f>COUNTIF(K:K, K64)</f>
-        <v>15</v>
+        <f>COUNTIFS(K:K, K64, E:E, "T")</f>
+        <v>9</v>
       </c>
       <c r="M64" s="6" t="str">
         <f>IF(COUNTIF(K:K, K64)&gt;1, "Duplicate", "Unique")</f>
@@ -5048,7 +5028,7 @@
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F65" s="6" t="str">
         <f>C65 &amp; "/" &amp; D65</f>
@@ -5069,8 +5049,8 @@
         <v>Psychic/</v>
       </c>
       <c r="L65" s="6">
-        <f>COUNTIF(K:K, K65)</f>
-        <v>15</v>
+        <f>COUNTIFS(K:K, K65, E:E, "T")</f>
+        <v>9</v>
       </c>
       <c r="M65" s="6" t="str">
         <f>IF(COUNTIF(K:K, K65)&gt;1, "Duplicate", "Unique")</f>
@@ -5089,7 +5069,7 @@
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F66" s="6" t="str">
         <f>C66 &amp; "/" &amp; D66</f>
@@ -5110,8 +5090,8 @@
         <v>Psychic/</v>
       </c>
       <c r="L66" s="6">
-        <f>COUNTIF(K:K, K66)</f>
-        <v>15</v>
+        <f>COUNTIFS(K:K, K66, E:E, "T")</f>
+        <v>9</v>
       </c>
       <c r="M66" s="6" t="str">
         <f>IF(COUNTIF(K:K, K66)&gt;1, "Duplicate", "Unique")</f>
@@ -5130,7 +5110,7 @@
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F67" s="6" t="str">
         <f>C67 &amp; "/" &amp; D67</f>
@@ -5151,8 +5131,8 @@
         <v>Fighting/</v>
       </c>
       <c r="L67" s="6">
-        <f>COUNTIF(K:K, K67)</f>
-        <v>7</v>
+        <f>COUNTIFS(K:K, K67, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M67" s="6" t="str">
         <f>IF(COUNTIF(K:K, K67)&gt;1, "Duplicate", "Unique")</f>
@@ -5171,7 +5151,7 @@
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F68" s="6" t="str">
         <f>C68 &amp; "/" &amp; D68</f>
@@ -5192,8 +5172,8 @@
         <v>Fighting/</v>
       </c>
       <c r="L68" s="6">
-        <f>COUNTIF(K:K, K68)</f>
-        <v>7</v>
+        <f>COUNTIFS(K:K, K68, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M68" s="6" t="str">
         <f>IF(COUNTIF(K:K, K68)&gt;1, "Duplicate", "Unique")</f>
@@ -5212,7 +5192,7 @@
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F69" s="6" t="str">
         <f>C69 &amp; "/" &amp; D69</f>
@@ -5228,15 +5208,15 @@
       </c>
       <c r="I69" s="6"/>
       <c r="J69" s="6" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="K69" s="7" t="str">
         <f>IF(I69="", F69, I69)</f>
         <v>Fighting/</v>
       </c>
       <c r="L69" s="6">
-        <f>COUNTIF(K:K, K69)</f>
-        <v>7</v>
+        <f>COUNTIFS(K:K, K69, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M69" s="6" t="str">
         <f>IF(COUNTIF(K:K, K69)&gt;1, "Duplicate", "Unique")</f>
@@ -5257,7 +5237,7 @@
         <v>387</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F70" s="6" t="str">
         <f>C70 &amp; "/" &amp; D70</f>
@@ -5278,8 +5258,8 @@
         <v>Grass/Poison</v>
       </c>
       <c r="L70" s="6">
-        <f>COUNTIF(K:K, K70)</f>
-        <v>9</v>
+        <f>COUNTIFS(K:K, K70, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M70" s="6" t="str">
         <f>IF(COUNTIF(K:K, K70)&gt;1, "Duplicate", "Unique")</f>
@@ -5300,7 +5280,7 @@
         <v>387</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F71" s="6" t="str">
         <f>C71 &amp; "/" &amp; D71</f>
@@ -5321,8 +5301,8 @@
         <v>Grass/Poison</v>
       </c>
       <c r="L71" s="6">
-        <f>COUNTIF(K:K, K71)</f>
-        <v>9</v>
+        <f>COUNTIFS(K:K, K71, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M71" s="6" t="str">
         <f>IF(COUNTIF(K:K, K71)&gt;1, "Duplicate", "Unique")</f>
@@ -5343,7 +5323,7 @@
         <v>387</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F72" s="6" t="str">
         <f>C72 &amp; "/" &amp; D72</f>
@@ -5358,7 +5338,7 @@
         <v>10</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J72" s="6"/>
       <c r="K72" s="7" t="str">
@@ -5366,8 +5346,8 @@
         <v>Grass/Dark</v>
       </c>
       <c r="L72" s="6">
-        <f>COUNTIF(K:K, K72)</f>
-        <v>5</v>
+        <f>COUNTIFS(K:K, K72, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M72" s="6" t="str">
         <f>IF(COUNTIF(K:K, K72)&gt;1, "Duplicate", "Unique")</f>
@@ -5388,7 +5368,7 @@
         <v>387</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F73" s="6" t="str">
         <f>C73 &amp; "/" &amp; D73</f>
@@ -5409,8 +5389,8 @@
         <v>Water/Poison</v>
       </c>
       <c r="L73" s="6">
-        <f>COUNTIF(K:K, K73)</f>
-        <v>3</v>
+        <f>COUNTIFS(K:K, K73, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M73" s="6" t="str">
         <f>IF(COUNTIF(K:K, K73)&gt;1, "Duplicate", "Unique")</f>
@@ -5431,7 +5411,7 @@
         <v>387</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F74" s="6" t="str">
         <f>C74 &amp; "/" &amp; D74</f>
@@ -5452,8 +5432,8 @@
         <v>Water/Poison</v>
       </c>
       <c r="L74" s="6">
-        <f>COUNTIF(K:K, K74)</f>
-        <v>3</v>
+        <f>COUNTIFS(K:K, K74, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M74" s="6" t="str">
         <f>IF(COUNTIF(K:K, K74)&gt;1, "Duplicate", "Unique")</f>
@@ -5474,7 +5454,7 @@
         <v>394</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F75" s="6" t="str">
         <f>C75 &amp; "/" &amp; D75</f>
@@ -5489,7 +5469,7 @@
         <v>8</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="J75" s="6"/>
       <c r="K75" s="7" t="str">
@@ -5497,8 +5477,8 @@
         <v>Rock/Electric</v>
       </c>
       <c r="L75" s="6">
-        <f>COUNTIF(K:K, K75)</f>
-        <v>3</v>
+        <f>COUNTIFS(K:K, K75, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M75" s="6" t="str">
         <f>IF(COUNTIF(K:K, K75)&gt;1, "Duplicate", "Unique")</f>
@@ -5519,7 +5499,7 @@
         <v>394</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F76" s="6" t="str">
         <f>C76 &amp; "/" &amp; D76</f>
@@ -5534,7 +5514,7 @@
         <v>8</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="J76" s="6"/>
       <c r="K76" s="7" t="str">
@@ -5542,8 +5522,8 @@
         <v>Rock/Electric</v>
       </c>
       <c r="L76" s="6">
-        <f>COUNTIF(K:K, K76)</f>
-        <v>3</v>
+        <f>COUNTIFS(K:K, K76, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M76" s="6" t="str">
         <f>IF(COUNTIF(K:K, K76)&gt;1, "Duplicate", "Unique")</f>
@@ -5564,7 +5544,7 @@
         <v>394</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F77" s="6" t="str">
         <f>C77 &amp; "/" &amp; D77</f>
@@ -5579,7 +5559,7 @@
         <v>8</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="J77" s="6"/>
       <c r="K77" s="7" t="str">
@@ -5587,8 +5567,8 @@
         <v>Rock/Electric</v>
       </c>
       <c r="L77" s="6">
-        <f>COUNTIF(K:K, K77)</f>
-        <v>3</v>
+        <f>COUNTIFS(K:K, K77, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M77" s="6" t="str">
         <f>IF(COUNTIF(K:K, K77)&gt;1, "Duplicate", "Unique")</f>
@@ -5607,7 +5587,7 @@
       </c>
       <c r="D78" s="6"/>
       <c r="E78" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F78" s="6" t="str">
         <f>C78 &amp; "/" &amp; D78</f>
@@ -5628,8 +5608,8 @@
         <v>Fire/</v>
       </c>
       <c r="L78" s="6">
-        <f>COUNTIF(K:K, K78)</f>
-        <v>15</v>
+        <f>COUNTIFS(K:K, K78, E:E, "T")</f>
+        <v>5</v>
       </c>
       <c r="M78" s="6" t="str">
         <f>IF(COUNTIF(K:K, K78)&gt;1, "Duplicate", "Unique")</f>
@@ -5648,7 +5628,7 @@
       </c>
       <c r="D79" s="6"/>
       <c r="E79" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F79" s="6" t="str">
         <f>C79 &amp; "/" &amp; D79</f>
@@ -5663,7 +5643,7 @@
         <v>18</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="J79" s="6"/>
       <c r="K79" s="7" t="str">
@@ -5671,7 +5651,7 @@
         <v>Normal/Fire</v>
       </c>
       <c r="L79" s="6">
-        <f>COUNTIF(K:K, K79)</f>
+        <f>COUNTIFS(K:K, K79, E:E, "T")</f>
         <v>1</v>
       </c>
       <c r="M79" s="6" t="str">
@@ -5693,7 +5673,7 @@
         <v>396</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F80" s="6" t="str">
         <f>C80 &amp; "/" &amp; D80</f>
@@ -5714,8 +5694,8 @@
         <v>Water/Psychic</v>
       </c>
       <c r="L80" s="6">
-        <f>COUNTIF(K:K, K80)</f>
-        <v>7</v>
+        <f>COUNTIFS(K:K, K80, E:E, "T")</f>
+        <v>5</v>
       </c>
       <c r="M80" s="6" t="str">
         <f>IF(COUNTIF(K:K, K80)&gt;1, "Duplicate", "Unique")</f>
@@ -5736,7 +5716,7 @@
         <v>396</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F81" s="6" t="str">
         <f>C81 &amp; "/" &amp; D81</f>
@@ -5757,8 +5737,8 @@
         <v>Water/Psychic</v>
       </c>
       <c r="L81" s="6">
-        <f>COUNTIF(K:K, K81)</f>
-        <v>7</v>
+        <f>COUNTIFS(K:K, K81, E:E, "T")</f>
+        <v>5</v>
       </c>
       <c r="M81" s="6" t="str">
         <f>IF(COUNTIF(K:K, K81)&gt;1, "Duplicate", "Unique")</f>
@@ -5779,7 +5759,7 @@
         <v>398</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F82" s="6" t="str">
         <f>C82 &amp; "/" &amp; D82</f>
@@ -5800,8 +5780,8 @@
         <v>Electric/Steel</v>
       </c>
       <c r="L82" s="6">
-        <f>COUNTIF(K:K, K82)</f>
-        <v>2</v>
+        <f>COUNTIFS(K:K, K82, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M82" s="6" t="str">
         <f>IF(COUNTIF(K:K, K82)&gt;1, "Duplicate", "Unique")</f>
@@ -5822,7 +5802,7 @@
         <v>398</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F83" s="6" t="str">
         <f>C83 &amp; "/" &amp; D83</f>
@@ -5843,8 +5823,8 @@
         <v>Electric/Steel</v>
       </c>
       <c r="L83" s="6">
-        <f>COUNTIF(K:K, K83)</f>
-        <v>2</v>
+        <f>COUNTIFS(K:K, K83, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M83" s="6" t="str">
         <f>IF(COUNTIF(K:K, K83)&gt;1, "Duplicate", "Unique")</f>
@@ -5865,7 +5845,7 @@
         <v>389</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F84" s="6" t="str">
         <f>C84 &amp; "/" &amp; D84</f>
@@ -5880,7 +5860,7 @@
         <v>13</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="J84" s="6"/>
       <c r="K84" s="7" t="str">
@@ -5888,7 +5868,7 @@
         <v>Fighting/Flying</v>
       </c>
       <c r="L84" s="6">
-        <f>COUNTIF(K:K, K84)</f>
+        <f>COUNTIFS(K:K, K84, E:E, "T")</f>
         <v>1</v>
       </c>
       <c r="M84" s="6" t="str">
@@ -5910,7 +5890,7 @@
         <v>389</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F85" s="6" t="str">
         <f>C85 &amp; "/" &amp; D85</f>
@@ -5931,8 +5911,8 @@
         <v>Normal/Flying</v>
       </c>
       <c r="L85" s="6">
-        <f>COUNTIF(K:K, K85)</f>
-        <v>10</v>
+        <f>COUNTIFS(K:K, K85, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M85" s="6" t="str">
         <f>IF(COUNTIF(K:K, K85)&gt;1, "Duplicate", "Unique")</f>
@@ -5953,7 +5933,7 @@
         <v>389</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F86" s="6" t="str">
         <f>C86 &amp; "/" &amp; D86</f>
@@ -5974,8 +5954,8 @@
         <v>Normal/Flying</v>
       </c>
       <c r="L86" s="6">
-        <f>COUNTIF(K:K, K86)</f>
-        <v>10</v>
+        <f>COUNTIFS(K:K, K86, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M86" s="6" t="str">
         <f>IF(COUNTIF(K:K, K86)&gt;1, "Duplicate", "Unique")</f>
@@ -5994,7 +5974,7 @@
       </c>
       <c r="D87" s="6"/>
       <c r="E87" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F87" s="6" t="str">
         <f>C87 &amp; "/" &amp; D87</f>
@@ -6015,8 +5995,8 @@
         <v>Water/</v>
       </c>
       <c r="L87" s="6">
-        <f>COUNTIF(K:K, K87)</f>
-        <v>28</v>
+        <f>COUNTIFS(K:K, K87, E:E, "T")</f>
+        <v>8</v>
       </c>
       <c r="M87" s="6" t="str">
         <f>IF(COUNTIF(K:K, K87)&gt;1, "Duplicate", "Unique")</f>
@@ -6037,7 +6017,7 @@
         <v>399</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F88" s="6" t="str">
         <f>C88 &amp; "/" &amp; D88</f>
@@ -6058,7 +6038,7 @@
         <v>Water/Ice</v>
       </c>
       <c r="L88" s="6">
-        <f>COUNTIF(K:K, K88)</f>
+        <f>COUNTIFS(K:K, K88, E:E, "T")</f>
         <v>3</v>
       </c>
       <c r="M88" s="6" t="str">
@@ -6078,7 +6058,7 @@
       </c>
       <c r="D89" s="6"/>
       <c r="E89" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F89" s="6" t="str">
         <f>C89 &amp; "/" &amp; D89</f>
@@ -6099,8 +6079,8 @@
         <v>Poison/</v>
       </c>
       <c r="L89" s="6">
-        <f>COUNTIF(K:K, K89)</f>
-        <v>10</v>
+        <f>COUNTIFS(K:K, K89, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M89" s="6" t="str">
         <f>IF(COUNTIF(K:K, K89)&gt;1, "Duplicate", "Unique")</f>
@@ -6119,7 +6099,7 @@
       </c>
       <c r="D90" s="6"/>
       <c r="E90" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F90" s="6" t="str">
         <f>C90 &amp; "/" &amp; D90</f>
@@ -6134,7 +6114,7 @@
         <v>13</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="J90" s="6"/>
       <c r="K90" s="7" t="str">
@@ -6142,7 +6122,7 @@
         <v>Dark/Poison</v>
       </c>
       <c r="L90" s="6">
-        <f>COUNTIF(K:K, K90)</f>
+        <f>COUNTIFS(K:K, K90, E:E, "T")</f>
         <v>1</v>
       </c>
       <c r="M90" s="6" t="str">
@@ -6162,7 +6142,7 @@
       </c>
       <c r="D91" s="6"/>
       <c r="E91" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F91" s="6" t="str">
         <f>C91 &amp; "/" &amp; D91</f>
@@ -6183,8 +6163,8 @@
         <v>Water/</v>
       </c>
       <c r="L91" s="6">
-        <f>COUNTIF(K:K, K91)</f>
-        <v>28</v>
+        <f>COUNTIFS(K:K, K91, E:E, "T")</f>
+        <v>8</v>
       </c>
       <c r="M91" s="6" t="str">
         <f>IF(COUNTIF(K:K, K91)&gt;1, "Duplicate", "Unique")</f>
@@ -6205,7 +6185,7 @@
         <v>399</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F92" s="6" t="str">
         <f>C92 &amp; "/" &amp; D92</f>
@@ -6226,7 +6206,7 @@
         <v>Water/Ice</v>
       </c>
       <c r="L92" s="6">
-        <f>COUNTIF(K:K, K92)</f>
+        <f>COUNTIFS(K:K, K92, E:E, "T")</f>
         <v>3</v>
       </c>
       <c r="M92" s="6" t="str">
@@ -6248,7 +6228,7 @@
         <v>387</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F93" s="6" t="str">
         <f>C93 &amp; "/" &amp; D93</f>
@@ -6269,8 +6249,8 @@
         <v>Ghost/Poison</v>
       </c>
       <c r="L93" s="6">
-        <f>COUNTIF(K:K, K93)</f>
-        <v>3</v>
+        <f>COUNTIFS(K:K, K93, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M93" s="6" t="str">
         <f>IF(COUNTIF(K:K, K93)&gt;1, "Duplicate", "Unique")</f>
@@ -6291,7 +6271,7 @@
         <v>387</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F94" s="6" t="str">
         <f>C94 &amp; "/" &amp; D94</f>
@@ -6312,8 +6292,8 @@
         <v>Ghost/Poison</v>
       </c>
       <c r="L94" s="6">
-        <f>COUNTIF(K:K, K94)</f>
-        <v>3</v>
+        <f>COUNTIFS(K:K, K94, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M94" s="6" t="str">
         <f>IF(COUNTIF(K:K, K94)&gt;1, "Duplicate", "Unique")</f>
@@ -6334,7 +6314,7 @@
         <v>387</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F95" s="6" t="str">
         <f>C95 &amp; "/" &amp; D95</f>
@@ -6355,8 +6335,8 @@
         <v>Ghost/Poison</v>
       </c>
       <c r="L95" s="6">
-        <f>COUNTIF(K:K, K95)</f>
-        <v>3</v>
+        <f>COUNTIFS(K:K, K95, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M95" s="6" t="str">
         <f>IF(COUNTIF(K:K, K95)&gt;1, "Duplicate", "Unique")</f>
@@ -6377,7 +6357,7 @@
         <v>394</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F96" s="6" t="str">
         <f>C96 &amp; "/" &amp; D96</f>
@@ -6398,8 +6378,8 @@
         <v>Rock/Ground</v>
       </c>
       <c r="L96" s="6">
-        <f>COUNTIF(K:K, K96)</f>
-        <v>5</v>
+        <f>COUNTIFS(K:K, K96, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M96" s="6" t="str">
         <f>IF(COUNTIF(K:K, K96)&gt;1, "Duplicate", "Unique")</f>
@@ -6418,7 +6398,7 @@
       </c>
       <c r="D97" s="6"/>
       <c r="E97" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F97" s="6" t="str">
         <f>C97 &amp; "/" &amp; D97</f>
@@ -6433,7 +6413,7 @@
         <v>19</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="J97" s="6"/>
       <c r="K97" s="7" t="str">
@@ -6441,8 +6421,8 @@
         <v>Psychic/Poison</v>
       </c>
       <c r="L97" s="6">
-        <f>COUNTIF(K:K, K97)</f>
-        <v>2</v>
+        <f>COUNTIFS(K:K, K97, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M97" s="6" t="str">
         <f>IF(COUNTIF(K:K, K97)&gt;1, "Duplicate", "Unique")</f>
@@ -6461,7 +6441,7 @@
       </c>
       <c r="D98" s="6"/>
       <c r="E98" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F98" s="6" t="str">
         <f>C98 &amp; "/" &amp; D98</f>
@@ -6476,7 +6456,7 @@
         <v>19</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="J98" s="6"/>
       <c r="K98" s="7" t="str">
@@ -6484,8 +6464,8 @@
         <v>Psychic/Poison</v>
       </c>
       <c r="L98" s="6">
-        <f>COUNTIF(K:K, K98)</f>
-        <v>2</v>
+        <f>COUNTIFS(K:K, K98, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M98" s="6" t="str">
         <f>IF(COUNTIF(K:K, K98)&gt;1, "Duplicate", "Unique")</f>
@@ -6504,7 +6484,7 @@
       </c>
       <c r="D99" s="6"/>
       <c r="E99" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F99" s="6" t="str">
         <f>C99 &amp; "/" &amp; D99</f>
@@ -6525,8 +6505,8 @@
         <v>Water/</v>
       </c>
       <c r="L99" s="6">
-        <f>COUNTIF(K:K, K99)</f>
-        <v>28</v>
+        <f>COUNTIFS(K:K, K99, E:E, "T")</f>
+        <v>8</v>
       </c>
       <c r="M99" s="6" t="str">
         <f>IF(COUNTIF(K:K, K99)&gt;1, "Duplicate", "Unique")</f>
@@ -6545,7 +6525,7 @@
       </c>
       <c r="D100" s="6"/>
       <c r="E100" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F100" s="6" t="str">
         <f>C100 &amp; "/" &amp; D100</f>
@@ -6560,7 +6540,7 @@
         <v>36</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="J100" s="6"/>
       <c r="K100" s="7" t="str">
@@ -6568,8 +6548,8 @@
         <v>Water/Rock</v>
       </c>
       <c r="L100" s="6">
-        <f>COUNTIF(K:K, K100)</f>
-        <v>7</v>
+        <f>COUNTIFS(K:K, K100, E:E, "T")</f>
+        <v>5</v>
       </c>
       <c r="M100" s="6" t="str">
         <f>IF(COUNTIF(K:K, K100)&gt;1, "Duplicate", "Unique")</f>
@@ -6588,7 +6568,7 @@
       </c>
       <c r="D101" s="6"/>
       <c r="E101" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F101" s="6" t="str">
         <f>C101 &amp; "/" &amp; D101</f>
@@ -6609,8 +6589,8 @@
         <v>Electric/</v>
       </c>
       <c r="L101" s="6">
-        <f>COUNTIF(K:K, K101)</f>
-        <v>13</v>
+        <f>COUNTIFS(K:K, K101, E:E, "T")</f>
+        <v>6</v>
       </c>
       <c r="M101" s="6" t="str">
         <f>IF(COUNTIF(K:K, K101)&gt;1, "Duplicate", "Unique")</f>
@@ -6629,7 +6609,7 @@
       </c>
       <c r="D102" s="6"/>
       <c r="E102" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F102" s="6" t="str">
         <f>C102 &amp; "/" &amp; D102</f>
@@ -6645,15 +6625,15 @@
       </c>
       <c r="I102" s="6"/>
       <c r="J102" s="6" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K102" s="7" t="str">
         <f>IF(I102="", F102, I102)</f>
         <v>Electric/</v>
       </c>
       <c r="L102" s="6">
-        <f>COUNTIF(K:K, K102)</f>
-        <v>13</v>
+        <f>COUNTIFS(K:K, K102, E:E, "T")</f>
+        <v>6</v>
       </c>
       <c r="M102" s="6" t="str">
         <f>IF(COUNTIF(K:K, K102)&gt;1, "Duplicate", "Unique")</f>
@@ -6672,7 +6652,7 @@
       </c>
       <c r="D103" s="6"/>
       <c r="E103" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F103" s="6" t="str">
         <f>C103 &amp; "/" &amp; D103</f>
@@ -6693,8 +6673,8 @@
         <v>Grass/</v>
       </c>
       <c r="L103" s="6">
-        <f>COUNTIF(K:K, K103)</f>
-        <v>9</v>
+        <f>COUNTIFS(K:K, K103, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M103" s="6" t="str">
         <f>IF(COUNTIF(K:K, K103)&gt;1, "Duplicate", "Unique")</f>
@@ -6715,7 +6695,7 @@
         <v>396</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F104" s="6" t="str">
         <f>C104 &amp; "/" &amp; D104</f>
@@ -6736,7 +6716,7 @@
         <v>Grass/Psychic</v>
       </c>
       <c r="L104" s="6">
-        <f>COUNTIF(K:K, K104)</f>
+        <f>COUNTIFS(K:K, K104, E:E, "T")</f>
         <v>2</v>
       </c>
       <c r="M104" s="6" t="str">
@@ -6756,7 +6736,7 @@
       </c>
       <c r="D105" s="6"/>
       <c r="E105" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F105" s="6" t="str">
         <f>C105 &amp; "/" &amp; D105</f>
@@ -6771,7 +6751,7 @@
         <v>10</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="J105" s="6"/>
       <c r="K105" s="7" t="str">
@@ -6779,8 +6759,8 @@
         <v>Ghost/Ground</v>
       </c>
       <c r="L105" s="6">
-        <f>COUNTIF(K:K, K105)</f>
-        <v>2</v>
+        <f>COUNTIFS(K:K, K105, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M105" s="6" t="str">
         <f>IF(COUNTIF(K:K, K105)&gt;1, "Duplicate", "Unique")</f>
@@ -6799,7 +6779,7 @@
       </c>
       <c r="D106" s="6"/>
       <c r="E106" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F106" s="6" t="str">
         <f>C106 &amp; "/" &amp; D106</f>
@@ -6814,7 +6794,7 @@
         <v>10</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="J106" s="6"/>
       <c r="K106" s="7" t="str">
@@ -6822,8 +6802,8 @@
         <v>Ghost/Ground</v>
       </c>
       <c r="L106" s="6">
-        <f>COUNTIF(K:K, K106)</f>
-        <v>2</v>
+        <f>COUNTIFS(K:K, K106, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M106" s="6" t="str">
         <f>IF(COUNTIF(K:K, K106)&gt;1, "Duplicate", "Unique")</f>
@@ -6842,7 +6822,7 @@
       </c>
       <c r="D107" s="6"/>
       <c r="E107" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F107" s="6" t="str">
         <f>C107 &amp; "/" &amp; D107</f>
@@ -6857,7 +6837,7 @@
         <v>11</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J107" s="6"/>
       <c r="K107" s="7" t="str">
@@ -6865,7 +6845,7 @@
         <v>Fighting/Fire</v>
       </c>
       <c r="L107" s="6">
-        <f>COUNTIF(K:K, K107)</f>
+        <f>COUNTIFS(K:K, K107, E:E, "T")</f>
         <v>1</v>
       </c>
       <c r="M107" s="6" t="str">
@@ -6885,7 +6865,7 @@
       </c>
       <c r="D108" s="6"/>
       <c r="E108" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F108" s="6" t="str">
         <f>C108 &amp; "/" &amp; D108</f>
@@ -6900,7 +6880,7 @@
         <v>11</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="J108" s="6"/>
       <c r="K108" s="7" t="str">
@@ -6908,7 +6888,7 @@
         <v>Fighing/Electric</v>
       </c>
       <c r="L108" s="6">
-        <f>COUNTIF(K:K, K108)</f>
+        <f>COUNTIFS(K:K, K108, E:E, "T")</f>
         <v>1</v>
       </c>
       <c r="M108" s="6" t="str">
@@ -6928,7 +6908,7 @@
       </c>
       <c r="D109" s="6"/>
       <c r="E109" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F109" s="6" t="str">
         <f>C109 &amp; "/" &amp; D109</f>
@@ -6949,8 +6929,8 @@
         <v>Normal/</v>
       </c>
       <c r="L109" s="6">
-        <f>COUNTIF(K:K, K109)</f>
-        <v>33</v>
+        <f>COUNTIFS(K:K, K109, E:E, "T")</f>
+        <v>18</v>
       </c>
       <c r="M109" s="6" t="str">
         <f>IF(COUNTIF(K:K, K109)&gt;1, "Duplicate", "Unique")</f>
@@ -6969,7 +6949,7 @@
       </c>
       <c r="D110" s="6"/>
       <c r="E110" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F110" s="6" t="str">
         <f>C110 &amp; "/" &amp; D110</f>
@@ -6990,8 +6970,8 @@
         <v>Poison/</v>
       </c>
       <c r="L110" s="6">
-        <f>COUNTIF(K:K, K110)</f>
-        <v>10</v>
+        <f>COUNTIFS(K:K, K110, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M110" s="6" t="str">
         <f>IF(COUNTIF(K:K, K110)&gt;1, "Duplicate", "Unique")</f>
@@ -7010,7 +6990,7 @@
       </c>
       <c r="D111" s="6"/>
       <c r="E111" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F111" s="6" t="str">
         <f>C111 &amp; "/" &amp; D111</f>
@@ -7031,8 +7011,8 @@
         <v>Poison/</v>
       </c>
       <c r="L111" s="6">
-        <f>COUNTIF(K:K, K111)</f>
-        <v>10</v>
+        <f>COUNTIFS(K:K, K111, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M111" s="6" t="str">
         <f>IF(COUNTIF(K:K, K111)&gt;1, "Duplicate", "Unique")</f>
@@ -7053,7 +7033,7 @@
         <v>394</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F112" s="6" t="str">
         <f>C112 &amp; "/" &amp; D112</f>
@@ -7074,8 +7054,8 @@
         <v>Rock/Ground</v>
       </c>
       <c r="L112" s="6">
-        <f>COUNTIF(K:K, K112)</f>
-        <v>5</v>
+        <f>COUNTIFS(K:K, K112, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M112" s="6" t="str">
         <f>IF(COUNTIF(K:K, K112)&gt;1, "Duplicate", "Unique")</f>
@@ -7096,7 +7076,7 @@
         <v>394</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F113" s="6" t="str">
         <f>C113 &amp; "/" &amp; D113</f>
@@ -7117,8 +7097,8 @@
         <v>Rock/Ground</v>
       </c>
       <c r="L113" s="6">
-        <f>COUNTIF(K:K, K113)</f>
-        <v>5</v>
+        <f>COUNTIFS(K:K, K113, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M113" s="6" t="str">
         <f>IF(COUNTIF(K:K, K113)&gt;1, "Duplicate", "Unique")</f>
@@ -7137,7 +7117,7 @@
       </c>
       <c r="D114" s="6"/>
       <c r="E114" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F114" s="6" t="str">
         <f>C114 &amp; "/" &amp; D114</f>
@@ -7158,8 +7138,8 @@
         <v>Normal/</v>
       </c>
       <c r="L114" s="6">
-        <f>COUNTIF(K:K, K114)</f>
-        <v>33</v>
+        <f>COUNTIFS(K:K, K114, E:E, "T")</f>
+        <v>18</v>
       </c>
       <c r="M114" s="6" t="str">
         <f>IF(COUNTIF(K:K, K114)&gt;1, "Duplicate", "Unique")</f>
@@ -7178,7 +7158,7 @@
       </c>
       <c r="D115" s="6"/>
       <c r="E115" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F115" s="6" t="str">
         <f>C115 &amp; "/" &amp; D115</f>
@@ -7193,18 +7173,18 @@
         <v>13</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="K115" s="7" t="str">
         <f>IF(I115="", F115, I115)</f>
         <v>Water/Grass</v>
       </c>
       <c r="L115" s="6">
-        <f>COUNTIF(K:K, K115)</f>
-        <v>5</v>
+        <f>COUNTIFS(K:K, K115, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M115" s="6" t="str">
         <f>IF(COUNTIF(K:K, K115)&gt;1, "Duplicate", "Unique")</f>
@@ -7223,7 +7203,7 @@
       </c>
       <c r="D116" s="6"/>
       <c r="E116" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F116" s="6" t="str">
         <f>C116 &amp; "/" &amp; D116</f>
@@ -7244,8 +7224,8 @@
         <v>Normal/</v>
       </c>
       <c r="L116" s="6">
-        <f>COUNTIF(K:K, K116)</f>
-        <v>33</v>
+        <f>COUNTIFS(K:K, K116, E:E, "T")</f>
+        <v>18</v>
       </c>
       <c r="M116" s="6" t="str">
         <f>IF(COUNTIF(K:K, K116)&gt;1, "Duplicate", "Unique")</f>
@@ -7264,7 +7244,7 @@
       </c>
       <c r="D117" s="6"/>
       <c r="E117" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F117" s="6" t="str">
         <f>C117 &amp; "/" &amp; D117</f>
@@ -7285,8 +7265,8 @@
         <v>Water/</v>
       </c>
       <c r="L117" s="6">
-        <f>COUNTIF(K:K, K117)</f>
-        <v>28</v>
+        <f>COUNTIFS(K:K, K117, E:E, "T")</f>
+        <v>8</v>
       </c>
       <c r="M117" s="6" t="str">
         <f>IF(COUNTIF(K:K, K117)&gt;1, "Duplicate", "Unique")</f>
@@ -7305,7 +7285,7 @@
       </c>
       <c r="D118" s="6"/>
       <c r="E118" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F118" s="6" t="str">
         <f>C118 &amp; "/" &amp; D118</f>
@@ -7326,8 +7306,8 @@
         <v>Water/</v>
       </c>
       <c r="L118" s="6">
-        <f>COUNTIF(K:K, K118)</f>
-        <v>28</v>
+        <f>COUNTIFS(K:K, K118, E:E, "T")</f>
+        <v>8</v>
       </c>
       <c r="M118" s="6" t="str">
         <f>IF(COUNTIF(K:K, K118)&gt;1, "Duplicate", "Unique")</f>
@@ -7346,7 +7326,7 @@
       </c>
       <c r="D119" s="6"/>
       <c r="E119" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F119" s="6" t="str">
         <f>C119 &amp; "/" &amp; D119</f>
@@ -7367,8 +7347,8 @@
         <v>Water/</v>
       </c>
       <c r="L119" s="6">
-        <f>COUNTIF(K:K, K119)</f>
-        <v>28</v>
+        <f>COUNTIFS(K:K, K119, E:E, "T")</f>
+        <v>8</v>
       </c>
       <c r="M119" s="6" t="str">
         <f>IF(COUNTIF(K:K, K119)&gt;1, "Duplicate", "Unique")</f>
@@ -7387,7 +7367,7 @@
       </c>
       <c r="D120" s="6"/>
       <c r="E120" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F120" s="6" t="str">
         <f>C120 &amp; "/" &amp; D120</f>
@@ -7408,8 +7388,8 @@
         <v>Water/</v>
       </c>
       <c r="L120" s="6">
-        <f>COUNTIF(K:K, K120)</f>
-        <v>28</v>
+        <f>COUNTIFS(K:K, K120, E:E, "T")</f>
+        <v>8</v>
       </c>
       <c r="M120" s="6" t="str">
         <f>IF(COUNTIF(K:K, K120)&gt;1, "Duplicate", "Unique")</f>
@@ -7430,7 +7410,7 @@
         <v>396</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F121" s="6" t="str">
         <f>C121 &amp; "/" &amp; D121</f>
@@ -7451,8 +7431,8 @@
         <v>Water/Psychic</v>
       </c>
       <c r="L121" s="6">
-        <f>COUNTIF(K:K, K121)</f>
-        <v>7</v>
+        <f>COUNTIFS(K:K, K121, E:E, "T")</f>
+        <v>5</v>
       </c>
       <c r="M121" s="6" t="str">
         <f>IF(COUNTIF(K:K, K121)&gt;1, "Duplicate", "Unique")</f>
@@ -7473,7 +7453,7 @@
         <v>396</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F122" s="6" t="str">
         <f>C122 &amp; "/" &amp; D122</f>
@@ -7494,8 +7474,8 @@
         <v>Water/Psychic</v>
       </c>
       <c r="L122" s="6">
-        <f>COUNTIF(K:K, K122)</f>
-        <v>7</v>
+        <f>COUNTIFS(K:K, K122, E:E, "T")</f>
+        <v>5</v>
       </c>
       <c r="M122" s="6" t="str">
         <f>IF(COUNTIF(K:K, K122)&gt;1, "Duplicate", "Unique")</f>
@@ -7514,7 +7494,7 @@
       </c>
       <c r="D123" s="6"/>
       <c r="E123" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F123" s="6" t="str">
         <f>C123 &amp; "/" &amp; D123</f>
@@ -7530,15 +7510,15 @@
       </c>
       <c r="I123" s="6"/>
       <c r="J123" s="6" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="K123" s="7" t="str">
         <f>IF(I123="", F123, I123)</f>
         <v>Psychic/</v>
       </c>
       <c r="L123" s="6">
-        <f>COUNTIF(K:K, K123)</f>
-        <v>15</v>
+        <f>COUNTIFS(K:K, K123, E:E, "T")</f>
+        <v>9</v>
       </c>
       <c r="M123" s="6" t="str">
         <f>IF(COUNTIF(K:K, K123)&gt;1, "Duplicate", "Unique")</f>
@@ -7559,7 +7539,7 @@
         <v>389</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F124" s="6" t="str">
         <f>C124 &amp; "/" &amp; D124</f>
@@ -7580,8 +7560,8 @@
         <v>Bug/Flying</v>
       </c>
       <c r="L124" s="6">
-        <f>COUNTIF(K:K, K124)</f>
-        <v>4</v>
+        <f>COUNTIFS(K:K, K124, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M124" s="6" t="str">
         <f>IF(COUNTIF(K:K, K124)&gt;1, "Duplicate", "Unique")</f>
@@ -7602,7 +7582,7 @@
         <v>396</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F125" s="6" t="str">
         <f>C125 &amp; "/" &amp; D125</f>
@@ -7623,8 +7603,8 @@
         <v>Ice/Psychic</v>
       </c>
       <c r="L125" s="6">
-        <f>COUNTIF(K:K, K125)</f>
-        <v>2</v>
+        <f>COUNTIFS(K:K, K125, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M125" s="6" t="str">
         <f>IF(COUNTIF(K:K, K125)&gt;1, "Duplicate", "Unique")</f>
@@ -7643,7 +7623,7 @@
       </c>
       <c r="D126" s="6"/>
       <c r="E126" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F126" s="6" t="str">
         <f>C126 &amp; "/" &amp; D126</f>
@@ -7658,17 +7638,17 @@
         <v>16</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="K126" s="7" t="str">
         <f>IF(I126="", F126, I126)</f>
         <v>Electric/Dark</v>
       </c>
       <c r="L126" s="6">
-        <f>COUNTIF(K:K, K126)</f>
+        <f>COUNTIFS(K:K, K126, E:E, "T")</f>
         <v>1</v>
       </c>
       <c r="M126" s="6" t="str">
@@ -7688,7 +7668,7 @@
       </c>
       <c r="D127" s="6"/>
       <c r="E127" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F127" s="6" t="str">
         <f>C127 &amp; "/" &amp; D127</f>
@@ -7704,15 +7684,15 @@
       </c>
       <c r="I127" s="6"/>
       <c r="J127" s="6" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="K127" s="7" t="str">
         <f>IF(I127="", F127, I127)</f>
         <v>Fire/</v>
       </c>
       <c r="L127" s="6">
-        <f>COUNTIF(K:K, K127)</f>
-        <v>15</v>
+        <f>COUNTIFS(K:K, K127, E:E, "T")</f>
+        <v>5</v>
       </c>
       <c r="M127" s="6" t="str">
         <f>IF(COUNTIF(K:K, K127)&gt;1, "Duplicate", "Unique")</f>
@@ -7731,7 +7711,7 @@
       </c>
       <c r="D128" s="6"/>
       <c r="E128" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F128" s="6" t="str">
         <f>C128 &amp; "/" &amp; D128</f>
@@ -7752,8 +7732,8 @@
         <v>Bug/</v>
       </c>
       <c r="L128" s="6">
-        <f>COUNTIF(K:K, K128)</f>
-        <v>7</v>
+        <f>COUNTIFS(K:K, K128, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M128" s="6" t="str">
         <f>IF(COUNTIF(K:K, K128)&gt;1, "Duplicate", "Unique")</f>
@@ -7772,7 +7752,7 @@
       </c>
       <c r="D129" s="6"/>
       <c r="E129" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F129" s="6" t="str">
         <f>C129 &amp; "/" &amp; D129</f>
@@ -7787,7 +7767,7 @@
         <v>48</v>
       </c>
       <c r="I129" s="6" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="J129" s="6"/>
       <c r="K129" s="7" t="str">
@@ -7795,7 +7775,7 @@
         <v>Normal/Fighting</v>
       </c>
       <c r="L129" s="6">
-        <f>COUNTIF(K:K, K129)</f>
+        <f>COUNTIFS(K:K, K129, E:E, "T")</f>
         <v>1</v>
       </c>
       <c r="M129" s="6" t="str">
@@ -7815,7 +7795,7 @@
       </c>
       <c r="D130" s="6"/>
       <c r="E130" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F130" s="6" t="str">
         <f>C130 &amp; "/" &amp; D130</f>
@@ -7836,8 +7816,8 @@
         <v>Water/</v>
       </c>
       <c r="L130" s="6">
-        <f>COUNTIF(K:K, K130)</f>
-        <v>28</v>
+        <f>COUNTIFS(K:K, K130, E:E, "T")</f>
+        <v>8</v>
       </c>
       <c r="M130" s="6" t="str">
         <f>IF(COUNTIF(K:K, K130)&gt;1, "Duplicate", "Unique")</f>
@@ -7858,7 +7838,7 @@
         <v>389</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F131" s="6" t="str">
         <f>C131 &amp; "/" &amp; D131</f>
@@ -7879,8 +7859,8 @@
         <v>Water/Flying</v>
       </c>
       <c r="L131" s="6">
-        <f>COUNTIF(K:K, K131)</f>
-        <v>4</v>
+        <f>COUNTIFS(K:K, K131, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M131" s="6" t="str">
         <f>IF(COUNTIF(K:K, K131)&gt;1, "Duplicate", "Unique")</f>
@@ -7901,7 +7881,7 @@
         <v>399</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F132" s="6" t="str">
         <f>C132 &amp; "/" &amp; D132</f>
@@ -7922,7 +7902,7 @@
         <v>Water/Ice</v>
       </c>
       <c r="L132" s="6">
-        <f>COUNTIF(K:K, K132)</f>
+        <f>COUNTIFS(K:K, K132, E:E, "T")</f>
         <v>3</v>
       </c>
       <c r="M132" s="6" t="str">
@@ -7942,7 +7922,7 @@
       </c>
       <c r="D133" s="6"/>
       <c r="E133" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F133" s="6" t="str">
         <f>C133 &amp; "/" &amp; D133</f>
@@ -7963,8 +7943,8 @@
         <v>Normal/</v>
       </c>
       <c r="L133" s="6">
-        <f>COUNTIF(K:K, K133)</f>
-        <v>33</v>
+        <f>COUNTIFS(K:K, K133, E:E, "T")</f>
+        <v>18</v>
       </c>
       <c r="M133" s="6" t="str">
         <f>IF(COUNTIF(K:K, K133)&gt;1, "Duplicate", "Unique")</f>
@@ -7983,7 +7963,7 @@
       </c>
       <c r="D134" s="6"/>
       <c r="E134" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F134" s="6" t="str">
         <f>C134 &amp; "/" &amp; D134</f>
@@ -8004,8 +7984,8 @@
         <v>Normal/</v>
       </c>
       <c r="L134" s="6">
-        <f>COUNTIF(K:K, K134)</f>
-        <v>33</v>
+        <f>COUNTIFS(K:K, K134, E:E, "T")</f>
+        <v>18</v>
       </c>
       <c r="M134" s="6" t="str">
         <f>IF(COUNTIF(K:K, K134)&gt;1, "Duplicate", "Unique")</f>
@@ -8024,7 +8004,7 @@
       </c>
       <c r="D135" s="6"/>
       <c r="E135" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F135" s="6" t="str">
         <f>C135 &amp; "/" &amp; D135</f>
@@ -8045,8 +8025,8 @@
         <v>Water/</v>
       </c>
       <c r="L135" s="6">
-        <f>COUNTIF(K:K, K135)</f>
-        <v>28</v>
+        <f>COUNTIFS(K:K, K135, E:E, "T")</f>
+        <v>8</v>
       </c>
       <c r="M135" s="6" t="str">
         <f>IF(COUNTIF(K:K, K135)&gt;1, "Duplicate", "Unique")</f>
@@ -8065,7 +8045,7 @@
       </c>
       <c r="D136" s="6"/>
       <c r="E136" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F136" s="6" t="str">
         <f>C136 &amp; "/" &amp; D136</f>
@@ -8086,8 +8066,8 @@
         <v>Electric/</v>
       </c>
       <c r="L136" s="6">
-        <f>COUNTIF(K:K, K136)</f>
-        <v>13</v>
+        <f>COUNTIFS(K:K, K136, E:E, "T")</f>
+        <v>6</v>
       </c>
       <c r="M136" s="6" t="str">
         <f>IF(COUNTIF(K:K, K136)&gt;1, "Duplicate", "Unique")</f>
@@ -8106,7 +8086,7 @@
       </c>
       <c r="D137" s="6"/>
       <c r="E137" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F137" s="6" t="str">
         <f>C137 &amp; "/" &amp; D137</f>
@@ -8127,8 +8107,8 @@
         <v>Fire/</v>
       </c>
       <c r="L137" s="6">
-        <f>COUNTIF(K:K, K137)</f>
-        <v>15</v>
+        <f>COUNTIFS(K:K, K137, E:E, "T")</f>
+        <v>5</v>
       </c>
       <c r="M137" s="6" t="str">
         <f>IF(COUNTIF(K:K, K137)&gt;1, "Duplicate", "Unique")</f>
@@ -8147,7 +8127,7 @@
       </c>
       <c r="D138" s="6"/>
       <c r="E138" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F138" s="6" t="str">
         <f>C138 &amp; "/" &amp; D138</f>
@@ -8168,8 +8148,8 @@
         <v>Normal/</v>
       </c>
       <c r="L138" s="6">
-        <f>COUNTIF(K:K, K138)</f>
-        <v>33</v>
+        <f>COUNTIFS(K:K, K138, E:E, "T")</f>
+        <v>18</v>
       </c>
       <c r="M138" s="6" t="str">
         <f>IF(COUNTIF(K:K, K138)&gt;1, "Duplicate", "Unique")</f>
@@ -8190,7 +8170,7 @@
         <v>397</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F139" s="6" t="str">
         <f>C139 &amp; "/" &amp; D139</f>
@@ -8211,8 +8191,8 @@
         <v>Water/Rock</v>
       </c>
       <c r="L139" s="6">
-        <f>COUNTIF(K:K, K139)</f>
-        <v>7</v>
+        <f>COUNTIFS(K:K, K139, E:E, "T")</f>
+        <v>5</v>
       </c>
       <c r="M139" s="6" t="str">
         <f>IF(COUNTIF(K:K, K139)&gt;1, "Duplicate", "Unique")</f>
@@ -8233,7 +8213,7 @@
         <v>397</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F140" s="6" t="str">
         <f>C140 &amp; "/" &amp; D140</f>
@@ -8254,8 +8234,8 @@
         <v>Water/Rock</v>
       </c>
       <c r="L140" s="6">
-        <f>COUNTIF(K:K, K140)</f>
-        <v>7</v>
+        <f>COUNTIFS(K:K, K140, E:E, "T")</f>
+        <v>5</v>
       </c>
       <c r="M140" s="6" t="str">
         <f>IF(COUNTIF(K:K, K140)&gt;1, "Duplicate", "Unique")</f>
@@ -8276,7 +8256,7 @@
         <v>397</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F141" s="6" t="str">
         <f>C141 &amp; "/" &amp; D141</f>
@@ -8297,8 +8277,8 @@
         <v>Water/Rock</v>
       </c>
       <c r="L141" s="6">
-        <f>COUNTIF(K:K, K141)</f>
-        <v>7</v>
+        <f>COUNTIFS(K:K, K141, E:E, "T")</f>
+        <v>5</v>
       </c>
       <c r="M141" s="6" t="str">
         <f>IF(COUNTIF(K:K, K141)&gt;1, "Duplicate", "Unique")</f>
@@ -8319,7 +8299,7 @@
         <v>397</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F142" s="6" t="str">
         <f>C142 &amp; "/" &amp; D142</f>
@@ -8340,8 +8320,8 @@
         <v>Water/Rock</v>
       </c>
       <c r="L142" s="6">
-        <f>COUNTIF(K:K, K142)</f>
-        <v>7</v>
+        <f>COUNTIFS(K:K, K142, E:E, "T")</f>
+        <v>5</v>
       </c>
       <c r="M142" s="6" t="str">
         <f>IF(COUNTIF(K:K, K142)&gt;1, "Duplicate", "Unique")</f>
@@ -8362,7 +8342,7 @@
         <v>389</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F143" s="6" t="str">
         <f>C143 &amp; "/" &amp; D143</f>
@@ -8383,7 +8363,7 @@
         <v>Rock/Flying</v>
       </c>
       <c r="L143" s="6">
-        <f>COUNTIF(K:K, K143)</f>
+        <f>COUNTIFS(K:K, K143, E:E, "T")</f>
         <v>1</v>
       </c>
       <c r="M143" s="6" t="str">
@@ -8403,7 +8383,7 @@
       </c>
       <c r="D144" s="6"/>
       <c r="E144" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F144" s="6" t="str">
         <f>C144 &amp; "/" &amp; D144</f>
@@ -8424,8 +8404,8 @@
         <v>Normal/</v>
       </c>
       <c r="L144" s="6">
-        <f>COUNTIF(K:K, K144)</f>
-        <v>33</v>
+        <f>COUNTIFS(K:K, K144, E:E, "T")</f>
+        <v>18</v>
       </c>
       <c r="M144" s="6" t="str">
         <f>IF(COUNTIF(K:K, K144)&gt;1, "Duplicate", "Unique")</f>
@@ -8446,7 +8426,7 @@
         <v>389</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F145" s="6" t="str">
         <f>C145 &amp; "/" &amp; D145</f>
@@ -8467,7 +8447,7 @@
         <v>Ice/Flying</v>
       </c>
       <c r="L145" s="6">
-        <f>COUNTIF(K:K, K145)</f>
+        <f>COUNTIFS(K:K, K145, E:E, "T")</f>
         <v>2</v>
       </c>
       <c r="M145" s="6" t="str">
@@ -8489,7 +8469,7 @@
         <v>389</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F146" s="6" t="str">
         <f>C146 &amp; "/" &amp; D146</f>
@@ -8510,7 +8490,7 @@
         <v>Electric/Flying</v>
       </c>
       <c r="L146" s="6">
-        <f>COUNTIF(K:K, K146)</f>
+        <f>COUNTIFS(K:K, K146, E:E, "T")</f>
         <v>2</v>
       </c>
       <c r="M146" s="6" t="str">
@@ -8532,7 +8512,7 @@
         <v>389</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F147" s="6" t="str">
         <f>C147 &amp; "/" &amp; D147</f>
@@ -8553,7 +8533,7 @@
         <v>Fire/Flying</v>
       </c>
       <c r="L147" s="6">
-        <f>COUNTIF(K:K, K147)</f>
+        <f>COUNTIFS(K:K, K147, E:E, "T")</f>
         <v>2</v>
       </c>
       <c r="M147" s="6" t="str">
@@ -8573,7 +8553,7 @@
       </c>
       <c r="D148" s="6"/>
       <c r="E148" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F148" s="6" t="str">
         <f>C148 &amp; "/" &amp; D148</f>
@@ -8594,8 +8574,8 @@
         <v>Dragon/</v>
       </c>
       <c r="L148" s="6">
-        <f>COUNTIF(K:K, K148)</f>
-        <v>4</v>
+        <f>COUNTIFS(K:K, K148, E:E, "T")</f>
+        <v>0</v>
       </c>
       <c r="M148" s="6" t="str">
         <f>IF(COUNTIF(K:K, K148)&gt;1, "Duplicate", "Unique")</f>
@@ -8614,7 +8594,7 @@
       </c>
       <c r="D149" s="6"/>
       <c r="E149" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F149" s="6" t="str">
         <f>C149 &amp; "/" &amp; D149</f>
@@ -8635,8 +8615,8 @@
         <v>Dragon/</v>
       </c>
       <c r="L149" s="6">
-        <f>COUNTIF(K:K, K149)</f>
-        <v>4</v>
+        <f>COUNTIFS(K:K, K149, E:E, "T")</f>
+        <v>0</v>
       </c>
       <c r="M149" s="6" t="str">
         <f>IF(COUNTIF(K:K, K149)&gt;1, "Duplicate", "Unique")</f>
@@ -8657,7 +8637,7 @@
         <v>389</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F150" s="6" t="str">
         <f>C150 &amp; "/" &amp; D150</f>
@@ -8678,7 +8658,7 @@
         <v>Dragon/Flying</v>
       </c>
       <c r="L150" s="6">
-        <f>COUNTIF(K:K, K150)</f>
+        <f>COUNTIFS(K:K, K150, E:E, "T")</f>
         <v>4</v>
       </c>
       <c r="M150" s="6" t="str">
@@ -8698,7 +8678,7 @@
       </c>
       <c r="D151" s="6"/>
       <c r="E151" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F151" s="6" t="str">
         <f>C151 &amp; "/" &amp; D151</f>
@@ -8719,8 +8699,8 @@
         <v>Psychic/</v>
       </c>
       <c r="L151" s="6">
-        <f>COUNTIF(K:K, K151)</f>
-        <v>15</v>
+        <f>COUNTIFS(K:K, K151, E:E, "T")</f>
+        <v>9</v>
       </c>
       <c r="M151" s="6" t="str">
         <f>IF(COUNTIF(K:K, K151)&gt;1, "Duplicate", "Unique")</f>
@@ -8739,7 +8719,7 @@
       </c>
       <c r="D152" s="6"/>
       <c r="E152" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F152" s="6" t="str">
         <f>C152 &amp; "/" &amp; D152</f>
@@ -8760,8 +8740,8 @@
         <v>Psychic/</v>
       </c>
       <c r="L152" s="6">
-        <f>COUNTIF(K:K, K152)</f>
-        <v>15</v>
+        <f>COUNTIFS(K:K, K152, E:E, "T")</f>
+        <v>9</v>
       </c>
       <c r="M152" s="6" t="str">
         <f>IF(COUNTIF(K:K, K152)&gt;1, "Duplicate", "Unique")</f>
@@ -8780,7 +8760,7 @@
       </c>
       <c r="D153" s="6"/>
       <c r="E153" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F153" s="6" t="str">
         <f>C153 &amp; "/" &amp; D153</f>
@@ -8801,8 +8781,8 @@
         <v>Grass/</v>
       </c>
       <c r="L153" s="6">
-        <f>COUNTIF(K:K, K153)</f>
-        <v>9</v>
+        <f>COUNTIFS(K:K, K153, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M153" s="6" t="str">
         <f>IF(COUNTIF(K:K, K153)&gt;1, "Duplicate", "Unique")</f>
@@ -8821,7 +8801,7 @@
       </c>
       <c r="D154" s="6"/>
       <c r="E154" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F154" s="6" t="str">
         <f>C154 &amp; "/" &amp; D154</f>
@@ -8842,8 +8822,8 @@
         <v>Grass/</v>
       </c>
       <c r="L154" s="6">
-        <f>COUNTIF(K:K, K154)</f>
-        <v>9</v>
+        <f>COUNTIFS(K:K, K154, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M154" s="6" t="str">
         <f>IF(COUNTIF(K:K, K154)&gt;1, "Duplicate", "Unique")</f>
@@ -8862,7 +8842,7 @@
       </c>
       <c r="D155" s="6"/>
       <c r="E155" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F155" s="6" t="str">
         <f>C155 &amp; "/" &amp; D155</f>
@@ -8878,15 +8858,15 @@
       </c>
       <c r="I155" s="6"/>
       <c r="J155" s="6" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K155" s="7" t="str">
         <f>IF(I155="", F155, I155)</f>
         <v>Grass/</v>
       </c>
       <c r="L155" s="6">
-        <f>COUNTIF(K:K, K155)</f>
-        <v>9</v>
+        <f>COUNTIFS(K:K, K155, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M155" s="6" t="str">
         <f>IF(COUNTIF(K:K, K155)&gt;1, "Duplicate", "Unique")</f>
@@ -8905,7 +8885,7 @@
       </c>
       <c r="D156" s="6"/>
       <c r="E156" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F156" s="6" t="str">
         <f>C156 &amp; "/" &amp; D156</f>
@@ -8926,8 +8906,8 @@
         <v>Fire/</v>
       </c>
       <c r="L156" s="6">
-        <f>COUNTIF(K:K, K156)</f>
-        <v>15</v>
+        <f>COUNTIFS(K:K, K156, E:E, "T")</f>
+        <v>5</v>
       </c>
       <c r="M156" s="6" t="str">
         <f>IF(COUNTIF(K:K, K156)&gt;1, "Duplicate", "Unique")</f>
@@ -8946,7 +8926,7 @@
       </c>
       <c r="D157" s="6"/>
       <c r="E157" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F157" s="6" t="str">
         <f>C157 &amp; "/" &amp; D157</f>
@@ -8967,8 +8947,8 @@
         <v>Fire/</v>
       </c>
       <c r="L157" s="6">
-        <f>COUNTIF(K:K, K157)</f>
-        <v>15</v>
+        <f>COUNTIFS(K:K, K157, E:E, "T")</f>
+        <v>5</v>
       </c>
       <c r="M157" s="6" t="str">
         <f>IF(COUNTIF(K:K, K157)&gt;1, "Duplicate", "Unique")</f>
@@ -8987,7 +8967,7 @@
       </c>
       <c r="D158" s="6"/>
       <c r="E158" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F158" s="6" t="str">
         <f>C158 &amp; "/" &amp; D158</f>
@@ -9002,7 +8982,7 @@
         <v>18</v>
       </c>
       <c r="I158" s="6" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="J158" s="6"/>
       <c r="K158" s="7" t="str">
@@ -9010,7 +8990,7 @@
         <v>Fire/Ghost</v>
       </c>
       <c r="L158" s="6">
-        <f>COUNTIF(K:K, K158)</f>
+        <f>COUNTIFS(K:K, K158, E:E, "T")</f>
         <v>2</v>
       </c>
       <c r="M158" s="6" t="str">
@@ -9030,7 +9010,7 @@
       </c>
       <c r="D159" s="6"/>
       <c r="E159" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F159" s="6" t="str">
         <f>C159 &amp; "/" &amp; D159</f>
@@ -9051,8 +9031,8 @@
         <v>Water/</v>
       </c>
       <c r="L159" s="6">
-        <f>COUNTIF(K:K, K159)</f>
-        <v>28</v>
+        <f>COUNTIFS(K:K, K159, E:E, "T")</f>
+        <v>8</v>
       </c>
       <c r="M159" s="6" t="str">
         <f>IF(COUNTIF(K:K, K159)&gt;1, "Duplicate", "Unique")</f>
@@ -9071,7 +9051,7 @@
       </c>
       <c r="D160" s="6"/>
       <c r="E160" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F160" s="6" t="str">
         <f>C160 &amp; "/" &amp; D160</f>
@@ -9092,8 +9072,8 @@
         <v>Water/</v>
       </c>
       <c r="L160" s="6">
-        <f>COUNTIF(K:K, K160)</f>
-        <v>28</v>
+        <f>COUNTIFS(K:K, K160, E:E, "T")</f>
+        <v>8</v>
       </c>
       <c r="M160" s="6" t="str">
         <f>IF(COUNTIF(K:K, K160)&gt;1, "Duplicate", "Unique")</f>
@@ -9112,7 +9092,7 @@
       </c>
       <c r="D161" s="6"/>
       <c r="E161" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F161" s="6" t="str">
         <f>C161 &amp; "/" &amp; D161</f>
@@ -9128,15 +9108,15 @@
       </c>
       <c r="I161" s="6"/>
       <c r="J161" s="6" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K161" s="7" t="str">
         <f>IF(I161="", F161, I161)</f>
         <v>Water/</v>
       </c>
       <c r="L161" s="6">
-        <f>COUNTIF(K:K, K161)</f>
-        <v>28</v>
+        <f>COUNTIFS(K:K, K161, E:E, "T")</f>
+        <v>8</v>
       </c>
       <c r="M161" s="6" t="str">
         <f>IF(COUNTIF(K:K, K161)&gt;1, "Duplicate", "Unique")</f>
@@ -9155,7 +9135,7 @@
       </c>
       <c r="D162" s="6"/>
       <c r="E162" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F162" s="6" t="str">
         <f>C162 &amp; "/" &amp; D162</f>
@@ -9176,8 +9156,8 @@
         <v>Normal/</v>
       </c>
       <c r="L162" s="6">
-        <f>COUNTIF(K:K, K162)</f>
-        <v>33</v>
+        <f>COUNTIFS(K:K, K162, E:E, "T")</f>
+        <v>18</v>
       </c>
       <c r="M162" s="6" t="str">
         <f>IF(COUNTIF(K:K, K162)&gt;1, "Duplicate", "Unique")</f>
@@ -9196,7 +9176,7 @@
       </c>
       <c r="D163" s="6"/>
       <c r="E163" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F163" s="6" t="str">
         <f>C163 &amp; "/" &amp; D163</f>
@@ -9217,8 +9197,8 @@
         <v>Normal/</v>
       </c>
       <c r="L163" s="6">
-        <f>COUNTIF(K:K, K163)</f>
-        <v>33</v>
+        <f>COUNTIFS(K:K, K163, E:E, "T")</f>
+        <v>18</v>
       </c>
       <c r="M163" s="6" t="str">
         <f>IF(COUNTIF(K:K, K163)&gt;1, "Duplicate", "Unique")</f>
@@ -9239,7 +9219,7 @@
         <v>389</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F164" s="6" t="str">
         <f>C164 &amp; "/" &amp; D164</f>
@@ -9260,8 +9240,8 @@
         <v>Normal/Flying</v>
       </c>
       <c r="L164" s="6">
-        <f>COUNTIF(K:K, K164)</f>
-        <v>10</v>
+        <f>COUNTIFS(K:K, K164, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M164" s="6" t="str">
         <f>IF(COUNTIF(K:K, K164)&gt;1, "Duplicate", "Unique")</f>
@@ -9282,7 +9262,7 @@
         <v>389</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F165" s="6" t="str">
         <f>C165 &amp; "/" &amp; D165</f>
@@ -9297,7 +9277,7 @@
         <v>13</v>
       </c>
       <c r="I165" s="6" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="J165" s="6"/>
       <c r="K165" s="7" t="str">
@@ -9305,8 +9285,8 @@
         <v>Psychic/Flying</v>
       </c>
       <c r="L165" s="6">
-        <f>COUNTIF(K:K, K165)</f>
-        <v>4</v>
+        <f>COUNTIFS(K:K, K165, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M165" s="6" t="str">
         <f>IF(COUNTIF(K:K, K165)&gt;1, "Duplicate", "Unique")</f>
@@ -9327,7 +9307,7 @@
         <v>389</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F166" s="6" t="str">
         <f>C166 &amp; "/" &amp; D166</f>
@@ -9348,8 +9328,8 @@
         <v>Bug/Flying</v>
       </c>
       <c r="L166" s="6">
-        <f>COUNTIF(K:K, K166)</f>
-        <v>4</v>
+        <f>COUNTIFS(K:K, K166, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M166" s="6" t="str">
         <f>IF(COUNTIF(K:K, K166)&gt;1, "Duplicate", "Unique")</f>
@@ -9370,7 +9350,7 @@
         <v>389</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F167" s="6" t="str">
         <f>C167 &amp; "/" &amp; D167</f>
@@ -9385,7 +9365,7 @@
         <v>7</v>
       </c>
       <c r="I167" s="6" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="J167" s="6"/>
       <c r="K167" s="7" t="str">
@@ -9393,7 +9373,7 @@
         <v>Bug/Fighting</v>
       </c>
       <c r="L167" s="6">
-        <f>COUNTIF(K:K, K167)</f>
+        <f>COUNTIFS(K:K, K167, E:E, "T")</f>
         <v>2</v>
       </c>
       <c r="M167" s="6" t="str">
@@ -9415,7 +9395,7 @@
         <v>387</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F168" s="6" t="str">
         <f>C168 &amp; "/" &amp; D168</f>
@@ -9436,8 +9416,8 @@
         <v>Bug/Poison</v>
       </c>
       <c r="L168" s="6">
-        <f>COUNTIF(K:K, K168)</f>
-        <v>6</v>
+        <f>COUNTIFS(K:K, K168, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M168" s="6" t="str">
         <f>IF(COUNTIF(K:K, K168)&gt;1, "Duplicate", "Unique")</f>
@@ -9458,7 +9438,7 @@
         <v>387</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F169" s="6" t="str">
         <f>C169 &amp; "/" &amp; D169</f>
@@ -9473,7 +9453,7 @@
         <v>8</v>
       </c>
       <c r="I169" s="6" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="J169" s="6"/>
       <c r="K169" s="7" t="str">
@@ -9481,7 +9461,7 @@
         <v>Bug/Dark</v>
       </c>
       <c r="L169" s="6">
-        <f>COUNTIF(K:K, K169)</f>
+        <f>COUNTIFS(K:K, K169, E:E, "T")</f>
         <v>2</v>
       </c>
       <c r="M169" s="6" t="str">
@@ -9503,7 +9483,7 @@
         <v>389</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F170" s="6" t="str">
         <f>C170 &amp; "/" &amp; D170</f>
@@ -9524,8 +9504,8 @@
         <v>Poison/Flying</v>
       </c>
       <c r="L170" s="6">
-        <f>COUNTIF(K:K, K170)</f>
-        <v>3</v>
+        <f>COUNTIFS(K:K, K170, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M170" s="6" t="str">
         <f>IF(COUNTIF(K:K, K170)&gt;1, "Duplicate", "Unique")</f>
@@ -9546,7 +9526,7 @@
         <v>402</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F171" s="6" t="str">
         <f>C171 &amp; "/" &amp; D171</f>
@@ -9567,8 +9547,8 @@
         <v>Water/Electic</v>
       </c>
       <c r="L171" s="6">
-        <f>COUNTIF(K:K, K171)</f>
-        <v>2</v>
+        <f>COUNTIFS(K:K, K171, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M171" s="6" t="str">
         <f>IF(COUNTIF(K:K, K171)&gt;1, "Duplicate", "Unique")</f>
@@ -9589,7 +9569,7 @@
         <v>402</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F172" s="6" t="str">
         <f>C172 &amp; "/" &amp; D172</f>
@@ -9610,8 +9590,8 @@
         <v>Water/Electic</v>
       </c>
       <c r="L172" s="6">
-        <f>COUNTIF(K:K, K172)</f>
-        <v>2</v>
+        <f>COUNTIFS(K:K, K172, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M172" s="6" t="str">
         <f>IF(COUNTIF(K:K, K172)&gt;1, "Duplicate", "Unique")</f>
@@ -9630,7 +9610,7 @@
       </c>
       <c r="D173" s="6"/>
       <c r="E173" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F173" s="6" t="str">
         <f>C173 &amp; "/" &amp; D173</f>
@@ -9651,8 +9631,8 @@
         <v>Electric/</v>
       </c>
       <c r="L173" s="6">
-        <f>COUNTIF(K:K, K173)</f>
-        <v>13</v>
+        <f>COUNTIFS(K:K, K173, E:E, "T")</f>
+        <v>6</v>
       </c>
       <c r="M173" s="6" t="str">
         <f>IF(COUNTIF(K:K, K173)&gt;1, "Duplicate", "Unique")</f>
@@ -9671,7 +9651,7 @@
       </c>
       <c r="D174" s="6"/>
       <c r="E174" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F174" s="6" t="str">
         <f>C174 &amp; "/" &amp; D174</f>
@@ -9692,8 +9672,8 @@
         <v>Normal/</v>
       </c>
       <c r="L174" s="6">
-        <f>COUNTIF(K:K, K174)</f>
-        <v>33</v>
+        <f>COUNTIFS(K:K, K174, E:E, "T")</f>
+        <v>18</v>
       </c>
       <c r="M174" s="6" t="str">
         <f>IF(COUNTIF(K:K, K174)&gt;1, "Duplicate", "Unique")</f>
@@ -9712,7 +9692,7 @@
       </c>
       <c r="D175" s="6"/>
       <c r="E175" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F175" s="6" t="str">
         <f>C175 &amp; "/" &amp; D175</f>
@@ -9733,8 +9713,8 @@
         <v>Normal/</v>
       </c>
       <c r="L175" s="6">
-        <f>COUNTIF(K:K, K175)</f>
-        <v>33</v>
+        <f>COUNTIFS(K:K, K175, E:E, "T")</f>
+        <v>18</v>
       </c>
       <c r="M175" s="6" t="str">
         <f>IF(COUNTIF(K:K, K175)&gt;1, "Duplicate", "Unique")</f>
@@ -9753,7 +9733,7 @@
       </c>
       <c r="D176" s="6"/>
       <c r="E176" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F176" s="6" t="str">
         <f>C176 &amp; "/" &amp; D176</f>
@@ -9774,8 +9754,8 @@
         <v>Normal/</v>
       </c>
       <c r="L176" s="6">
-        <f>COUNTIF(K:K, K176)</f>
-        <v>33</v>
+        <f>COUNTIFS(K:K, K176, E:E, "T")</f>
+        <v>18</v>
       </c>
       <c r="M176" s="6" t="str">
         <f>IF(COUNTIF(K:K, K176)&gt;1, "Duplicate", "Unique")</f>
@@ -9794,7 +9774,7 @@
       </c>
       <c r="D177" s="6"/>
       <c r="E177" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F177" s="6" t="str">
         <f>C177 &amp; "/" &amp; D177</f>
@@ -9809,18 +9789,18 @@
         <v>48</v>
       </c>
       <c r="I177" s="6" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="J177" s="6" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="K177" s="7" t="str">
         <f>IF(I177="", F177, I177)</f>
         <v>Normal/Flying</v>
       </c>
       <c r="L177" s="6">
-        <f>COUNTIF(K:K, K177)</f>
-        <v>10</v>
+        <f>COUNTIFS(K:K, K177, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M177" s="6" t="str">
         <f>IF(COUNTIF(K:K, K177)&gt;1, "Duplicate", "Unique")</f>
@@ -9841,7 +9821,7 @@
         <v>389</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F178" s="6" t="str">
         <f>C178 &amp; "/" &amp; D178</f>
@@ -9862,8 +9842,8 @@
         <v>Psychic/Flying</v>
       </c>
       <c r="L178" s="6">
-        <f>COUNTIF(K:K, K178)</f>
-        <v>4</v>
+        <f>COUNTIFS(K:K, K178, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M178" s="6" t="str">
         <f>IF(COUNTIF(K:K, K178)&gt;1, "Duplicate", "Unique")</f>
@@ -9884,7 +9864,7 @@
         <v>389</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F179" s="6" t="str">
         <f>C179 &amp; "/" &amp; D179</f>
@@ -9905,8 +9885,8 @@
         <v>Psychic/Flying</v>
       </c>
       <c r="L179" s="6">
-        <f>COUNTIF(K:K, K179)</f>
-        <v>4</v>
+        <f>COUNTIFS(K:K, K179, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M179" s="6" t="str">
         <f>IF(COUNTIF(K:K, K179)&gt;1, "Duplicate", "Unique")</f>
@@ -9925,7 +9905,7 @@
       </c>
       <c r="D180" s="6"/>
       <c r="E180" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F180" s="6" t="str">
         <f>C180 &amp; "/" &amp; D180</f>
@@ -9946,8 +9926,8 @@
         <v>Electric/</v>
       </c>
       <c r="L180" s="6">
-        <f>COUNTIF(K:K, K180)</f>
-        <v>13</v>
+        <f>COUNTIFS(K:K, K180, E:E, "T")</f>
+        <v>6</v>
       </c>
       <c r="M180" s="6" t="str">
         <f>IF(COUNTIF(K:K, K180)&gt;1, "Duplicate", "Unique")</f>
@@ -9966,7 +9946,7 @@
       </c>
       <c r="D181" s="6"/>
       <c r="E181" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F181" s="6" t="str">
         <f>C181 &amp; "/" &amp; D181</f>
@@ -9987,8 +9967,8 @@
         <v>Electric/</v>
       </c>
       <c r="L181" s="6">
-        <f>COUNTIF(K:K, K181)</f>
-        <v>13</v>
+        <f>COUNTIFS(K:K, K181, E:E, "T")</f>
+        <v>6</v>
       </c>
       <c r="M181" s="6" t="str">
         <f>IF(COUNTIF(K:K, K181)&gt;1, "Duplicate", "Unique")</f>
@@ -10007,7 +9987,7 @@
       </c>
       <c r="D182" s="6"/>
       <c r="E182" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F182" s="6" t="str">
         <f>C182 &amp; "/" &amp; D182</f>
@@ -10022,7 +10002,7 @@
         <v>16</v>
       </c>
       <c r="I182" s="6" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="J182" s="6"/>
       <c r="K182" s="7" t="str">
@@ -10030,7 +10010,7 @@
         <v>Electric/Dragon</v>
       </c>
       <c r="L182" s="6">
-        <f>COUNTIF(K:K, K182)</f>
+        <f>COUNTIFS(K:K, K182, E:E, "T")</f>
         <v>1</v>
       </c>
       <c r="M182" s="6" t="str">
@@ -10050,7 +10030,7 @@
       </c>
       <c r="D183" s="6"/>
       <c r="E183" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F183" s="6" t="str">
         <f>C183 &amp; "/" &amp; D183</f>
@@ -10065,7 +10045,7 @@
         <v>13</v>
       </c>
       <c r="I183" s="6" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="J183" s="6"/>
       <c r="K183" s="7" t="str">
@@ -10073,7 +10053,7 @@
         <v>Fire/Grass</v>
       </c>
       <c r="L183" s="6">
-        <f>COUNTIF(K:K, K183)</f>
+        <f>COUNTIFS(K:K, K183, E:E, "T")</f>
         <v>2</v>
       </c>
       <c r="M183" s="6" t="str">
@@ -10093,7 +10073,7 @@
       </c>
       <c r="D184" s="6"/>
       <c r="E184" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F184" s="6" t="str">
         <f>C184 &amp; "/" &amp; D184</f>
@@ -10114,8 +10094,8 @@
         <v>Water/</v>
       </c>
       <c r="L184" s="6">
-        <f>COUNTIF(K:K, K184)</f>
-        <v>28</v>
+        <f>COUNTIFS(K:K, K184, E:E, "T")</f>
+        <v>8</v>
       </c>
       <c r="M184" s="6" t="str">
         <f>IF(COUNTIF(K:K, K184)&gt;1, "Duplicate", "Unique")</f>
@@ -10134,7 +10114,7 @@
       </c>
       <c r="D185" s="6"/>
       <c r="E185" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F185" s="6" t="str">
         <f>C185 &amp; "/" &amp; D185</f>
@@ -10155,8 +10135,8 @@
         <v>Water/</v>
       </c>
       <c r="L185" s="6">
-        <f>COUNTIF(K:K, K185)</f>
-        <v>28</v>
+        <f>COUNTIFS(K:K, K185, E:E, "T")</f>
+        <v>8</v>
       </c>
       <c r="M185" s="6" t="str">
         <f>IF(COUNTIF(K:K, K185)&gt;1, "Duplicate", "Unique")</f>
@@ -10175,7 +10155,7 @@
       </c>
       <c r="D186" s="6"/>
       <c r="E186" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F186" s="6" t="str">
         <f>C186 &amp; "/" &amp; D186</f>
@@ -10196,7 +10176,7 @@
         <v>Rock/</v>
       </c>
       <c r="L186" s="6">
-        <f>COUNTIF(K:K, K186)</f>
+        <f>COUNTIFS(K:K, K186, E:E, "T")</f>
         <v>3</v>
       </c>
       <c r="M186" s="6" t="str">
@@ -10216,7 +10196,7 @@
       </c>
       <c r="D187" s="6"/>
       <c r="E187" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F187" s="6" t="str">
         <f>C187 &amp; "/" &amp; D187</f>
@@ -10231,7 +10211,7 @@
         <v>36</v>
       </c>
       <c r="I187" s="6" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="J187" s="6"/>
       <c r="K187" s="7" t="str">
@@ -10239,8 +10219,8 @@
         <v>Water/Grass</v>
       </c>
       <c r="L187" s="6">
-        <f>COUNTIF(K:K, K187)</f>
-        <v>5</v>
+        <f>COUNTIFS(K:K, K187, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M187" s="6" t="str">
         <f>IF(COUNTIF(K:K, K187)&gt;1, "Duplicate", "Unique")</f>
@@ -10261,7 +10241,7 @@
         <v>389</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F188" s="6" t="str">
         <f>C188 &amp; "/" &amp; D188</f>
@@ -10282,8 +10262,8 @@
         <v>Grass/Flying</v>
       </c>
       <c r="L188" s="6">
-        <f>COUNTIF(K:K, K188)</f>
-        <v>4</v>
+        <f>COUNTIFS(K:K, K188, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M188" s="6" t="str">
         <f>IF(COUNTIF(K:K, K188)&gt;1, "Duplicate", "Unique")</f>
@@ -10304,7 +10284,7 @@
         <v>389</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F189" s="6" t="str">
         <f>C189 &amp; "/" &amp; D189</f>
@@ -10325,8 +10305,8 @@
         <v>Grass/Flying</v>
       </c>
       <c r="L189" s="6">
-        <f>COUNTIF(K:K, K189)</f>
-        <v>4</v>
+        <f>COUNTIFS(K:K, K189, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M189" s="6" t="str">
         <f>IF(COUNTIF(K:K, K189)&gt;1, "Duplicate", "Unique")</f>
@@ -10347,7 +10327,7 @@
         <v>389</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F190" s="6" t="str">
         <f>C190 &amp; "/" &amp; D190</f>
@@ -10368,8 +10348,8 @@
         <v>Grass/Flying</v>
       </c>
       <c r="L190" s="6">
-        <f>COUNTIF(K:K, K190)</f>
-        <v>4</v>
+        <f>COUNTIFS(K:K, K190, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M190" s="6" t="str">
         <f>IF(COUNTIF(K:K, K190)&gt;1, "Duplicate", "Unique")</f>
@@ -10388,7 +10368,7 @@
       </c>
       <c r="D191" s="6"/>
       <c r="E191" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F191" s="6" t="str">
         <f>C191 &amp; "/" &amp; D191</f>
@@ -10404,15 +10384,15 @@
       </c>
       <c r="I191" s="6"/>
       <c r="J191" s="6" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="K191" s="7" t="str">
         <f>IF(I191="", F191, I191)</f>
         <v>Normal/</v>
       </c>
       <c r="L191" s="6">
-        <f>COUNTIF(K:K, K191)</f>
-        <v>33</v>
+        <f>COUNTIFS(K:K, K191, E:E, "T")</f>
+        <v>18</v>
       </c>
       <c r="M191" s="6" t="str">
         <f>IF(COUNTIF(K:K, K191)&gt;1, "Duplicate", "Unique")</f>
@@ -10431,7 +10411,7 @@
       </c>
       <c r="D192" s="6"/>
       <c r="E192" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F192" s="6" t="str">
         <f>C192 &amp; "/" &amp; D192</f>
@@ -10452,8 +10432,8 @@
         <v>Grass/</v>
       </c>
       <c r="L192" s="6">
-        <f>COUNTIF(K:K, K192)</f>
-        <v>9</v>
+        <f>COUNTIFS(K:K, K192, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M192" s="6" t="str">
         <f>IF(COUNTIF(K:K, K192)&gt;1, "Duplicate", "Unique")</f>
@@ -10472,7 +10452,7 @@
       </c>
       <c r="D193" s="6"/>
       <c r="E193" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F193" s="6" t="str">
         <f>C193 &amp; "/" &amp; D193</f>
@@ -10487,7 +10467,7 @@
         <v>13</v>
       </c>
       <c r="I193" s="6" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="J193" s="6"/>
       <c r="K193" s="7" t="str">
@@ -10495,7 +10475,7 @@
         <v>Fire/Grass</v>
       </c>
       <c r="L193" s="6">
-        <f>COUNTIF(K:K, K193)</f>
+        <f>COUNTIFS(K:K, K193, E:E, "T")</f>
         <v>2</v>
       </c>
       <c r="M193" s="6" t="str">
@@ -10517,7 +10497,7 @@
         <v>389</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F194" s="6" t="str">
         <f>C194 &amp; "/" &amp; D194</f>
@@ -10538,8 +10518,8 @@
         <v>Bug/Flying</v>
       </c>
       <c r="L194" s="6">
-        <f>COUNTIF(K:K, K194)</f>
-        <v>4</v>
+        <f>COUNTIFS(K:K, K194, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M194" s="6" t="str">
         <f>IF(COUNTIF(K:K, K194)&gt;1, "Duplicate", "Unique")</f>
@@ -10560,7 +10540,7 @@
         <v>394</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F195" s="6" t="str">
         <f>C195 &amp; "/" &amp; D195</f>
@@ -10581,8 +10561,8 @@
         <v>Water/Ground</v>
       </c>
       <c r="L195" s="6">
-        <f>COUNTIF(K:K, K195)</f>
-        <v>7</v>
+        <f>COUNTIFS(K:K, K195, E:E, "T")</f>
+        <v>4</v>
       </c>
       <c r="M195" s="6" t="str">
         <f>IF(COUNTIF(K:K, K195)&gt;1, "Duplicate", "Unique")</f>
@@ -10603,7 +10583,7 @@
         <v>394</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F196" s="6" t="str">
         <f>C196 &amp; "/" &amp; D196</f>
@@ -10624,8 +10604,8 @@
         <v>Water/Ground</v>
       </c>
       <c r="L196" s="6">
-        <f>COUNTIF(K:K, K196)</f>
-        <v>7</v>
+        <f>COUNTIFS(K:K, K196, E:E, "T")</f>
+        <v>4</v>
       </c>
       <c r="M196" s="6" t="str">
         <f>IF(COUNTIF(K:K, K196)&gt;1, "Duplicate", "Unique")</f>
@@ -10644,7 +10624,7 @@
       </c>
       <c r="D197" s="6"/>
       <c r="E197" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F197" s="6" t="str">
         <f>C197 &amp; "/" &amp; D197</f>
@@ -10665,8 +10645,8 @@
         <v>Psychic/</v>
       </c>
       <c r="L197" s="6">
-        <f>COUNTIF(K:K, K197)</f>
-        <v>15</v>
+        <f>COUNTIFS(K:K, K197, E:E, "T")</f>
+        <v>9</v>
       </c>
       <c r="M197" s="6" t="str">
         <f>IF(COUNTIF(K:K, K197)&gt;1, "Duplicate", "Unique")</f>
@@ -10685,7 +10665,7 @@
       </c>
       <c r="D198" s="6"/>
       <c r="E198" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F198" s="6" t="str">
         <f>C198 &amp; "/" &amp; D198</f>
@@ -10706,8 +10686,8 @@
         <v>Dark/</v>
       </c>
       <c r="L198" s="6">
-        <f>COUNTIF(K:K, K198)</f>
-        <v>4</v>
+        <f>COUNTIFS(K:K, K198, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M198" s="6" t="str">
         <f>IF(COUNTIF(K:K, K198)&gt;1, "Duplicate", "Unique")</f>
@@ -10728,7 +10708,7 @@
         <v>389</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F199" s="6" t="str">
         <f>C199 &amp; "/" &amp; D199</f>
@@ -10749,7 +10729,7 @@
         <v>Dark/Flying</v>
       </c>
       <c r="L199" s="6">
-        <f>COUNTIF(K:K, K199)</f>
+        <f>COUNTIFS(K:K, K199, E:E, "T")</f>
         <v>1</v>
       </c>
       <c r="M199" s="6" t="str">
@@ -10771,7 +10751,7 @@
         <v>396</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F200" s="6" t="str">
         <f>C200 &amp; "/" &amp; D200</f>
@@ -10792,8 +10772,8 @@
         <v>Water/Psychic</v>
       </c>
       <c r="L200" s="6">
-        <f>COUNTIF(K:K, K200)</f>
-        <v>7</v>
+        <f>COUNTIFS(K:K, K200, E:E, "T")</f>
+        <v>5</v>
       </c>
       <c r="M200" s="6" t="str">
         <f>IF(COUNTIF(K:K, K200)&gt;1, "Duplicate", "Unique")</f>
@@ -10812,7 +10792,7 @@
       </c>
       <c r="D201" s="6"/>
       <c r="E201" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F201" s="6" t="str">
         <f>C201 &amp; "/" &amp; D201</f>
@@ -10833,8 +10813,8 @@
         <v>Ghost/</v>
       </c>
       <c r="L201" s="6">
-        <f>COUNTIF(K:K, K201)</f>
-        <v>5</v>
+        <f>COUNTIFS(K:K, K201, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M201" s="6" t="str">
         <f>IF(COUNTIF(K:K, K201)&gt;1, "Duplicate", "Unique")</f>
@@ -10853,7 +10833,7 @@
       </c>
       <c r="D202" s="6"/>
       <c r="E202" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F202" s="6" t="str">
         <f>C202 &amp; "/" &amp; D202</f>
@@ -10869,15 +10849,15 @@
       </c>
       <c r="I202" s="6"/>
       <c r="J202" s="6" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="K202" s="7" t="str">
         <f>IF(I202="", F202, I202)</f>
         <v>Psychic/</v>
       </c>
       <c r="L202" s="6">
-        <f>COUNTIF(K:K, K202)</f>
-        <v>15</v>
+        <f>COUNTIFS(K:K, K202, E:E, "T")</f>
+        <v>9</v>
       </c>
       <c r="M202" s="6" t="str">
         <f>IF(COUNTIF(K:K, K202)&gt;1, "Duplicate", "Unique")</f>
@@ -10896,7 +10876,7 @@
       </c>
       <c r="D203" s="6"/>
       <c r="E203" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F203" s="6" t="str">
         <f>C203 &amp; "/" &amp; D203</f>
@@ -10917,8 +10897,8 @@
         <v>Psychic/</v>
       </c>
       <c r="L203" s="6">
-        <f>COUNTIF(K:K, K203)</f>
-        <v>15</v>
+        <f>COUNTIFS(K:K, K203, E:E, "T")</f>
+        <v>9</v>
       </c>
       <c r="M203" s="6" t="str">
         <f>IF(COUNTIF(K:K, K203)&gt;1, "Duplicate", "Unique")</f>
@@ -10939,7 +10919,7 @@
         <v>396</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F204" s="6" t="str">
         <f>C204 &amp; "/" &amp; D204</f>
@@ -10960,7 +10940,7 @@
         <v>Normal/Psychic</v>
       </c>
       <c r="L204" s="6">
-        <f>COUNTIF(K:K, K204)</f>
+        <f>COUNTIFS(K:K, K204, E:E, "T")</f>
         <v>1</v>
       </c>
       <c r="M204" s="6" t="str">
@@ -10980,7 +10960,7 @@
       </c>
       <c r="D205" s="6"/>
       <c r="E205" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F205" s="6" t="str">
         <f>C205 &amp; "/" &amp; D205</f>
@@ -11001,8 +10981,8 @@
         <v>Bug/</v>
       </c>
       <c r="L205" s="6">
-        <f>COUNTIF(K:K, K205)</f>
-        <v>7</v>
+        <f>COUNTIFS(K:K, K205, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M205" s="6" t="str">
         <f>IF(COUNTIF(K:K, K205)&gt;1, "Duplicate", "Unique")</f>
@@ -11023,7 +11003,7 @@
         <v>398</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F206" s="6" t="str">
         <f>C206 &amp; "/" &amp; D206</f>
@@ -11044,7 +11024,7 @@
         <v>Bug/Steel</v>
       </c>
       <c r="L206" s="6">
-        <f>COUNTIF(K:K, K206)</f>
+        <f>COUNTIFS(K:K, K206, E:E, "T")</f>
         <v>1</v>
       </c>
       <c r="M206" s="6" t="str">
@@ -11064,7 +11044,7 @@
       </c>
       <c r="D207" s="6"/>
       <c r="E207" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F207" s="6" t="str">
         <f>C207 &amp; "/" &amp; D207</f>
@@ -11085,8 +11065,8 @@
         <v>Normal/</v>
       </c>
       <c r="L207" s="6">
-        <f>COUNTIF(K:K, K207)</f>
-        <v>33</v>
+        <f>COUNTIFS(K:K, K207, E:E, "T")</f>
+        <v>18</v>
       </c>
       <c r="M207" s="6" t="str">
         <f>IF(COUNTIF(K:K, K207)&gt;1, "Duplicate", "Unique")</f>
@@ -11107,7 +11087,7 @@
         <v>389</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F208" s="6" t="str">
         <f>C208 &amp; "/" &amp; D208</f>
@@ -11128,7 +11108,7 @@
         <v>Ground/Flying</v>
       </c>
       <c r="L208" s="6">
-        <f>COUNTIF(K:K, K208)</f>
+        <f>COUNTIFS(K:K, K208, E:E, "T")</f>
         <v>2</v>
       </c>
       <c r="M208" s="6" t="str">
@@ -11150,7 +11130,7 @@
         <v>397</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F209" s="6" t="str">
         <f>C209 &amp; "/" &amp; D209</f>
@@ -11171,8 +11151,8 @@
         <v>Steel/Rock</v>
       </c>
       <c r="L209" s="6">
-        <f>COUNTIF(K:K, K209)</f>
-        <v>4</v>
+        <f>COUNTIFS(K:K, K209, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M209" s="6" t="str">
         <f>IF(COUNTIF(K:K, K209)&gt;1, "Duplicate", "Unique")</f>
@@ -11191,7 +11171,7 @@
       </c>
       <c r="D210" s="6"/>
       <c r="E210" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F210" s="6" t="str">
         <f>C210 &amp; "/" &amp; D210</f>
@@ -11206,7 +11186,7 @@
         <v>48</v>
       </c>
       <c r="I210" s="6" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="J210" s="6"/>
       <c r="K210" s="7" t="str">
@@ -11214,8 +11194,8 @@
         <v>Dark/Fighting</v>
       </c>
       <c r="L210" s="6">
-        <f>COUNTIF(K:K, K210)</f>
-        <v>2</v>
+        <f>COUNTIFS(K:K, K210, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M210" s="6" t="str">
         <f>IF(COUNTIF(K:K, K210)&gt;1, "Duplicate", "Unique")</f>
@@ -11234,7 +11214,7 @@
       </c>
       <c r="D211" s="6"/>
       <c r="E211" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F211" s="6" t="str">
         <f>C211 &amp; "/" &amp; D211</f>
@@ -11249,7 +11229,7 @@
         <v>48</v>
       </c>
       <c r="I211" s="6" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="J211" s="6"/>
       <c r="K211" s="7" t="str">
@@ -11257,8 +11237,8 @@
         <v>Dark/Fighting</v>
       </c>
       <c r="L211" s="6">
-        <f>COUNTIF(K:K, K211)</f>
-        <v>2</v>
+        <f>COUNTIFS(K:K, K211, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M211" s="6" t="str">
         <f>IF(COUNTIF(K:K, K211)&gt;1, "Duplicate", "Unique")</f>
@@ -11279,7 +11259,7 @@
         <v>387</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F212" s="6" t="str">
         <f>C212 &amp; "/" &amp; D212</f>
@@ -11300,8 +11280,8 @@
         <v>Water/Poison</v>
       </c>
       <c r="L212" s="6">
-        <f>COUNTIF(K:K, K212)</f>
-        <v>3</v>
+        <f>COUNTIFS(K:K, K212, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M212" s="6" t="str">
         <f>IF(COUNTIF(K:K, K212)&gt;1, "Duplicate", "Unique")</f>
@@ -11322,7 +11302,7 @@
         <v>391</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F213" s="6" t="str">
         <f>C213 &amp; "/" &amp; D213</f>
@@ -11343,7 +11323,7 @@
         <v>Steel/Bug</v>
       </c>
       <c r="L213" s="6">
-        <f>COUNTIF(K:K, K213)</f>
+        <f>COUNTIFS(K:K, K213, E:E, "T")</f>
         <v>1</v>
       </c>
       <c r="M213" s="6" t="str">
@@ -11365,7 +11345,7 @@
         <v>397</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F214" s="6" t="str">
         <f>C214 &amp; "/" &amp; D214</f>
@@ -11386,8 +11366,8 @@
         <v>Bug/Rock</v>
       </c>
       <c r="L214" s="6">
-        <f>COUNTIF(K:K, K214)</f>
-        <v>3</v>
+        <f>COUNTIFS(K:K, K214, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M214" s="6" t="str">
         <f>IF(COUNTIF(K:K, K214)&gt;1, "Duplicate", "Unique")</f>
@@ -11408,7 +11388,7 @@
         <v>395</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F215" s="6" t="str">
         <f>C215 &amp; "/" &amp; D215</f>
@@ -11429,7 +11409,7 @@
         <v>Bug/Fighting</v>
       </c>
       <c r="L215" s="6">
-        <f>COUNTIF(K:K, K215)</f>
+        <f>COUNTIFS(K:K, K215, E:E, "T")</f>
         <v>2</v>
       </c>
       <c r="M215" s="6" t="str">
@@ -11451,7 +11431,7 @@
         <v>399</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F216" s="6" t="str">
         <f>C216 &amp; "/" &amp; D216</f>
@@ -11472,7 +11452,7 @@
         <v>Dark/Ice</v>
       </c>
       <c r="L216" s="6">
-        <f>COUNTIF(K:K, K216)</f>
+        <f>COUNTIFS(K:K, K216, E:E, "T")</f>
         <v>1</v>
       </c>
       <c r="M216" s="6" t="str">
@@ -11492,7 +11472,7 @@
       </c>
       <c r="D217" s="6"/>
       <c r="E217" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F217" s="6" t="str">
         <f>C217 &amp; "/" &amp; D217</f>
@@ -11513,8 +11493,8 @@
         <v>Normal/</v>
       </c>
       <c r="L217" s="6">
-        <f>COUNTIF(K:K, K217)</f>
-        <v>33</v>
+        <f>COUNTIFS(K:K, K217, E:E, "T")</f>
+        <v>18</v>
       </c>
       <c r="M217" s="6" t="str">
         <f>IF(COUNTIF(K:K, K217)&gt;1, "Duplicate", "Unique")</f>
@@ -11533,7 +11513,7 @@
       </c>
       <c r="D218" s="6"/>
       <c r="E218" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F218" s="6" t="str">
         <f>C218 &amp; "/" &amp; D218</f>
@@ -11548,7 +11528,7 @@
         <v>48</v>
       </c>
       <c r="I218" s="6" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="J218" s="6"/>
       <c r="K218" s="7" t="str">
@@ -11556,7 +11536,7 @@
         <v>Normal/Ground</v>
       </c>
       <c r="L218" s="6">
-        <f>COUNTIF(K:K, K218)</f>
+        <f>COUNTIFS(K:K, K218, E:E, "T")</f>
         <v>1</v>
       </c>
       <c r="M218" s="6" t="str">
@@ -11576,7 +11556,7 @@
       </c>
       <c r="D219" s="6"/>
       <c r="E219" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F219" s="6" t="str">
         <f>C219 &amp; "/" &amp; D219</f>
@@ -11597,8 +11577,8 @@
         <v>Fire/</v>
       </c>
       <c r="L219" s="6">
-        <f>COUNTIF(K:K, K219)</f>
-        <v>15</v>
+        <f>COUNTIFS(K:K, K219, E:E, "T")</f>
+        <v>5</v>
       </c>
       <c r="M219" s="6" t="str">
         <f>IF(COUNTIF(K:K, K219)&gt;1, "Duplicate", "Unique")</f>
@@ -11619,7 +11599,7 @@
         <v>397</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F220" s="6" t="str">
         <f>C220 &amp; "/" &amp; D220</f>
@@ -11640,7 +11620,7 @@
         <v>Fire/Rock</v>
       </c>
       <c r="L220" s="6">
-        <f>COUNTIF(K:K, K220)</f>
+        <f>COUNTIFS(K:K, K220, E:E, "T")</f>
         <v>1</v>
       </c>
       <c r="M220" s="6" t="str">
@@ -11662,7 +11642,7 @@
         <v>399</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F221" s="6" t="str">
         <f>C221 &amp; "/" &amp; D221</f>
@@ -11683,8 +11663,8 @@
         <v>Ground/Ice</v>
       </c>
       <c r="L221" s="6">
-        <f>COUNTIF(K:K, K221)</f>
-        <v>2</v>
+        <f>COUNTIFS(K:K, K221, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M221" s="6" t="str">
         <f>IF(COUNTIF(K:K, K221)&gt;1, "Duplicate", "Unique")</f>
@@ -11705,7 +11685,7 @@
         <v>399</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F222" s="6" t="str">
         <f>C222 &amp; "/" &amp; D222</f>
@@ -11726,8 +11706,8 @@
         <v>Ground/Ice</v>
       </c>
       <c r="L222" s="6">
-        <f>COUNTIF(K:K, K222)</f>
-        <v>2</v>
+        <f>COUNTIFS(K:K, K222, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M222" s="6" t="str">
         <f>IF(COUNTIF(K:K, K222)&gt;1, "Duplicate", "Unique")</f>
@@ -11748,7 +11728,7 @@
         <v>397</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F223" s="6" t="str">
         <f>C223 &amp; "/" &amp; D223</f>
@@ -11769,8 +11749,8 @@
         <v>Water/Rock</v>
       </c>
       <c r="L223" s="6">
-        <f>COUNTIF(K:K, K223)</f>
-        <v>7</v>
+        <f>COUNTIFS(K:K, K223, E:E, "T")</f>
+        <v>5</v>
       </c>
       <c r="M223" s="6" t="str">
         <f>IF(COUNTIF(K:K, K223)&gt;1, "Duplicate", "Unique")</f>
@@ -11789,7 +11769,7 @@
       </c>
       <c r="D224" s="6"/>
       <c r="E224" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F224" s="6" t="str">
         <f>C224 &amp; "/" &amp; D224</f>
@@ -11810,8 +11790,8 @@
         <v>Water/</v>
       </c>
       <c r="L224" s="6">
-        <f>COUNTIF(K:K, K224)</f>
-        <v>28</v>
+        <f>COUNTIFS(K:K, K224, E:E, "T")</f>
+        <v>8</v>
       </c>
       <c r="M224" s="6" t="str">
         <f>IF(COUNTIF(K:K, K224)&gt;1, "Duplicate", "Unique")</f>
@@ -11830,7 +11810,7 @@
       </c>
       <c r="D225" s="6"/>
       <c r="E225" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F225" s="6" t="str">
         <f>C225 &amp; "/" &amp; D225</f>
@@ -11845,7 +11825,7 @@
         <v>36</v>
       </c>
       <c r="I225" s="6" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="J225" s="6"/>
       <c r="K225" s="7" t="str">
@@ -11853,7 +11833,7 @@
         <v>Fire/Water</v>
       </c>
       <c r="L225" s="6">
-        <f>COUNTIF(K:K, K225)</f>
+        <f>COUNTIFS(K:K, K225, E:E, "T")</f>
         <v>1</v>
       </c>
       <c r="M225" s="6" t="str">
@@ -11875,7 +11855,7 @@
         <v>389</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F226" s="6" t="str">
         <f>C226 &amp; "/" &amp; D226</f>
@@ -11896,7 +11876,7 @@
         <v>Ice/Flying</v>
       </c>
       <c r="L226" s="6">
-        <f>COUNTIF(K:K, K226)</f>
+        <f>COUNTIFS(K:K, K226, E:E, "T")</f>
         <v>2</v>
       </c>
       <c r="M226" s="6" t="str">
@@ -11918,7 +11898,7 @@
         <v>389</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F227" s="6" t="str">
         <f>C227 &amp; "/" &amp; D227</f>
@@ -11939,8 +11919,8 @@
         <v>Water/Flying</v>
       </c>
       <c r="L227" s="6">
-        <f>COUNTIF(K:K, K227)</f>
-        <v>4</v>
+        <f>COUNTIFS(K:K, K227, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M227" s="6" t="str">
         <f>IF(COUNTIF(K:K, K227)&gt;1, "Duplicate", "Unique")</f>
@@ -11961,7 +11941,7 @@
         <v>389</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F228" s="6" t="str">
         <f>C228 &amp; "/" &amp; D228</f>
@@ -11982,7 +11962,7 @@
         <v>Steel/Flying</v>
       </c>
       <c r="L228" s="6">
-        <f>COUNTIF(K:K, K228)</f>
+        <f>COUNTIFS(K:K, K228, E:E, "T")</f>
         <v>1</v>
       </c>
       <c r="M228" s="6" t="str">
@@ -12004,7 +11984,7 @@
         <v>388</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F229" s="6" t="str">
         <f>C229 &amp; "/" &amp; D229</f>
@@ -12025,8 +12005,8 @@
         <v>Dark/Fire</v>
       </c>
       <c r="L229" s="6">
-        <f>COUNTIF(K:K, K229)</f>
-        <v>2</v>
+        <f>COUNTIFS(K:K, K229, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M229" s="6" t="str">
         <f>IF(COUNTIF(K:K, K229)&gt;1, "Duplicate", "Unique")</f>
@@ -12047,7 +12027,7 @@
         <v>388</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F230" s="6" t="str">
         <f>C230 &amp; "/" &amp; D230</f>
@@ -12068,8 +12048,8 @@
         <v>Dark/Fire</v>
       </c>
       <c r="L230" s="6">
-        <f>COUNTIF(K:K, K230)</f>
-        <v>2</v>
+        <f>COUNTIFS(K:K, K230, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M230" s="6" t="str">
         <f>IF(COUNTIF(K:K, K230)&gt;1, "Duplicate", "Unique")</f>
@@ -12090,7 +12070,7 @@
         <v>401</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F231" s="6" t="str">
         <f>C231 &amp; "/" &amp; D231</f>
@@ -12111,7 +12091,7 @@
         <v>Water/Dragon</v>
       </c>
       <c r="L231" s="6">
-        <f>COUNTIF(K:K, K231)</f>
+        <f>COUNTIFS(K:K, K231, E:E, "T")</f>
         <v>2</v>
       </c>
       <c r="M231" s="6" t="str">
@@ -12131,7 +12111,7 @@
       </c>
       <c r="D232" s="6"/>
       <c r="E232" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F232" s="6" t="str">
         <f>C232 &amp; "/" &amp; D232</f>
@@ -12152,8 +12132,8 @@
         <v>Ground/</v>
       </c>
       <c r="L232" s="6">
-        <f>COUNTIF(K:K, K232)</f>
-        <v>4</v>
+        <f>COUNTIFS(K:K, K232, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M232" s="6" t="str">
         <f>IF(COUNTIF(K:K, K232)&gt;1, "Duplicate", "Unique")</f>
@@ -12172,7 +12152,7 @@
       </c>
       <c r="D233" s="6"/>
       <c r="E233" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F233" s="6" t="str">
         <f>C233 &amp; "/" &amp; D233</f>
@@ -12193,8 +12173,8 @@
         <v>Ground/</v>
       </c>
       <c r="L233" s="6">
-        <f>COUNTIF(K:K, K233)</f>
-        <v>4</v>
+        <f>COUNTIFS(K:K, K233, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M233" s="6" t="str">
         <f>IF(COUNTIF(K:K, K233)&gt;1, "Duplicate", "Unique")</f>
@@ -12213,7 +12193,7 @@
       </c>
       <c r="D234" s="6"/>
       <c r="E234" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F234" s="6" t="str">
         <f>C234 &amp; "/" &amp; D234</f>
@@ -12234,8 +12214,8 @@
         <v>Normal/</v>
       </c>
       <c r="L234" s="6">
-        <f>COUNTIF(K:K, K234)</f>
-        <v>33</v>
+        <f>COUNTIFS(K:K, K234, E:E, "T")</f>
+        <v>18</v>
       </c>
       <c r="M234" s="6" t="str">
         <f>IF(COUNTIF(K:K, K234)&gt;1, "Duplicate", "Unique")</f>
@@ -12254,7 +12234,7 @@
       </c>
       <c r="D235" s="6"/>
       <c r="E235" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F235" s="6" t="str">
         <f>C235 &amp; "/" &amp; D235</f>
@@ -12269,7 +12249,7 @@
         <v>48</v>
       </c>
       <c r="I235" s="6" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="J235" s="6"/>
       <c r="K235" s="7" t="str">
@@ -12277,7 +12257,7 @@
         <v>Normal/Grass</v>
       </c>
       <c r="L235" s="6">
-        <f>COUNTIF(K:K, K235)</f>
+        <f>COUNTIFS(K:K, K235, E:E, "T")</f>
         <v>1</v>
       </c>
       <c r="M235" s="6" t="str">
@@ -12297,7 +12277,7 @@
       </c>
       <c r="D236" s="6"/>
       <c r="E236" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F236" s="6" t="str">
         <f>C236 &amp; "/" &amp; D236</f>
@@ -12318,8 +12298,8 @@
         <v>Normal/</v>
       </c>
       <c r="L236" s="6">
-        <f>COUNTIF(K:K, K236)</f>
-        <v>33</v>
+        <f>COUNTIFS(K:K, K236, E:E, "T")</f>
+        <v>18</v>
       </c>
       <c r="M236" s="6" t="str">
         <f>IF(COUNTIF(K:K, K236)&gt;1, "Duplicate", "Unique")</f>
@@ -12338,7 +12318,7 @@
       </c>
       <c r="D237" s="6"/>
       <c r="E237" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F237" s="6" t="str">
         <f>C237 &amp; "/" &amp; D237</f>
@@ -12359,8 +12339,8 @@
         <v>Fighting/</v>
       </c>
       <c r="L237" s="6">
-        <f>COUNTIF(K:K, K237)</f>
-        <v>7</v>
+        <f>COUNTIFS(K:K, K237, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M237" s="6" t="str">
         <f>IF(COUNTIF(K:K, K237)&gt;1, "Duplicate", "Unique")</f>
@@ -12379,7 +12359,7 @@
       </c>
       <c r="D238" s="6"/>
       <c r="E238" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F238" s="6" t="str">
         <f>C238 &amp; "/" &amp; D238</f>
@@ -12394,7 +12374,7 @@
         <v>11</v>
       </c>
       <c r="I238" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="J238" s="6"/>
       <c r="K238" s="7" t="str">
@@ -12402,7 +12382,7 @@
         <v>Fighting/Steel</v>
       </c>
       <c r="L238" s="6">
-        <f>COUNTIF(K:K, K238)</f>
+        <f>COUNTIFS(K:K, K238, E:E, "T")</f>
         <v>1</v>
       </c>
       <c r="M238" s="6" t="str">
@@ -12424,7 +12404,7 @@
         <v>396</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F239" s="6" t="str">
         <f>C239 &amp; "/" &amp; D239</f>
@@ -12445,8 +12425,8 @@
         <v>Ice/Psychic</v>
       </c>
       <c r="L239" s="6">
-        <f>COUNTIF(K:K, K239)</f>
-        <v>2</v>
+        <f>COUNTIFS(K:K, K239, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M239" s="6" t="str">
         <f>IF(COUNTIF(K:K, K239)&gt;1, "Duplicate", "Unique")</f>
@@ -12465,7 +12445,7 @@
       </c>
       <c r="D240" s="6"/>
       <c r="E240" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F240" s="6" t="str">
         <f>C240 &amp; "/" &amp; D240</f>
@@ -12486,8 +12466,8 @@
         <v>Electric/</v>
       </c>
       <c r="L240" s="6">
-        <f>COUNTIF(K:K, K240)</f>
-        <v>13</v>
+        <f>COUNTIFS(K:K, K240, E:E, "T")</f>
+        <v>6</v>
       </c>
       <c r="M240" s="6" t="str">
         <f>IF(COUNTIF(K:K, K240)&gt;1, "Duplicate", "Unique")</f>
@@ -12506,7 +12486,7 @@
       </c>
       <c r="D241" s="6"/>
       <c r="E241" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F241" s="6" t="str">
         <f>C241 &amp; "/" &amp; D241</f>
@@ -12527,8 +12507,8 @@
         <v>Fire/</v>
       </c>
       <c r="L241" s="6">
-        <f>COUNTIF(K:K, K241)</f>
-        <v>15</v>
+        <f>COUNTIFS(K:K, K241, E:E, "T")</f>
+        <v>5</v>
       </c>
       <c r="M241" s="6" t="str">
         <f>IF(COUNTIF(K:K, K241)&gt;1, "Duplicate", "Unique")</f>
@@ -12547,7 +12527,7 @@
       </c>
       <c r="D242" s="6"/>
       <c r="E242" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F242" s="6" t="str">
         <f>C242 &amp; "/" &amp; D242</f>
@@ -12568,8 +12548,8 @@
         <v>Normal/</v>
       </c>
       <c r="L242" s="6">
-        <f>COUNTIF(K:K, K242)</f>
-        <v>33</v>
+        <f>COUNTIFS(K:K, K242, E:E, "T")</f>
+        <v>18</v>
       </c>
       <c r="M242" s="6" t="str">
         <f>IF(COUNTIF(K:K, K242)&gt;1, "Duplicate", "Unique")</f>
@@ -12588,7 +12568,7 @@
       </c>
       <c r="D243" s="6"/>
       <c r="E243" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F243" s="6" t="str">
         <f>C243 &amp; "/" &amp; D243</f>
@@ -12609,8 +12589,8 @@
         <v>Normal/</v>
       </c>
       <c r="L243" s="6">
-        <f>COUNTIF(K:K, K243)</f>
-        <v>33</v>
+        <f>COUNTIFS(K:K, K243, E:E, "T")</f>
+        <v>18</v>
       </c>
       <c r="M243" s="6" t="str">
         <f>IF(COUNTIF(K:K, K243)&gt;1, "Duplicate", "Unique")</f>
@@ -12629,7 +12609,7 @@
       </c>
       <c r="D244" s="6"/>
       <c r="E244" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F244" s="6" t="str">
         <f>C244 &amp; "/" &amp; D244</f>
@@ -12650,8 +12630,8 @@
         <v>Electric/</v>
       </c>
       <c r="L244" s="6">
-        <f>COUNTIF(K:K, K244)</f>
-        <v>13</v>
+        <f>COUNTIFS(K:K, K244, E:E, "T")</f>
+        <v>6</v>
       </c>
       <c r="M244" s="6" t="str">
         <f>IF(COUNTIF(K:K, K244)&gt;1, "Duplicate", "Unique")</f>
@@ -12670,7 +12650,7 @@
       </c>
       <c r="D245" s="6"/>
       <c r="E245" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F245" s="6" t="str">
         <f>C245 &amp; "/" &amp; D245</f>
@@ -12691,8 +12671,8 @@
         <v>Fire/</v>
       </c>
       <c r="L245" s="6">
-        <f>COUNTIF(K:K, K245)</f>
-        <v>15</v>
+        <f>COUNTIFS(K:K, K245, E:E, "T")</f>
+        <v>5</v>
       </c>
       <c r="M245" s="6" t="str">
         <f>IF(COUNTIF(K:K, K245)&gt;1, "Duplicate", "Unique")</f>
@@ -12711,7 +12691,7 @@
       </c>
       <c r="D246" s="6"/>
       <c r="E246" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F246" s="6" t="str">
         <f>C246 &amp; "/" &amp; D246</f>
@@ -12732,8 +12712,8 @@
         <v>Water/</v>
       </c>
       <c r="L246" s="6">
-        <f>COUNTIF(K:K, K246)</f>
-        <v>28</v>
+        <f>COUNTIFS(K:K, K246, E:E, "T")</f>
+        <v>8</v>
       </c>
       <c r="M246" s="6" t="str">
         <f>IF(COUNTIF(K:K, K246)&gt;1, "Duplicate", "Unique")</f>
@@ -12754,7 +12734,7 @@
         <v>394</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F247" s="6" t="str">
         <f>C247 &amp; "/" &amp; D247</f>
@@ -12775,8 +12755,8 @@
         <v>Rock/Ground</v>
       </c>
       <c r="L247" s="6">
-        <f>COUNTIF(K:K, K247)</f>
-        <v>5</v>
+        <f>COUNTIFS(K:K, K247, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M247" s="6" t="str">
         <f>IF(COUNTIF(K:K, K247)&gt;1, "Duplicate", "Unique")</f>
@@ -12797,7 +12777,7 @@
         <v>394</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F248" s="6" t="str">
         <f>C248 &amp; "/" &amp; D248</f>
@@ -12818,8 +12798,8 @@
         <v>Rock/Ground</v>
       </c>
       <c r="L248" s="6">
-        <f>COUNTIF(K:K, K248)</f>
-        <v>5</v>
+        <f>COUNTIFS(K:K, K248, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M248" s="6" t="str">
         <f>IF(COUNTIF(K:K, K248)&gt;1, "Duplicate", "Unique")</f>
@@ -12840,7 +12820,7 @@
         <v>403</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F249" s="6" t="str">
         <f>C249 &amp; "/" &amp; D249</f>
@@ -12861,7 +12841,7 @@
         <v>Rock/Dark</v>
       </c>
       <c r="L249" s="6">
-        <f>COUNTIF(K:K, K249)</f>
+        <f>COUNTIFS(K:K, K249, E:E, "T")</f>
         <v>1</v>
       </c>
       <c r="M249" s="6" t="str">
@@ -12883,7 +12863,7 @@
         <v>389</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F250" s="6" t="str">
         <f>C250 &amp; "/" &amp; D250</f>
@@ -12904,8 +12884,8 @@
         <v>Psychic/Flying</v>
       </c>
       <c r="L250" s="6">
-        <f>COUNTIF(K:K, K250)</f>
-        <v>4</v>
+        <f>COUNTIFS(K:K, K250, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M250" s="6" t="str">
         <f>IF(COUNTIF(K:K, K250)&gt;1, "Duplicate", "Unique")</f>
@@ -12926,7 +12906,7 @@
         <v>389</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F251" s="6" t="str">
         <f>C251 &amp; "/" &amp; D251</f>
@@ -12947,7 +12927,7 @@
         <v>Fire/Flying</v>
       </c>
       <c r="L251" s="6">
-        <f>COUNTIF(K:K, K251)</f>
+        <f>COUNTIFS(K:K, K251, E:E, "T")</f>
         <v>2</v>
       </c>
       <c r="M251" s="6" t="str">
@@ -12969,7 +12949,7 @@
         <v>396</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F252" s="6" t="str">
         <f>C252 &amp; "/" &amp; D252</f>
@@ -12990,7 +12970,7 @@
         <v>Grass/Psychic</v>
       </c>
       <c r="L252" s="6">
-        <f>COUNTIF(K:K, K252)</f>
+        <f>COUNTIFS(K:K, K252, E:E, "T")</f>
         <v>2</v>
       </c>
       <c r="M252" s="6" t="str">
@@ -13010,7 +12990,7 @@
       </c>
       <c r="D253" s="6"/>
       <c r="E253" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F253" s="6" t="str">
         <f>C253 &amp; "/" &amp; D253</f>
@@ -13031,8 +13011,8 @@
         <v>Grass/</v>
       </c>
       <c r="L253" s="6">
-        <f>COUNTIF(K:K, K253)</f>
-        <v>9</v>
+        <f>COUNTIFS(K:K, K253, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M253" s="6" t="str">
         <f>IF(COUNTIF(K:K, K253)&gt;1, "Duplicate", "Unique")</f>
@@ -13051,7 +13031,7 @@
       </c>
       <c r="D254" s="6"/>
       <c r="E254" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F254" s="6" t="str">
         <f>C254 &amp; "/" &amp; D254</f>
@@ -13072,8 +13052,8 @@
         <v>Grass/</v>
       </c>
       <c r="L254" s="6">
-        <f>COUNTIF(K:K, K254)</f>
-        <v>9</v>
+        <f>COUNTIFS(K:K, K254, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M254" s="6" t="str">
         <f>IF(COUNTIF(K:K, K254)&gt;1, "Duplicate", "Unique")</f>
@@ -13092,7 +13072,7 @@
       </c>
       <c r="D255" s="6"/>
       <c r="E255" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F255" s="6" t="str">
         <f>C255 &amp; "/" &amp; D255</f>
@@ -13107,7 +13087,7 @@
         <v>13</v>
       </c>
       <c r="I255" s="6" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="J255" s="6"/>
       <c r="K255" s="7" t="str">
@@ -13115,7 +13095,7 @@
         <v>Grass/Dragon</v>
       </c>
       <c r="L255" s="6">
-        <f>COUNTIF(K:K, K255)</f>
+        <f>COUNTIFS(K:K, K255, E:E, "T")</f>
         <v>1</v>
       </c>
       <c r="M255" s="6" t="str">
@@ -13135,7 +13115,7 @@
       </c>
       <c r="D256" s="6"/>
       <c r="E256" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F256" s="6" t="str">
         <f>C256 &amp; "/" &amp; D256</f>
@@ -13156,8 +13136,8 @@
         <v>Fire/</v>
       </c>
       <c r="L256" s="6">
-        <f>COUNTIF(K:K, K256)</f>
-        <v>15</v>
+        <f>COUNTIFS(K:K, K256, E:E, "T")</f>
+        <v>5</v>
       </c>
       <c r="M256" s="6" t="str">
         <f>IF(COUNTIF(K:K, K256)&gt;1, "Duplicate", "Unique")</f>
@@ -13178,7 +13158,7 @@
         <v>395</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F257" s="6" t="str">
         <f>C257 &amp; "/" &amp; D257</f>
@@ -13199,8 +13179,8 @@
         <v>Fire/Fighting</v>
       </c>
       <c r="L257" s="6">
-        <f>COUNTIF(K:K, K257)</f>
-        <v>2</v>
+        <f>COUNTIFS(K:K, K257, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M257" s="6" t="str">
         <f>IF(COUNTIF(K:K, K257)&gt;1, "Duplicate", "Unique")</f>
@@ -13221,7 +13201,7 @@
         <v>395</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F258" s="6" t="str">
         <f>C258 &amp; "/" &amp; D258</f>
@@ -13242,8 +13222,8 @@
         <v>Fire/Fighting</v>
       </c>
       <c r="L258" s="6">
-        <f>COUNTIF(K:K, K258)</f>
-        <v>2</v>
+        <f>COUNTIFS(K:K, K258, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M258" s="6" t="str">
         <f>IF(COUNTIF(K:K, K258)&gt;1, "Duplicate", "Unique")</f>
@@ -13262,7 +13242,7 @@
       </c>
       <c r="D259" s="6"/>
       <c r="E259" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F259" s="6" t="str">
         <f>C259 &amp; "/" &amp; D259</f>
@@ -13283,8 +13263,8 @@
         <v>Water/</v>
       </c>
       <c r="L259" s="6">
-        <f>COUNTIF(K:K, K259)</f>
-        <v>28</v>
+        <f>COUNTIFS(K:K, K259, E:E, "T")</f>
+        <v>8</v>
       </c>
       <c r="M259" s="6" t="str">
         <f>IF(COUNTIF(K:K, K259)&gt;1, "Duplicate", "Unique")</f>
@@ -13305,7 +13285,7 @@
         <v>394</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F260" s="6" t="str">
         <f>C260 &amp; "/" &amp; D260</f>
@@ -13326,8 +13306,8 @@
         <v>Water/Ground</v>
       </c>
       <c r="L260" s="6">
-        <f>COUNTIF(K:K, K260)</f>
-        <v>7</v>
+        <f>COUNTIFS(K:K, K260, E:E, "T")</f>
+        <v>4</v>
       </c>
       <c r="M260" s="6" t="str">
         <f>IF(COUNTIF(K:K, K260)&gt;1, "Duplicate", "Unique")</f>
@@ -13348,7 +13328,7 @@
         <v>394</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F261" s="6" t="str">
         <f>C261 &amp; "/" &amp; D261</f>
@@ -13369,8 +13349,8 @@
         <v>Water/Ground</v>
       </c>
       <c r="L261" s="6">
-        <f>COUNTIF(K:K, K261)</f>
-        <v>7</v>
+        <f>COUNTIFS(K:K, K261, E:E, "T")</f>
+        <v>4</v>
       </c>
       <c r="M261" s="6" t="str">
         <f>IF(COUNTIF(K:K, K261)&gt;1, "Duplicate", "Unique")</f>
@@ -13389,7 +13369,7 @@
       </c>
       <c r="D262" s="6"/>
       <c r="E262" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F262" s="6" t="str">
         <f>C262 &amp; "/" &amp; D262</f>
@@ -13410,8 +13390,8 @@
         <v>Dark/</v>
       </c>
       <c r="L262" s="6">
-        <f>COUNTIF(K:K, K262)</f>
-        <v>4</v>
+        <f>COUNTIFS(K:K, K262, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M262" s="6" t="str">
         <f>IF(COUNTIF(K:K, K262)&gt;1, "Duplicate", "Unique")</f>
@@ -13430,7 +13410,7 @@
       </c>
       <c r="D263" s="6"/>
       <c r="E263" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F263" s="6" t="str">
         <f>C263 &amp; "/" &amp; D263</f>
@@ -13451,8 +13431,8 @@
         <v>Dark/</v>
       </c>
       <c r="L263" s="6">
-        <f>COUNTIF(K:K, K263)</f>
-        <v>4</v>
+        <f>COUNTIFS(K:K, K263, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M263" s="6" t="str">
         <f>IF(COUNTIF(K:K, K263)&gt;1, "Duplicate", "Unique")</f>
@@ -13471,7 +13451,7 @@
       </c>
       <c r="D264" s="6"/>
       <c r="E264" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F264" s="6" t="str">
         <f>C264 &amp; "/" &amp; D264</f>
@@ -13486,7 +13466,7 @@
         <v>48</v>
       </c>
       <c r="I264" s="6" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="J264" s="6"/>
       <c r="K264" s="7" t="str">
@@ -13494,8 +13474,8 @@
         <v>Dark/Normal</v>
       </c>
       <c r="L264" s="6">
-        <f>COUNTIF(K:K, K264)</f>
-        <v>4</v>
+        <f>COUNTIFS(K:K, K264, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M264" s="6" t="str">
         <f>IF(COUNTIF(K:K, K264)&gt;1, "Duplicate", "Unique")</f>
@@ -13514,7 +13494,7 @@
       </c>
       <c r="D265" s="6"/>
       <c r="E265" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F265" s="6" t="str">
         <f>C265 &amp; "/" &amp; D265</f>
@@ -13529,7 +13509,7 @@
         <v>48</v>
       </c>
       <c r="I265" s="6" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="J265" s="6"/>
       <c r="K265" s="7" t="str">
@@ -13537,8 +13517,8 @@
         <v>Dark/Normal</v>
       </c>
       <c r="L265" s="6">
-        <f>COUNTIF(K:K, K265)</f>
-        <v>4</v>
+        <f>COUNTIFS(K:K, K265, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M265" s="6" t="str">
         <f>IF(COUNTIF(K:K, K265)&gt;1, "Duplicate", "Unique")</f>
@@ -13557,7 +13537,7 @@
       </c>
       <c r="D266" s="6"/>
       <c r="E266" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F266" s="6" t="str">
         <f>C266 &amp; "/" &amp; D266</f>
@@ -13578,8 +13558,8 @@
         <v>Bug/</v>
       </c>
       <c r="L266" s="6">
-        <f>COUNTIF(K:K, K266)</f>
-        <v>7</v>
+        <f>COUNTIFS(K:K, K266, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M266" s="6" t="str">
         <f>IF(COUNTIF(K:K, K266)&gt;1, "Duplicate", "Unique")</f>
@@ -13598,7 +13578,7 @@
       </c>
       <c r="D267" s="6"/>
       <c r="E267" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F267" s="6" t="str">
         <f>C267 &amp; "/" &amp; D267</f>
@@ -13619,8 +13599,8 @@
         <v>Bug/</v>
       </c>
       <c r="L267" s="6">
-        <f>COUNTIF(K:K, K267)</f>
-        <v>7</v>
+        <f>COUNTIFS(K:K, K267, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M267" s="6" t="str">
         <f>IF(COUNTIF(K:K, K267)&gt;1, "Duplicate", "Unique")</f>
@@ -13641,7 +13621,7 @@
         <v>389</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F268" s="6" t="str">
         <f>C268 &amp; "/" &amp; D268</f>
@@ -13662,8 +13642,8 @@
         <v>Bug/Flying</v>
       </c>
       <c r="L268" s="6">
-        <f>COUNTIF(K:K, K268)</f>
-        <v>4</v>
+        <f>COUNTIFS(K:K, K268, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M268" s="6" t="str">
         <f>IF(COUNTIF(K:K, K268)&gt;1, "Duplicate", "Unique")</f>
@@ -13682,7 +13662,7 @@
       </c>
       <c r="D269" s="6"/>
       <c r="E269" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F269" s="6" t="str">
         <f>C269 &amp; "/" &amp; D269</f>
@@ -13703,8 +13683,8 @@
         <v>Bug/</v>
       </c>
       <c r="L269" s="6">
-        <f>COUNTIF(K:K, K269)</f>
-        <v>7</v>
+        <f>COUNTIFS(K:K, K269, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M269" s="6" t="str">
         <f>IF(COUNTIF(K:K, K269)&gt;1, "Duplicate", "Unique")</f>
@@ -13725,7 +13705,7 @@
         <v>387</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F270" s="6" t="str">
         <f>C270 &amp; "/" &amp; D270</f>
@@ -13743,14 +13723,14 @@
         <v>391</v>
       </c>
       <c r="J270" s="6" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="K270" s="7" t="str">
         <f>IF(I270="", F270, I270)</f>
         <v>Bug</v>
       </c>
       <c r="L270" s="6">
-        <f>COUNTIF(K:K, K270)</f>
+        <f>COUNTIFS(K:K, K270, E:E, "T")</f>
         <v>1</v>
       </c>
       <c r="M270" s="6" t="str">
@@ -13772,7 +13752,7 @@
         <v>386</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F271" s="6" t="str">
         <f>C271 &amp; "/" &amp; D271</f>
@@ -13793,8 +13773,8 @@
         <v>Water/Grass</v>
       </c>
       <c r="L271" s="6">
-        <f>COUNTIF(K:K, K271)</f>
-        <v>5</v>
+        <f>COUNTIFS(K:K, K271, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M271" s="6" t="str">
         <f>IF(COUNTIF(K:K, K271)&gt;1, "Duplicate", "Unique")</f>
@@ -13815,7 +13795,7 @@
         <v>386</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F272" s="6" t="str">
         <f>C272 &amp; "/" &amp; D272</f>
@@ -13836,8 +13816,8 @@
         <v>Water/Grass</v>
       </c>
       <c r="L272" s="6">
-        <f>COUNTIF(K:K, K272)</f>
-        <v>5</v>
+        <f>COUNTIFS(K:K, K272, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M272" s="6" t="str">
         <f>IF(COUNTIF(K:K, K272)&gt;1, "Duplicate", "Unique")</f>
@@ -13858,7 +13838,7 @@
         <v>386</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F273" s="6" t="str">
         <f>C273 &amp; "/" &amp; D273</f>
@@ -13879,8 +13859,8 @@
         <v>Water/Grass</v>
       </c>
       <c r="L273" s="6">
-        <f>COUNTIF(K:K, K273)</f>
-        <v>5</v>
+        <f>COUNTIFS(K:K, K273, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M273" s="6" t="str">
         <f>IF(COUNTIF(K:K, K273)&gt;1, "Duplicate", "Unique")</f>
@@ -13899,7 +13879,7 @@
       </c>
       <c r="D274" s="6"/>
       <c r="E274" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F274" s="6" t="str">
         <f>C274 &amp; "/" &amp; D274</f>
@@ -13920,8 +13900,8 @@
         <v>Grass/</v>
       </c>
       <c r="L274" s="6">
-        <f>COUNTIF(K:K, K274)</f>
-        <v>9</v>
+        <f>COUNTIFS(K:K, K274, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M274" s="6" t="str">
         <f>IF(COUNTIF(K:K, K274)&gt;1, "Duplicate", "Unique")</f>
@@ -13942,7 +13922,7 @@
         <v>403</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F275" s="6" t="str">
         <f>C275 &amp; "/" &amp; D275</f>
@@ -13963,8 +13943,8 @@
         <v>Grass/Dark</v>
       </c>
       <c r="L275" s="6">
-        <f>COUNTIF(K:K, K275)</f>
-        <v>5</v>
+        <f>COUNTIFS(K:K, K275, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M275" s="6" t="str">
         <f>IF(COUNTIF(K:K, K275)&gt;1, "Duplicate", "Unique")</f>
@@ -13985,7 +13965,7 @@
         <v>403</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F276" s="6" t="str">
         <f>C276 &amp; "/" &amp; D276</f>
@@ -14006,8 +13986,8 @@
         <v>Grass/Dark</v>
       </c>
       <c r="L276" s="6">
-        <f>COUNTIF(K:K, K276)</f>
-        <v>5</v>
+        <f>COUNTIFS(K:K, K276, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M276" s="6" t="str">
         <f>IF(COUNTIF(K:K, K276)&gt;1, "Duplicate", "Unique")</f>
@@ -14028,7 +14008,7 @@
         <v>389</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F277" s="6" t="str">
         <f>C277 &amp; "/" &amp; D277</f>
@@ -14049,8 +14029,8 @@
         <v>Normal/Flying</v>
       </c>
       <c r="L277" s="6">
-        <f>COUNTIF(K:K, K277)</f>
-        <v>10</v>
+        <f>COUNTIFS(K:K, K277, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M277" s="6" t="str">
         <f>IF(COUNTIF(K:K, K277)&gt;1, "Duplicate", "Unique")</f>
@@ -14071,7 +14051,7 @@
         <v>389</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F278" s="6" t="str">
         <f>C278 &amp; "/" &amp; D278</f>
@@ -14092,8 +14072,8 @@
         <v>Normal/Flying</v>
       </c>
       <c r="L278" s="6">
-        <f>COUNTIF(K:K, K278)</f>
-        <v>10</v>
+        <f>COUNTIFS(K:K, K278, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M278" s="6" t="str">
         <f>IF(COUNTIF(K:K, K278)&gt;1, "Duplicate", "Unique")</f>
@@ -14114,7 +14094,7 @@
         <v>389</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F279" s="6" t="str">
         <f>C279 &amp; "/" &amp; D279</f>
@@ -14135,8 +14115,8 @@
         <v>Water/Flying</v>
       </c>
       <c r="L279" s="6">
-        <f>COUNTIF(K:K, K279)</f>
-        <v>4</v>
+        <f>COUNTIFS(K:K, K279, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M279" s="6" t="str">
         <f>IF(COUNTIF(K:K, K279)&gt;1, "Duplicate", "Unique")</f>
@@ -14157,7 +14137,7 @@
         <v>389</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F280" s="6" t="str">
         <f>C280 &amp; "/" &amp; D280</f>
@@ -14178,8 +14158,8 @@
         <v>Water/Flying</v>
       </c>
       <c r="L280" s="6">
-        <f>COUNTIF(K:K, K280)</f>
-        <v>4</v>
+        <f>COUNTIFS(K:K, K280, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M280" s="6" t="str">
         <f>IF(COUNTIF(K:K, K280)&gt;1, "Duplicate", "Unique")</f>
@@ -14198,7 +14178,7 @@
       </c>
       <c r="D281" s="6"/>
       <c r="E281" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F281" s="6" t="str">
         <f>C281 &amp; "/" &amp; D281</f>
@@ -14219,8 +14199,8 @@
         <v>Psychic/</v>
       </c>
       <c r="L281" s="6">
-        <f>COUNTIF(K:K, K281)</f>
-        <v>15</v>
+        <f>COUNTIFS(K:K, K281, E:E, "T")</f>
+        <v>9</v>
       </c>
       <c r="M281" s="6" t="str">
         <f>IF(COUNTIF(K:K, K281)&gt;1, "Duplicate", "Unique")</f>
@@ -14239,7 +14219,7 @@
       </c>
       <c r="D282" s="6"/>
       <c r="E282" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F282" s="6" t="str">
         <f>C282 &amp; "/" &amp; D282</f>
@@ -14260,8 +14240,8 @@
         <v>Psychic/</v>
       </c>
       <c r="L282" s="6">
-        <f>COUNTIF(K:K, K282)</f>
-        <v>15</v>
+        <f>COUNTIFS(K:K, K282, E:E, "T")</f>
+        <v>9</v>
       </c>
       <c r="M282" s="6" t="str">
         <f>IF(COUNTIF(K:K, K282)&gt;1, "Duplicate", "Unique")</f>
@@ -14280,7 +14260,7 @@
       </c>
       <c r="D283" s="6"/>
       <c r="E283" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F283" s="6" t="str">
         <f>C283 &amp; "/" &amp; D283</f>
@@ -14301,8 +14281,8 @@
         <v>Psychic/</v>
       </c>
       <c r="L283" s="6">
-        <f>COUNTIF(K:K, K283)</f>
-        <v>15</v>
+        <f>COUNTIFS(K:K, K283, E:E, "T")</f>
+        <v>9</v>
       </c>
       <c r="M283" s="6" t="str">
         <f>IF(COUNTIF(K:K, K283)&gt;1, "Duplicate", "Unique")</f>
@@ -14323,7 +14303,7 @@
         <v>390</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F284" s="6" t="str">
         <f>C284 &amp; "/" &amp; D284</f>
@@ -14344,8 +14324,8 @@
         <v>Bug/Water</v>
       </c>
       <c r="L284" s="6">
-        <f>COUNTIF(K:K, K284)</f>
-        <v>1</v>
+        <f>COUNTIFS(K:K, K284, E:E, "T")</f>
+        <v>0</v>
       </c>
       <c r="M284" s="6" t="str">
         <f>IF(COUNTIF(K:K, K284)&gt;1, "Duplicate", "Unique")</f>
@@ -14366,7 +14346,7 @@
         <v>390</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F285" s="6" t="str">
         <f>C285 &amp; "/" &amp; D285</f>
@@ -14381,7 +14361,7 @@
         <v>2</v>
       </c>
       <c r="I285" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="J285" s="6"/>
       <c r="K285" s="7" t="str">
@@ -14389,7 +14369,7 @@
         <v>Water/Bug</v>
       </c>
       <c r="L285" s="6">
-        <f>COUNTIF(K:K, K285)</f>
+        <f>COUNTIFS(K:K, K285, E:E, "T")</f>
         <v>1</v>
       </c>
       <c r="M285" s="6" t="str">
@@ -14409,7 +14389,7 @@
       </c>
       <c r="D286" s="6"/>
       <c r="E286" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F286" s="6" t="str">
         <f>C286 &amp; "/" &amp; D286</f>
@@ -14430,8 +14410,8 @@
         <v>Grass/</v>
       </c>
       <c r="L286" s="6">
-        <f>COUNTIF(K:K, K286)</f>
-        <v>9</v>
+        <f>COUNTIFS(K:K, K286, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M286" s="6" t="str">
         <f>IF(COUNTIF(K:K, K286)&gt;1, "Duplicate", "Unique")</f>
@@ -14452,7 +14432,7 @@
         <v>395</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F287" s="6" t="str">
         <f>C287 &amp; "/" &amp; D287</f>
@@ -14473,7 +14453,7 @@
         <v>Grass/Fighting</v>
       </c>
       <c r="L287" s="6">
-        <f>COUNTIF(K:K, K287)</f>
+        <f>COUNTIFS(K:K, K287, E:E, "T")</f>
         <v>1</v>
       </c>
       <c r="M287" s="6" t="str">
@@ -14493,7 +14473,7 @@
       </c>
       <c r="D288" s="6"/>
       <c r="E288" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F288" s="6" t="str">
         <f>C288 &amp; "/" &amp; D288</f>
@@ -14514,8 +14494,8 @@
         <v>Normal/</v>
       </c>
       <c r="L288" s="6">
-        <f>COUNTIF(K:K, K288)</f>
-        <v>33</v>
+        <f>COUNTIFS(K:K, K288, E:E, "T")</f>
+        <v>18</v>
       </c>
       <c r="M288" s="6" t="str">
         <f>IF(COUNTIF(K:K, K288)&gt;1, "Duplicate", "Unique")</f>
@@ -14534,7 +14514,7 @@
       </c>
       <c r="D289" s="6"/>
       <c r="E289" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F289" s="6" t="str">
         <f>C289 &amp; "/" &amp; D289</f>
@@ -14555,8 +14535,8 @@
         <v>Normal/</v>
       </c>
       <c r="L289" s="6">
-        <f>COUNTIF(K:K, K289)</f>
-        <v>33</v>
+        <f>COUNTIFS(K:K, K289, E:E, "T")</f>
+        <v>18</v>
       </c>
       <c r="M289" s="6" t="str">
         <f>IF(COUNTIF(K:K, K289)&gt;1, "Duplicate", "Unique")</f>
@@ -14575,7 +14555,7 @@
       </c>
       <c r="D290" s="6"/>
       <c r="E290" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F290" s="6" t="str">
         <f>C290 &amp; "/" &amp; D290</f>
@@ -14596,8 +14576,8 @@
         <v>Normal/</v>
       </c>
       <c r="L290" s="6">
-        <f>COUNTIF(K:K, K290)</f>
-        <v>33</v>
+        <f>COUNTIFS(K:K, K290, E:E, "T")</f>
+        <v>18</v>
       </c>
       <c r="M290" s="6" t="str">
         <f>IF(COUNTIF(K:K, K290)&gt;1, "Duplicate", "Unique")</f>
@@ -14618,7 +14598,7 @@
         <v>394</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F291" s="6" t="str">
         <f>C291 &amp; "/" &amp; D291</f>
@@ -14639,8 +14619,8 @@
         <v>Bug/Ground</v>
       </c>
       <c r="L291" s="6">
-        <f>COUNTIF(K:K, K291)</f>
-        <v>1</v>
+        <f>COUNTIFS(K:K, K291, E:E, "T")</f>
+        <v>0</v>
       </c>
       <c r="M291" s="6" t="str">
         <f>IF(COUNTIF(K:K, K291)&gt;1, "Duplicate", "Unique")</f>
@@ -14661,7 +14641,7 @@
         <v>389</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F292" s="6" t="str">
         <f>C292 &amp; "/" &amp; D292</f>
@@ -14676,7 +14656,7 @@
         <v>7</v>
       </c>
       <c r="I292" s="6" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="J292" s="6"/>
       <c r="K292" s="7" t="str">
@@ -14684,7 +14664,7 @@
         <v>Bug/Electric</v>
       </c>
       <c r="L292" s="6">
-        <f>COUNTIF(K:K, K292)</f>
+        <f>COUNTIFS(K:K, K292, E:E, "T")</f>
         <v>2</v>
       </c>
       <c r="M292" s="6" t="str">
@@ -14706,7 +14686,7 @@
         <v>400</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F293" s="6" t="str">
         <f>C293 &amp; "/" &amp; D293</f>
@@ -14727,7 +14707,7 @@
         <v>Bug/Ghost</v>
       </c>
       <c r="L293" s="6">
-        <f>COUNTIF(K:K, K293)</f>
+        <f>COUNTIFS(K:K, K293, E:E, "T")</f>
         <v>1</v>
       </c>
       <c r="M293" s="6" t="str">
@@ -14747,7 +14727,7 @@
       </c>
       <c r="D294" s="6"/>
       <c r="E294" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F294" s="6" t="str">
         <f>C294 &amp; "/" &amp; D294</f>
@@ -14768,8 +14748,8 @@
         <v>Normal/</v>
       </c>
       <c r="L294" s="6">
-        <f>COUNTIF(K:K, K294)</f>
-        <v>33</v>
+        <f>COUNTIFS(K:K, K294, E:E, "T")</f>
+        <v>18</v>
       </c>
       <c r="M294" s="6" t="str">
         <f>IF(COUNTIF(K:K, K294)&gt;1, "Duplicate", "Unique")</f>
@@ -14788,7 +14768,7 @@
       </c>
       <c r="D295" s="6"/>
       <c r="E295" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F295" s="6" t="str">
         <f>C295 &amp; "/" &amp; D295</f>
@@ -14811,8 +14791,8 @@
         <v>Electric</v>
       </c>
       <c r="L295" s="6">
-        <f>COUNTIF(K:K, K295)</f>
-        <v>2</v>
+        <f>COUNTIFS(K:K, K295, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M295" s="6" t="str">
         <f>IF(COUNTIF(K:K, K295)&gt;1, "Duplicate", "Unique")</f>
@@ -14831,7 +14811,7 @@
       </c>
       <c r="D296" s="6"/>
       <c r="E296" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F296" s="6" t="str">
         <f>C296 &amp; "/" &amp; D296</f>
@@ -14854,8 +14834,8 @@
         <v>Electric</v>
       </c>
       <c r="L296" s="6">
-        <f>COUNTIF(K:K, K296)</f>
-        <v>2</v>
+        <f>COUNTIFS(K:K, K296, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M296" s="6" t="str">
         <f>IF(COUNTIF(K:K, K296)&gt;1, "Duplicate", "Unique")</f>
@@ -14874,7 +14854,7 @@
       </c>
       <c r="D297" s="6"/>
       <c r="E297" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F297" s="6" t="str">
         <f>C297 &amp; "/" &amp; D297</f>
@@ -14895,8 +14875,8 @@
         <v>Fighting/</v>
       </c>
       <c r="L297" s="6">
-        <f>COUNTIF(K:K, K297)</f>
-        <v>7</v>
+        <f>COUNTIFS(K:K, K297, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M297" s="6" t="str">
         <f>IF(COUNTIF(K:K, K297)&gt;1, "Duplicate", "Unique")</f>
@@ -14915,7 +14895,7 @@
       </c>
       <c r="D298" s="6"/>
       <c r="E298" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F298" s="6" t="str">
         <f>C298 &amp; "/" &amp; D298</f>
@@ -14936,8 +14916,8 @@
         <v>Fighting/</v>
       </c>
       <c r="L298" s="6">
-        <f>COUNTIF(K:K, K298)</f>
-        <v>7</v>
+        <f>COUNTIFS(K:K, K298, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M298" s="6" t="str">
         <f>IF(COUNTIF(K:K, K298)&gt;1, "Duplicate", "Unique")</f>
@@ -14956,7 +14936,7 @@
       </c>
       <c r="D299" s="6"/>
       <c r="E299" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F299" s="6" t="str">
         <f>C299 &amp; "/" &amp; D299</f>
@@ -14979,8 +14959,8 @@
         <v>Water</v>
       </c>
       <c r="L299" s="6">
-        <f>COUNTIF(K:K, K299)</f>
-        <v>1</v>
+        <f>COUNTIFS(K:K, K299, E:E, "T")</f>
+        <v>0</v>
       </c>
       <c r="M299" s="6" t="str">
         <f>IF(COUNTIF(K:K, K299)&gt;1, "Duplicate", "Unique")</f>
@@ -14999,7 +14979,7 @@
       </c>
       <c r="D300" s="6"/>
       <c r="E300" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F300" s="6" t="str">
         <f>C300 &amp; "/" &amp; D300</f>
@@ -15020,7 +15000,7 @@
         <v>Rock/</v>
       </c>
       <c r="L300" s="6">
-        <f>COUNTIF(K:K, K300)</f>
+        <f>COUNTIFS(K:K, K300, E:E, "T")</f>
         <v>3</v>
       </c>
       <c r="M300" s="6" t="str">
@@ -15040,7 +15020,7 @@
       </c>
       <c r="D301" s="6"/>
       <c r="E301" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F301" s="6" t="str">
         <f>C301 &amp; "/" &amp; D301</f>
@@ -15061,8 +15041,8 @@
         <v>Normal/</v>
       </c>
       <c r="L301" s="6">
-        <f>COUNTIF(K:K, K301)</f>
-        <v>33</v>
+        <f>COUNTIFS(K:K, K301, E:E, "T")</f>
+        <v>18</v>
       </c>
       <c r="M301" s="6" t="str">
         <f>IF(COUNTIF(K:K, K301)&gt;1, "Duplicate", "Unique")</f>
@@ -15081,7 +15061,7 @@
       </c>
       <c r="D302" s="6"/>
       <c r="E302" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F302" s="6" t="str">
         <f>C302 &amp; "/" &amp; D302</f>
@@ -15102,8 +15082,8 @@
         <v>Normal/</v>
       </c>
       <c r="L302" s="6">
-        <f>COUNTIF(K:K, K302)</f>
-        <v>33</v>
+        <f>COUNTIFS(K:K, K302, E:E, "T")</f>
+        <v>18</v>
       </c>
       <c r="M302" s="6" t="str">
         <f>IF(COUNTIF(K:K, K302)&gt;1, "Duplicate", "Unique")</f>
@@ -15124,7 +15104,7 @@
         <v>403</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F303" s="6" t="str">
         <f>C303 &amp; "/" &amp; D303</f>
@@ -15145,7 +15125,7 @@
         <v>Ghost/Dark</v>
       </c>
       <c r="L303" s="6">
-        <f>COUNTIF(K:K, K303)</f>
+        <f>COUNTIFS(K:K, K303, E:E, "T")</f>
         <v>1</v>
       </c>
       <c r="M303" s="6" t="str">
@@ -15165,7 +15145,7 @@
       </c>
       <c r="D304" s="6"/>
       <c r="E304" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F304" s="6" t="str">
         <f>C304 &amp; "/" &amp; D304</f>
@@ -15186,7 +15166,7 @@
         <v>Steel/</v>
       </c>
       <c r="L304" s="6">
-        <f>COUNTIF(K:K, K304)</f>
+        <f>COUNTIFS(K:K, K304, E:E, "T")</f>
         <v>2</v>
       </c>
       <c r="M304" s="6" t="str">
@@ -15208,7 +15188,7 @@
         <v>397</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F305" s="6" t="str">
         <f>C305 &amp; "/" &amp; D305</f>
@@ -15229,8 +15209,8 @@
         <v>Steel/Rock</v>
       </c>
       <c r="L305" s="6">
-        <f>COUNTIF(K:K, K305)</f>
-        <v>4</v>
+        <f>COUNTIFS(K:K, K305, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M305" s="6" t="str">
         <f>IF(COUNTIF(K:K, K305)&gt;1, "Duplicate", "Unique")</f>
@@ -15251,7 +15231,7 @@
         <v>397</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F306" s="6" t="str">
         <f>C306 &amp; "/" &amp; D306</f>
@@ -15272,8 +15252,8 @@
         <v>Steel/Rock</v>
       </c>
       <c r="L306" s="6">
-        <f>COUNTIF(K:K, K306)</f>
-        <v>4</v>
+        <f>COUNTIFS(K:K, K306, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M306" s="6" t="str">
         <f>IF(COUNTIF(K:K, K306)&gt;1, "Duplicate", "Unique")</f>
@@ -15294,7 +15274,7 @@
         <v>397</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F307" s="6" t="str">
         <f>C307 &amp; "/" &amp; D307</f>
@@ -15315,8 +15295,8 @@
         <v>Steel/Rock</v>
       </c>
       <c r="L307" s="6">
-        <f>COUNTIF(K:K, K307)</f>
-        <v>4</v>
+        <f>COUNTIFS(K:K, K307, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M307" s="6" t="str">
         <f>IF(COUNTIF(K:K, K307)&gt;1, "Duplicate", "Unique")</f>
@@ -15337,7 +15317,7 @@
         <v>396</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F308" s="6" t="str">
         <f>C308 &amp; "/" &amp; D308</f>
@@ -15358,8 +15338,8 @@
         <v>Fighting/Psychic</v>
       </c>
       <c r="L308" s="6">
-        <f>COUNTIF(K:K, K308)</f>
-        <v>2</v>
+        <f>COUNTIFS(K:K, K308, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M308" s="6" t="str">
         <f>IF(COUNTIF(K:K, K308)&gt;1, "Duplicate", "Unique")</f>
@@ -15380,7 +15360,7 @@
         <v>396</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F309" s="6" t="str">
         <f>C309 &amp; "/" &amp; D309</f>
@@ -15401,8 +15381,8 @@
         <v>Fighting/Psychic</v>
       </c>
       <c r="L309" s="6">
-        <f>COUNTIF(K:K, K309)</f>
-        <v>2</v>
+        <f>COUNTIFS(K:K, K309, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M309" s="6" t="str">
         <f>IF(COUNTIF(K:K, K309)&gt;1, "Duplicate", "Unique")</f>
@@ -15421,7 +15401,7 @@
       </c>
       <c r="D310" s="6"/>
       <c r="E310" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F310" s="6" t="str">
         <f>C310 &amp; "/" &amp; D310</f>
@@ -15442,8 +15422,8 @@
         <v>Electric/</v>
       </c>
       <c r="L310" s="6">
-        <f>COUNTIF(K:K, K310)</f>
-        <v>13</v>
+        <f>COUNTIFS(K:K, K310, E:E, "T")</f>
+        <v>6</v>
       </c>
       <c r="M310" s="6" t="str">
         <f>IF(COUNTIF(K:K, K310)&gt;1, "Duplicate", "Unique")</f>
@@ -15462,7 +15442,7 @@
       </c>
       <c r="D311" s="6"/>
       <c r="E311" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F311" s="6" t="str">
         <f>C311 &amp; "/" &amp; D311</f>
@@ -15483,8 +15463,8 @@
         <v>Electric/</v>
       </c>
       <c r="L311" s="6">
-        <f>COUNTIF(K:K, K311)</f>
-        <v>13</v>
+        <f>COUNTIFS(K:K, K311, E:E, "T")</f>
+        <v>6</v>
       </c>
       <c r="M311" s="6" t="str">
         <f>IF(COUNTIF(K:K, K311)&gt;1, "Duplicate", "Unique")</f>
@@ -15503,7 +15483,7 @@
       </c>
       <c r="D312" s="6"/>
       <c r="E312" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F312" s="6" t="str">
         <f>C312 &amp; "/" &amp; D312</f>
@@ -15524,8 +15504,8 @@
         <v>Electric/</v>
       </c>
       <c r="L312" s="6">
-        <f>COUNTIF(K:K, K312)</f>
-        <v>13</v>
+        <f>COUNTIFS(K:K, K312, E:E, "T")</f>
+        <v>6</v>
       </c>
       <c r="M312" s="6" t="str">
         <f>IF(COUNTIF(K:K, K312)&gt;1, "Duplicate", "Unique")</f>
@@ -15544,7 +15524,7 @@
       </c>
       <c r="D313" s="6"/>
       <c r="E313" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F313" s="6" t="str">
         <f>C313 &amp; "/" &amp; D313</f>
@@ -15565,8 +15545,8 @@
         <v>Electric/</v>
       </c>
       <c r="L313" s="6">
-        <f>COUNTIF(K:K, K313)</f>
-        <v>13</v>
+        <f>COUNTIFS(K:K, K313, E:E, "T")</f>
+        <v>6</v>
       </c>
       <c r="M313" s="6" t="str">
         <f>IF(COUNTIF(K:K, K313)&gt;1, "Duplicate", "Unique")</f>
@@ -15585,7 +15565,7 @@
       </c>
       <c r="D314" s="6"/>
       <c r="E314" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F314" s="6" t="str">
         <f>C314 &amp; "/" &amp; D314</f>
@@ -15600,7 +15580,7 @@
         <v>9</v>
       </c>
       <c r="I314" s="6" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="J314" s="6"/>
       <c r="K314" s="7" t="str">
@@ -15608,7 +15588,7 @@
         <v>Bug/Electric</v>
       </c>
       <c r="L314" s="6">
-        <f>COUNTIF(K:K, K314)</f>
+        <f>COUNTIFS(K:K, K314, E:E, "T")</f>
         <v>2</v>
       </c>
       <c r="M314" s="6" t="str">
@@ -15628,7 +15608,7 @@
       </c>
       <c r="D315" s="6"/>
       <c r="E315" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F315" s="6" t="str">
         <f>C315 &amp; "/" &amp; D315</f>
@@ -15643,7 +15623,7 @@
         <v>9</v>
       </c>
       <c r="I315" s="6" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="J315" s="6"/>
       <c r="K315" s="7" t="str">
@@ -15651,7 +15631,7 @@
         <v>Bug/Dark</v>
       </c>
       <c r="L315" s="6">
-        <f>COUNTIF(K:K, K315)</f>
+        <f>COUNTIFS(K:K, K315, E:E, "T")</f>
         <v>2</v>
       </c>
       <c r="M315" s="6" t="str">
@@ -15673,7 +15653,7 @@
         <v>387</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F316" s="6" t="str">
         <f>C316 &amp; "/" &amp; D316</f>
@@ -15689,15 +15669,15 @@
       </c>
       <c r="I316" s="6"/>
       <c r="J316" s="6" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="K316" s="7" t="str">
         <f>IF(I316="", F316, I316)</f>
         <v>Grass/Poison</v>
       </c>
       <c r="L316" s="6">
-        <f>COUNTIF(K:K, K316)</f>
-        <v>9</v>
+        <f>COUNTIFS(K:K, K316, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M316" s="6" t="str">
         <f>IF(COUNTIF(K:K, K316)&gt;1, "Duplicate", "Unique")</f>
@@ -15716,7 +15696,7 @@
       </c>
       <c r="D317" s="6"/>
       <c r="E317" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F317" s="6" t="str">
         <f>C317 &amp; "/" &amp; D317</f>
@@ -15737,8 +15717,8 @@
         <v>Poison/</v>
       </c>
       <c r="L317" s="6">
-        <f>COUNTIF(K:K, K317)</f>
-        <v>10</v>
+        <f>COUNTIFS(K:K, K317, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M317" s="6" t="str">
         <f>IF(COUNTIF(K:K, K317)&gt;1, "Duplicate", "Unique")</f>
@@ -15757,7 +15737,7 @@
       </c>
       <c r="D318" s="6"/>
       <c r="E318" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F318" s="6" t="str">
         <f>C318 &amp; "/" &amp; D318</f>
@@ -15772,7 +15752,7 @@
         <v>13</v>
       </c>
       <c r="I318" s="6" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="J318" s="6"/>
       <c r="K318" s="7" t="str">
@@ -15780,7 +15760,7 @@
         <v>Normal/Poison</v>
       </c>
       <c r="L318" s="6">
-        <f>COUNTIF(K:K, K318)</f>
+        <f>COUNTIFS(K:K, K318, E:E, "T")</f>
         <v>2</v>
       </c>
       <c r="M318" s="6" t="str">
@@ -15802,7 +15782,7 @@
         <v>403</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F319" s="6" t="str">
         <f>C319 &amp; "/" &amp; D319</f>
@@ -15823,8 +15803,8 @@
         <v>Water/Dark</v>
       </c>
       <c r="L319" s="6">
-        <f>COUNTIF(K:K, K319)</f>
-        <v>4</v>
+        <f>COUNTIFS(K:K, K319, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M319" s="6" t="str">
         <f>IF(COUNTIF(K:K, K319)&gt;1, "Duplicate", "Unique")</f>
@@ -15845,7 +15825,7 @@
         <v>403</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F320" s="6" t="str">
         <f>C320 &amp; "/" &amp; D320</f>
@@ -15866,8 +15846,8 @@
         <v>Water/Dark</v>
       </c>
       <c r="L320" s="6">
-        <f>COUNTIF(K:K, K320)</f>
-        <v>4</v>
+        <f>COUNTIFS(K:K, K320, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M320" s="6" t="str">
         <f>IF(COUNTIF(K:K, K320)&gt;1, "Duplicate", "Unique")</f>
@@ -15886,7 +15866,7 @@
       </c>
       <c r="D321" s="6"/>
       <c r="E321" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F321" s="6" t="str">
         <f>C321 &amp; "/" &amp; D321</f>
@@ -15907,8 +15887,8 @@
         <v>Water/</v>
       </c>
       <c r="L321" s="6">
-        <f>COUNTIF(K:K, K321)</f>
-        <v>28</v>
+        <f>COUNTIFS(K:K, K321, E:E, "T")</f>
+        <v>8</v>
       </c>
       <c r="M321" s="6" t="str">
         <f>IF(COUNTIF(K:K, K321)&gt;1, "Duplicate", "Unique")</f>
@@ -15927,7 +15907,7 @@
       </c>
       <c r="D322" s="6"/>
       <c r="E322" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F322" s="6" t="str">
         <f>C322 &amp; "/" &amp; D322</f>
@@ -15948,8 +15928,8 @@
         <v>Water/</v>
       </c>
       <c r="L322" s="6">
-        <f>COUNTIF(K:K, K322)</f>
-        <v>28</v>
+        <f>COUNTIFS(K:K, K322, E:E, "T")</f>
+        <v>8</v>
       </c>
       <c r="M322" s="6" t="str">
         <f>IF(COUNTIF(K:K, K322)&gt;1, "Duplicate", "Unique")</f>
@@ -15970,7 +15950,7 @@
         <v>394</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F323" s="6" t="str">
         <f>C323 &amp; "/" &amp; D323</f>
@@ -15991,8 +15971,8 @@
         <v>Fire/Ground</v>
       </c>
       <c r="L323" s="6">
-        <f>COUNTIF(K:K, K323)</f>
-        <v>2</v>
+        <f>COUNTIFS(K:K, K323, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M323" s="6" t="str">
         <f>IF(COUNTIF(K:K, K323)&gt;1, "Duplicate", "Unique")</f>
@@ -16013,7 +15993,7 @@
         <v>394</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F324" s="6" t="str">
         <f>C324 &amp; "/" &amp; D324</f>
@@ -16034,8 +16014,8 @@
         <v>Fire/Ground</v>
       </c>
       <c r="L324" s="6">
-        <f>COUNTIF(K:K, K324)</f>
-        <v>2</v>
+        <f>COUNTIFS(K:K, K324, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M324" s="6" t="str">
         <f>IF(COUNTIF(K:K, K324)&gt;1, "Duplicate", "Unique")</f>
@@ -16054,7 +16034,7 @@
       </c>
       <c r="D325" s="6"/>
       <c r="E325" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F325" s="6" t="str">
         <f>C325 &amp; "/" &amp; D325</f>
@@ -16070,15 +16050,15 @@
       </c>
       <c r="I325" s="6"/>
       <c r="J325" s="6" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="K325" s="7" t="str">
         <f>IF(I325="", F325, I325)</f>
         <v>Fire/</v>
       </c>
       <c r="L325" s="6">
-        <f>COUNTIF(K:K, K325)</f>
-        <v>15</v>
+        <f>COUNTIFS(K:K, K325, E:E, "T")</f>
+        <v>5</v>
       </c>
       <c r="M325" s="6" t="str">
         <f>IF(COUNTIF(K:K, K325)&gt;1, "Duplicate", "Unique")</f>
@@ -16097,7 +16077,7 @@
       </c>
       <c r="D326" s="6"/>
       <c r="E326" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F326" s="6" t="str">
         <f>C326 &amp; "/" &amp; D326</f>
@@ -16118,8 +16098,8 @@
         <v>Psychic/</v>
       </c>
       <c r="L326" s="6">
-        <f>COUNTIF(K:K, K326)</f>
-        <v>15</v>
+        <f>COUNTIFS(K:K, K326, E:E, "T")</f>
+        <v>9</v>
       </c>
       <c r="M326" s="6" t="str">
         <f>IF(COUNTIF(K:K, K326)&gt;1, "Duplicate", "Unique")</f>
@@ -16138,7 +16118,7 @@
       </c>
       <c r="D327" s="6"/>
       <c r="E327" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F327" s="6" t="str">
         <f>C327 &amp; "/" &amp; D327</f>
@@ -16153,7 +16133,7 @@
         <v>19</v>
       </c>
       <c r="I327" s="6" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="J327" s="6"/>
       <c r="K327" s="7" t="str">
@@ -16161,8 +16141,8 @@
         <v>Ground/Psychic</v>
       </c>
       <c r="L327" s="6">
-        <f>COUNTIF(K:K, K327)</f>
-        <v>3</v>
+        <f>COUNTIFS(K:K, K327, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M327" s="6" t="str">
         <f>IF(COUNTIF(K:K, K327)&gt;1, "Duplicate", "Unique")</f>
@@ -16181,7 +16161,7 @@
       </c>
       <c r="D328" s="6"/>
       <c r="E328" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F328" s="6" t="str">
         <f>C328 &amp; "/" &amp; D328</f>
@@ -16202,8 +16182,8 @@
         <v>Normal/</v>
       </c>
       <c r="L328" s="6">
-        <f>COUNTIF(K:K, K328)</f>
-        <v>33</v>
+        <f>COUNTIFS(K:K, K328, E:E, "T")</f>
+        <v>18</v>
       </c>
       <c r="M328" s="6" t="str">
         <f>IF(COUNTIF(K:K, K328)&gt;1, "Duplicate", "Unique")</f>
@@ -16222,7 +16202,7 @@
       </c>
       <c r="D329" s="6"/>
       <c r="E329" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F329" s="6" t="str">
         <f>C329 &amp; "/" &amp; D329</f>
@@ -16243,8 +16223,8 @@
         <v>Ground/</v>
       </c>
       <c r="L329" s="6">
-        <f>COUNTIF(K:K, K329)</f>
-        <v>4</v>
+        <f>COUNTIFS(K:K, K329, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M329" s="6" t="str">
         <f>IF(COUNTIF(K:K, K329)&gt;1, "Duplicate", "Unique")</f>
@@ -16265,7 +16245,7 @@
         <v>401</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F330" s="6" t="str">
         <f>C330 &amp; "/" &amp; D330</f>
@@ -16286,8 +16266,8 @@
         <v>Ground/Dragon</v>
       </c>
       <c r="L330" s="6">
-        <f>COUNTIF(K:K, K330)</f>
-        <v>2</v>
+        <f>COUNTIFS(K:K, K330, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M330" s="6" t="str">
         <f>IF(COUNTIF(K:K, K330)&gt;1, "Duplicate", "Unique")</f>
@@ -16308,7 +16288,7 @@
         <v>401</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F331" s="6" t="str">
         <f>C331 &amp; "/" &amp; D331</f>
@@ -16329,8 +16309,8 @@
         <v>Ground/Dragon</v>
       </c>
       <c r="L331" s="6">
-        <f>COUNTIF(K:K, K331)</f>
-        <v>2</v>
+        <f>COUNTIFS(K:K, K331, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M331" s="6" t="str">
         <f>IF(COUNTIF(K:K, K331)&gt;1, "Duplicate", "Unique")</f>
@@ -16351,7 +16331,7 @@
         <v>403</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F332" s="6" t="str">
         <f>C332 &amp; "/" &amp; D332</f>
@@ -16372,8 +16352,8 @@
         <v>Grass/Dark</v>
       </c>
       <c r="L332" s="6">
-        <f>COUNTIF(K:K, K332)</f>
-        <v>5</v>
+        <f>COUNTIFS(K:K, K332, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M332" s="6" t="str">
         <f>IF(COUNTIF(K:K, K332)&gt;1, "Duplicate", "Unique")</f>
@@ -16394,7 +16374,7 @@
         <v>403</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F333" s="6" t="str">
         <f>C333 &amp; "/" &amp; D333</f>
@@ -16415,8 +16395,8 @@
         <v>Grass/Dark</v>
       </c>
       <c r="L333" s="6">
-        <f>COUNTIF(K:K, K333)</f>
-        <v>5</v>
+        <f>COUNTIFS(K:K, K333, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M333" s="6" t="str">
         <f>IF(COUNTIF(K:K, K333)&gt;1, "Duplicate", "Unique")</f>
@@ -16437,7 +16417,7 @@
         <v>389</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F334" s="6" t="str">
         <f>C334 &amp; "/" &amp; D334</f>
@@ -16458,8 +16438,8 @@
         <v>Normal/Flying</v>
       </c>
       <c r="L334" s="6">
-        <f>COUNTIF(K:K, K334)</f>
-        <v>10</v>
+        <f>COUNTIFS(K:K, K334, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M334" s="6" t="str">
         <f>IF(COUNTIF(K:K, K334)&gt;1, "Duplicate", "Unique")</f>
@@ -16480,7 +16460,7 @@
         <v>389</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F335" s="6" t="str">
         <f>C335 &amp; "/" &amp; D335</f>
@@ -16501,7 +16481,7 @@
         <v>Dragon/Flying</v>
       </c>
       <c r="L335" s="6">
-        <f>COUNTIF(K:K, K335)</f>
+        <f>COUNTIFS(K:K, K335, E:E, "T")</f>
         <v>4</v>
       </c>
       <c r="M335" s="6" t="str">
@@ -16521,7 +16501,7 @@
       </c>
       <c r="D336" s="6"/>
       <c r="E336" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F336" s="6" t="str">
         <f>C336 &amp; "/" &amp; D336</f>
@@ -16536,7 +16516,7 @@
         <v>48</v>
       </c>
       <c r="I336" s="6" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="J336" s="6"/>
       <c r="K336" s="7" t="str">
@@ -16544,7 +16524,7 @@
         <v>Normal/Poison</v>
       </c>
       <c r="L336" s="6">
-        <f>COUNTIF(K:K, K336)</f>
+        <f>COUNTIFS(K:K, K336, E:E, "T")</f>
         <v>2</v>
       </c>
       <c r="M336" s="6" t="str">
@@ -16564,7 +16544,7 @@
       </c>
       <c r="D337" s="6"/>
       <c r="E337" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F337" s="6" t="str">
         <f>C337 &amp; "/" &amp; D337</f>
@@ -16585,8 +16565,8 @@
         <v>Poison/</v>
       </c>
       <c r="L337" s="6">
-        <f>COUNTIF(K:K, K337)</f>
-        <v>10</v>
+        <f>COUNTIFS(K:K, K337, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M337" s="6" t="str">
         <f>IF(COUNTIF(K:K, K337)&gt;1, "Duplicate", "Unique")</f>
@@ -16607,7 +16587,7 @@
         <v>396</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F338" s="6" t="str">
         <f>C338 &amp; "/" &amp; D338</f>
@@ -16628,7 +16608,7 @@
         <v>Rock/Psychic</v>
       </c>
       <c r="L338" s="6">
-        <f>COUNTIF(K:K, K338)</f>
+        <f>COUNTIFS(K:K, K338, E:E, "T")</f>
         <v>2</v>
       </c>
       <c r="M338" s="6" t="str">
@@ -16650,7 +16630,7 @@
         <v>396</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F339" s="6" t="str">
         <f>C339 &amp; "/" &amp; D339</f>
@@ -16671,7 +16651,7 @@
         <v>Rock/Psychic</v>
       </c>
       <c r="L339" s="6">
-        <f>COUNTIF(K:K, K339)</f>
+        <f>COUNTIFS(K:K, K339, E:E, "T")</f>
         <v>2</v>
       </c>
       <c r="M339" s="6" t="str">
@@ -16693,7 +16673,7 @@
         <v>394</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F340" s="6" t="str">
         <f>C340 &amp; "/" &amp; D340</f>
@@ -16714,8 +16694,8 @@
         <v>Water/Ground</v>
       </c>
       <c r="L340" s="6">
-        <f>COUNTIF(K:K, K340)</f>
-        <v>7</v>
+        <f>COUNTIFS(K:K, K340, E:E, "T")</f>
+        <v>4</v>
       </c>
       <c r="M340" s="6" t="str">
         <f>IF(COUNTIF(K:K, K340)&gt;1, "Duplicate", "Unique")</f>
@@ -16736,7 +16716,7 @@
         <v>394</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F341" s="6" t="str">
         <f>C341 &amp; "/" &amp; D341</f>
@@ -16757,8 +16737,8 @@
         <v>Water/Ground</v>
       </c>
       <c r="L341" s="6">
-        <f>COUNTIF(K:K, K341)</f>
-        <v>7</v>
+        <f>COUNTIFS(K:K, K341, E:E, "T")</f>
+        <v>4</v>
       </c>
       <c r="M341" s="6" t="str">
         <f>IF(COUNTIF(K:K, K341)&gt;1, "Duplicate", "Unique")</f>
@@ -16779,7 +16759,7 @@
         <v>403</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F342" s="6" t="str">
         <f>C342 &amp; "/" &amp; D342</f>
@@ -16800,8 +16780,8 @@
         <v>Water/Dark</v>
       </c>
       <c r="L342" s="6">
-        <f>COUNTIF(K:K, K342)</f>
-        <v>4</v>
+        <f>COUNTIFS(K:K, K342, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M342" s="6" t="str">
         <f>IF(COUNTIF(K:K, K342)&gt;1, "Duplicate", "Unique")</f>
@@ -16822,7 +16802,7 @@
         <v>403</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F343" s="6" t="str">
         <f>C343 &amp; "/" &amp; D343</f>
@@ -16843,8 +16823,8 @@
         <v>Water/Dark</v>
       </c>
       <c r="L343" s="6">
-        <f>COUNTIF(K:K, K343)</f>
-        <v>4</v>
+        <f>COUNTIFS(K:K, K343, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M343" s="6" t="str">
         <f>IF(COUNTIF(K:K, K343)&gt;1, "Duplicate", "Unique")</f>
@@ -16865,7 +16845,7 @@
         <v>396</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F344" s="6" t="str">
         <f>C344 &amp; "/" &amp; D344</f>
@@ -16886,8 +16866,8 @@
         <v>Ground/Psychic</v>
       </c>
       <c r="L344" s="6">
-        <f>COUNTIF(K:K, K344)</f>
-        <v>3</v>
+        <f>COUNTIFS(K:K, K344, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M344" s="6" t="str">
         <f>IF(COUNTIF(K:K, K344)&gt;1, "Duplicate", "Unique")</f>
@@ -16908,7 +16888,7 @@
         <v>396</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F345" s="6" t="str">
         <f>C345 &amp; "/" &amp; D345</f>
@@ -16929,8 +16909,8 @@
         <v>Ground/Psychic</v>
       </c>
       <c r="L345" s="6">
-        <f>COUNTIF(K:K, K345)</f>
-        <v>3</v>
+        <f>COUNTIFS(K:K, K345, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M345" s="6" t="str">
         <f>IF(COUNTIF(K:K, K345)&gt;1, "Duplicate", "Unique")</f>
@@ -16951,7 +16931,7 @@
         <v>397</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F346" s="6" t="str">
         <f>C346 &amp; "/" &amp; D346</f>
@@ -16972,8 +16952,8 @@
         <v>Grass/Rock</v>
       </c>
       <c r="L346" s="6">
-        <f>COUNTIF(K:K, K346)</f>
-        <v>2</v>
+        <f>COUNTIFS(K:K, K346, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M346" s="6" t="str">
         <f>IF(COUNTIF(K:K, K346)&gt;1, "Duplicate", "Unique")</f>
@@ -16994,7 +16974,7 @@
         <v>397</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F347" s="6" t="str">
         <f>C347 &amp; "/" &amp; D347</f>
@@ -17015,8 +16995,8 @@
         <v>Grass/Rock</v>
       </c>
       <c r="L347" s="6">
-        <f>COUNTIF(K:K, K347)</f>
-        <v>2</v>
+        <f>COUNTIFS(K:K, K347, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M347" s="6" t="str">
         <f>IF(COUNTIF(K:K, K347)&gt;1, "Duplicate", "Unique")</f>
@@ -17037,7 +17017,7 @@
         <v>397</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F348" s="6" t="str">
         <f>C348 &amp; "/" &amp; D348</f>
@@ -17058,8 +17038,8 @@
         <v>Bug/Rock</v>
       </c>
       <c r="L348" s="6">
-        <f>COUNTIF(K:K, K348)</f>
-        <v>3</v>
+        <f>COUNTIFS(K:K, K348, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M348" s="6" t="str">
         <f>IF(COUNTIF(K:K, K348)&gt;1, "Duplicate", "Unique")</f>
@@ -17080,7 +17060,7 @@
         <v>397</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F349" s="6" t="str">
         <f>C349 &amp; "/" &amp; D349</f>
@@ -17101,8 +17081,8 @@
         <v>Bug/Rock</v>
       </c>
       <c r="L349" s="6">
-        <f>COUNTIF(K:K, K349)</f>
-        <v>3</v>
+        <f>COUNTIFS(K:K, K349, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M349" s="6" t="str">
         <f>IF(COUNTIF(K:K, K349)&gt;1, "Duplicate", "Unique")</f>
@@ -17121,7 +17101,7 @@
       </c>
       <c r="D350" s="6"/>
       <c r="E350" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F350" s="6" t="str">
         <f>C350 &amp; "/" &amp; D350</f>
@@ -17142,8 +17122,8 @@
         <v>Water/</v>
       </c>
       <c r="L350" s="6">
-        <f>COUNTIF(K:K, K350)</f>
-        <v>28</v>
+        <f>COUNTIFS(K:K, K350, E:E, "T")</f>
+        <v>8</v>
       </c>
       <c r="M350" s="6" t="str">
         <f>IF(COUNTIF(K:K, K350)&gt;1, "Duplicate", "Unique")</f>
@@ -17162,7 +17142,7 @@
       </c>
       <c r="D351" s="6"/>
       <c r="E351" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F351" s="6" t="str">
         <f>C351 &amp; "/" &amp; D351</f>
@@ -17177,7 +17157,7 @@
         <v>36</v>
       </c>
       <c r="I351" s="6" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="J351" s="6"/>
       <c r="K351" s="7" t="str">
@@ -17185,7 +17165,7 @@
         <v>Water/Dragon</v>
       </c>
       <c r="L351" s="6">
-        <f>COUNTIF(K:K, K351)</f>
+        <f>COUNTIFS(K:K, K351, E:E, "T")</f>
         <v>2</v>
       </c>
       <c r="M351" s="6" t="str">
@@ -17205,7 +17185,7 @@
       </c>
       <c r="D352" s="6"/>
       <c r="E352" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F352" s="6" t="str">
         <f>C352 &amp; "/" &amp; D352</f>
@@ -17226,8 +17206,8 @@
         <v>Normal/</v>
       </c>
       <c r="L352" s="6">
-        <f>COUNTIF(K:K, K352)</f>
-        <v>33</v>
+        <f>COUNTIFS(K:K, K352, E:E, "T")</f>
+        <v>18</v>
       </c>
       <c r="M352" s="6" t="str">
         <f>IF(COUNTIF(K:K, K352)&gt;1, "Duplicate", "Unique")</f>
@@ -17246,7 +17226,7 @@
       </c>
       <c r="D353" s="6"/>
       <c r="E353" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F353" s="6" t="str">
         <f>C353 &amp; "/" &amp; D353</f>
@@ -17267,8 +17247,8 @@
         <v>Normal/</v>
       </c>
       <c r="L353" s="6">
-        <f>COUNTIF(K:K, K353)</f>
-        <v>33</v>
+        <f>COUNTIFS(K:K, K353, E:E, "T")</f>
+        <v>18</v>
       </c>
       <c r="M353" s="6" t="str">
         <f>IF(COUNTIF(K:K, K353)&gt;1, "Duplicate", "Unique")</f>
@@ -17287,7 +17267,7 @@
       </c>
       <c r="D354" s="6"/>
       <c r="E354" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F354" s="6" t="str">
         <f>C354 &amp; "/" &amp; D354</f>
@@ -17308,8 +17288,8 @@
         <v>Ghost/</v>
       </c>
       <c r="L354" s="6">
-        <f>COUNTIF(K:K, K354)</f>
-        <v>5</v>
+        <f>COUNTIFS(K:K, K354, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M354" s="6" t="str">
         <f>IF(COUNTIF(K:K, K354)&gt;1, "Duplicate", "Unique")</f>
@@ -17328,7 +17308,7 @@
       </c>
       <c r="D355" s="6"/>
       <c r="E355" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F355" s="6" t="str">
         <f>C355 &amp; "/" &amp; D355</f>
@@ -17349,8 +17329,8 @@
         <v>Ghost/</v>
       </c>
       <c r="L355" s="6">
-        <f>COUNTIF(K:K, K355)</f>
-        <v>5</v>
+        <f>COUNTIFS(K:K, K355, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M355" s="6" t="str">
         <f>IF(COUNTIF(K:K, K355)&gt;1, "Duplicate", "Unique")</f>
@@ -17369,7 +17349,7 @@
       </c>
       <c r="D356" s="6"/>
       <c r="E356" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F356" s="6" t="str">
         <f>C356 &amp; "/" &amp; D356</f>
@@ -17390,8 +17370,8 @@
         <v>Ghost/</v>
       </c>
       <c r="L356" s="6">
-        <f>COUNTIF(K:K, K356)</f>
-        <v>5</v>
+        <f>COUNTIFS(K:K, K356, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M356" s="6" t="str">
         <f>IF(COUNTIF(K:K, K356)&gt;1, "Duplicate", "Unique")</f>
@@ -17410,7 +17390,7 @@
       </c>
       <c r="D357" s="6"/>
       <c r="E357" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F357" s="6" t="str">
         <f>C357 &amp; "/" &amp; D357</f>
@@ -17431,8 +17411,8 @@
         <v>Ghost/</v>
       </c>
       <c r="L357" s="6">
-        <f>COUNTIF(K:K, K357)</f>
-        <v>5</v>
+        <f>COUNTIFS(K:K, K357, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M357" s="6" t="str">
         <f>IF(COUNTIF(K:K, K357)&gt;1, "Duplicate", "Unique")</f>
@@ -17453,7 +17433,7 @@
         <v>389</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F358" s="6" t="str">
         <f>C358 &amp; "/" &amp; D358</f>
@@ -17474,8 +17454,8 @@
         <v>Grass/Flying</v>
       </c>
       <c r="L358" s="6">
-        <f>COUNTIF(K:K, K358)</f>
-        <v>4</v>
+        <f>COUNTIFS(K:K, K358, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M358" s="6" t="str">
         <f>IF(COUNTIF(K:K, K358)&gt;1, "Duplicate", "Unique")</f>
@@ -17494,7 +17474,7 @@
       </c>
       <c r="D359" s="6"/>
       <c r="E359" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F359" s="6" t="str">
         <f>C359 &amp; "/" &amp; D359</f>
@@ -17509,7 +17489,7 @@
         <v>19</v>
       </c>
       <c r="I359" s="6" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="J359" s="6"/>
       <c r="K359" s="7" t="str">
@@ -17517,8 +17497,8 @@
         <v>Steel/Psychic</v>
       </c>
       <c r="L359" s="6">
-        <f>COUNTIF(K:K, K359)</f>
-        <v>5</v>
+        <f>COUNTIFS(K:K, K359, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M359" s="6" t="str">
         <f>IF(COUNTIF(K:K, K359)&gt;1, "Duplicate", "Unique")</f>
@@ -17537,7 +17517,7 @@
       </c>
       <c r="D360" s="6"/>
       <c r="E360" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F360" s="6" t="str">
         <f>C360 &amp; "/" &amp; D360</f>
@@ -17558,8 +17538,8 @@
         <v>Dark/</v>
       </c>
       <c r="L360" s="6">
-        <f>COUNTIF(K:K, K360)</f>
-        <v>4</v>
+        <f>COUNTIFS(K:K, K360, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M360" s="6" t="str">
         <f>IF(COUNTIF(K:K, K360)&gt;1, "Duplicate", "Unique")</f>
@@ -17578,7 +17558,7 @@
       </c>
       <c r="D361" s="6"/>
       <c r="E361" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F361" s="6" t="str">
         <f>C361 &amp; "/" &amp; D361</f>
@@ -17599,8 +17579,8 @@
         <v>Psychic/</v>
       </c>
       <c r="L361" s="6">
-        <f>COUNTIF(K:K, K361)</f>
-        <v>15</v>
+        <f>COUNTIFS(K:K, K361, E:E, "T")</f>
+        <v>9</v>
       </c>
       <c r="M361" s="6" t="str">
         <f>IF(COUNTIF(K:K, K361)&gt;1, "Duplicate", "Unique")</f>
@@ -17619,7 +17599,7 @@
       </c>
       <c r="D362" s="6"/>
       <c r="E362" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F362" s="6" t="str">
         <f>C362 &amp; "/" &amp; D362</f>
@@ -17640,8 +17620,8 @@
         <v>Ice/</v>
       </c>
       <c r="L362" s="6">
-        <f>COUNTIF(K:K, K362)</f>
-        <v>3</v>
+        <f>COUNTIFS(K:K, K362, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M362" s="6" t="str">
         <f>IF(COUNTIF(K:K, K362)&gt;1, "Duplicate", "Unique")</f>
@@ -17660,7 +17640,7 @@
       </c>
       <c r="D363" s="6"/>
       <c r="E363" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F363" s="6" t="str">
         <f>C363 &amp; "/" &amp; D363</f>
@@ -17681,8 +17661,8 @@
         <v>Ice/</v>
       </c>
       <c r="L363" s="6">
-        <f>COUNTIF(K:K, K363)</f>
-        <v>3</v>
+        <f>COUNTIFS(K:K, K363, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M363" s="6" t="str">
         <f>IF(COUNTIF(K:K, K363)&gt;1, "Duplicate", "Unique")</f>
@@ -17703,7 +17683,7 @@
         <v>390</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F364" s="6" t="str">
         <f>C364 &amp; "/" &amp; D364</f>
@@ -17724,8 +17704,8 @@
         <v>Ice/Water</v>
       </c>
       <c r="L364" s="6">
-        <f>COUNTIF(K:K, K364)</f>
-        <v>3</v>
+        <f>COUNTIFS(K:K, K364, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M364" s="6" t="str">
         <f>IF(COUNTIF(K:K, K364)&gt;1, "Duplicate", "Unique")</f>
@@ -17746,7 +17726,7 @@
         <v>390</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F365" s="6" t="str">
         <f>C365 &amp; "/" &amp; D365</f>
@@ -17767,8 +17747,8 @@
         <v>Ice/Water</v>
       </c>
       <c r="L365" s="6">
-        <f>COUNTIF(K:K, K365)</f>
-        <v>3</v>
+        <f>COUNTIFS(K:K, K365, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M365" s="6" t="str">
         <f>IF(COUNTIF(K:K, K365)&gt;1, "Duplicate", "Unique")</f>
@@ -17789,7 +17769,7 @@
         <v>390</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F366" s="6" t="str">
         <f>C366 &amp; "/" &amp; D366</f>
@@ -17810,8 +17790,8 @@
         <v>Ice/Water</v>
       </c>
       <c r="L366" s="6">
-        <f>COUNTIF(K:K, K366)</f>
-        <v>3</v>
+        <f>COUNTIFS(K:K, K366, E:E, "T")</f>
+        <v>1</v>
       </c>
       <c r="M366" s="6" t="str">
         <f>IF(COUNTIF(K:K, K366)&gt;1, "Duplicate", "Unique")</f>
@@ -17830,7 +17810,7 @@
       </c>
       <c r="D367" s="6"/>
       <c r="E367" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F367" s="6" t="str">
         <f>C367 &amp; "/" &amp; D367</f>
@@ -17851,8 +17831,8 @@
         <v>Water/</v>
       </c>
       <c r="L367" s="6">
-        <f>COUNTIF(K:K, K367)</f>
-        <v>28</v>
+        <f>COUNTIFS(K:K, K367, E:E, "T")</f>
+        <v>8</v>
       </c>
       <c r="M367" s="6" t="str">
         <f>IF(COUNTIF(K:K, K367)&gt;1, "Duplicate", "Unique")</f>
@@ -17871,7 +17851,7 @@
       </c>
       <c r="D368" s="6"/>
       <c r="E368" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F368" s="6" t="str">
         <f>C368 &amp; "/" &amp; D368</f>
@@ -17886,7 +17866,7 @@
         <v>36</v>
       </c>
       <c r="I368" s="6" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="J368" s="6"/>
       <c r="K368" s="7" t="str">
@@ -17894,8 +17874,8 @@
         <v>Water/Ground</v>
       </c>
       <c r="L368" s="6">
-        <f>COUNTIF(K:K, K368)</f>
-        <v>7</v>
+        <f>COUNTIFS(K:K, K368, E:E, "T")</f>
+        <v>4</v>
       </c>
       <c r="M368" s="6" t="str">
         <f>IF(COUNTIF(K:K, K368)&gt;1, "Duplicate", "Unique")</f>
@@ -17914,7 +17894,7 @@
       </c>
       <c r="D369" s="6"/>
       <c r="E369" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F369" s="6" t="str">
         <f>C369 &amp; "/" &amp; D369</f>
@@ -17929,7 +17909,7 @@
         <v>36</v>
       </c>
       <c r="I369" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="J369" s="6"/>
       <c r="K369" s="7" t="str">
@@ -17937,8 +17917,8 @@
         <v>Water/Psychic</v>
       </c>
       <c r="L369" s="6">
-        <f>COUNTIF(K:K, K369)</f>
-        <v>7</v>
+        <f>COUNTIFS(K:K, K369, E:E, "T")</f>
+        <v>5</v>
       </c>
       <c r="M369" s="6" t="str">
         <f>IF(COUNTIF(K:K, K369)&gt;1, "Duplicate", "Unique")</f>
@@ -17959,7 +17939,7 @@
         <v>397</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F370" s="6" t="str">
         <f>C370 &amp; "/" &amp; D370</f>
@@ -17980,8 +17960,8 @@
         <v>Water/Rock</v>
       </c>
       <c r="L370" s="6">
-        <f>COUNTIF(K:K, K370)</f>
-        <v>7</v>
+        <f>COUNTIFS(K:K, K370, E:E, "T")</f>
+        <v>5</v>
       </c>
       <c r="M370" s="6" t="str">
         <f>IF(COUNTIF(K:K, K370)&gt;1, "Duplicate", "Unique")</f>
@@ -18000,7 +17980,7 @@
       </c>
       <c r="D371" s="6"/>
       <c r="E371" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F371" s="6" t="str">
         <f>C371 &amp; "/" &amp; D371</f>
@@ -18021,8 +18001,8 @@
         <v>Water/</v>
       </c>
       <c r="L371" s="6">
-        <f>COUNTIF(K:K, K371)</f>
-        <v>28</v>
+        <f>COUNTIFS(K:K, K371, E:E, "T")</f>
+        <v>8</v>
       </c>
       <c r="M371" s="6" t="str">
         <f>IF(COUNTIF(K:K, K371)&gt;1, "Duplicate", "Unique")</f>
@@ -18041,7 +18021,7 @@
       </c>
       <c r="D372" s="6"/>
       <c r="E372" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F372" s="6" t="str">
         <f>C372 &amp; "/" &amp; D372</f>
@@ -18062,8 +18042,8 @@
         <v>Dragon/</v>
       </c>
       <c r="L372" s="6">
-        <f>COUNTIF(K:K, K372)</f>
-        <v>4</v>
+        <f>COUNTIFS(K:K, K372, E:E, "T")</f>
+        <v>0</v>
       </c>
       <c r="M372" s="6" t="str">
         <f>IF(COUNTIF(K:K, K372)&gt;1, "Duplicate", "Unique")</f>
@@ -18082,7 +18062,7 @@
       </c>
       <c r="D373" s="6"/>
       <c r="E373" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F373" s="6" t="str">
         <f>C373 &amp; "/" &amp; D373</f>
@@ -18103,8 +18083,8 @@
         <v>Dragon/</v>
       </c>
       <c r="L373" s="6">
-        <f>COUNTIF(K:K, K373)</f>
-        <v>4</v>
+        <f>COUNTIFS(K:K, K373, E:E, "T")</f>
+        <v>0</v>
       </c>
       <c r="M373" s="6" t="str">
         <f>IF(COUNTIF(K:K, K373)&gt;1, "Duplicate", "Unique")</f>
@@ -18125,7 +18105,7 @@
         <v>389</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F374" s="6" t="str">
         <f>C374 &amp; "/" &amp; D374</f>
@@ -18146,7 +18126,7 @@
         <v>Dragon/Flying</v>
       </c>
       <c r="L374" s="6">
-        <f>COUNTIF(K:K, K374)</f>
+        <f>COUNTIFS(K:K, K374, E:E, "T")</f>
         <v>4</v>
       </c>
       <c r="M374" s="6" t="str">
@@ -18168,7 +18148,7 @@
         <v>396</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F375" s="6" t="str">
         <f>C375 &amp; "/" &amp; D375</f>
@@ -18189,8 +18169,8 @@
         <v>Steel/Psychic</v>
       </c>
       <c r="L375" s="6">
-        <f>COUNTIF(K:K, K375)</f>
-        <v>5</v>
+        <f>COUNTIFS(K:K, K375, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M375" s="6" t="str">
         <f>IF(COUNTIF(K:K, K375)&gt;1, "Duplicate", "Unique")</f>
@@ -18211,7 +18191,7 @@
         <v>396</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F376" s="6" t="str">
         <f>C376 &amp; "/" &amp; D376</f>
@@ -18232,8 +18212,8 @@
         <v>Steel/Psychic</v>
       </c>
       <c r="L376" s="6">
-        <f>COUNTIF(K:K, K376)</f>
-        <v>5</v>
+        <f>COUNTIFS(K:K, K376, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M376" s="6" t="str">
         <f>IF(COUNTIF(K:K, K376)&gt;1, "Duplicate", "Unique")</f>
@@ -18254,7 +18234,7 @@
         <v>396</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F377" s="6" t="str">
         <f>C377 &amp; "/" &amp; D377</f>
@@ -18275,8 +18255,8 @@
         <v>Steel/Psychic</v>
       </c>
       <c r="L377" s="6">
-        <f>COUNTIF(K:K, K377)</f>
-        <v>5</v>
+        <f>COUNTIFS(K:K, K377, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M377" s="6" t="str">
         <f>IF(COUNTIF(K:K, K377)&gt;1, "Duplicate", "Unique")</f>
@@ -18295,7 +18275,7 @@
       </c>
       <c r="D378" s="6"/>
       <c r="E378" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F378" s="6" t="str">
         <f>C378 &amp; "/" &amp; D378</f>
@@ -18316,7 +18296,7 @@
         <v>Rock/</v>
       </c>
       <c r="L378" s="6">
-        <f>COUNTIF(K:K, K378)</f>
+        <f>COUNTIFS(K:K, K378, E:E, "T")</f>
         <v>3</v>
       </c>
       <c r="M378" s="6" t="str">
@@ -18336,7 +18316,7 @@
       </c>
       <c r="D379" s="6"/>
       <c r="E379" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F379" s="6" t="str">
         <f>C379 &amp; "/" &amp; D379</f>
@@ -18357,8 +18337,8 @@
         <v>Ice/</v>
       </c>
       <c r="L379" s="6">
-        <f>COUNTIF(K:K, K379)</f>
-        <v>3</v>
+        <f>COUNTIFS(K:K, K379, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M379" s="6" t="str">
         <f>IF(COUNTIF(K:K, K379)&gt;1, "Duplicate", "Unique")</f>
@@ -18377,7 +18357,7 @@
       </c>
       <c r="D380" s="6"/>
       <c r="E380" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F380" s="6" t="str">
         <f>C380 &amp; "/" &amp; D380</f>
@@ -18398,7 +18378,7 @@
         <v>Steel/</v>
       </c>
       <c r="L380" s="6">
-        <f>COUNTIF(K:K, K380)</f>
+        <f>COUNTIFS(K:K, K380, E:E, "T")</f>
         <v>2</v>
       </c>
       <c r="M380" s="6" t="str">
@@ -18420,7 +18400,7 @@
         <v>396</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F381" s="6" t="str">
         <f>C381 &amp; "/" &amp; D381</f>
@@ -18441,7 +18421,7 @@
         <v>Dragon/Psychic</v>
       </c>
       <c r="L381" s="6">
-        <f>COUNTIF(K:K, K381)</f>
+        <f>COUNTIFS(K:K, K381, E:E, "T")</f>
         <v>2</v>
       </c>
       <c r="M381" s="6" t="str">
@@ -18463,7 +18443,7 @@
         <v>396</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F382" s="6" t="str">
         <f>C382 &amp; "/" &amp; D382</f>
@@ -18484,7 +18464,7 @@
         <v>Dragon/Psychic</v>
       </c>
       <c r="L382" s="6">
-        <f>COUNTIF(K:K, K382)</f>
+        <f>COUNTIFS(K:K, K382, E:E, "T")</f>
         <v>2</v>
       </c>
       <c r="M382" s="6" t="str">
@@ -18504,7 +18484,7 @@
       </c>
       <c r="D383" s="6"/>
       <c r="E383" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F383" s="6" t="str">
         <f>C383 &amp; "/" &amp; D383</f>
@@ -18525,8 +18505,8 @@
         <v>Water/</v>
       </c>
       <c r="L383" s="6">
-        <f>COUNTIF(K:K, K383)</f>
-        <v>28</v>
+        <f>COUNTIFS(K:K, K383, E:E, "T")</f>
+        <v>8</v>
       </c>
       <c r="M383" s="6" t="str">
         <f>IF(COUNTIF(K:K, K383)&gt;1, "Duplicate", "Unique")</f>
@@ -18545,7 +18525,7 @@
       </c>
       <c r="D384" s="6"/>
       <c r="E384" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F384" s="6" t="str">
         <f>C384 &amp; "/" &amp; D384</f>
@@ -18566,8 +18546,8 @@
         <v>Ground/</v>
       </c>
       <c r="L384" s="6">
-        <f>COUNTIF(K:K, K384)</f>
-        <v>4</v>
+        <f>COUNTIFS(K:K, K384, E:E, "T")</f>
+        <v>2</v>
       </c>
       <c r="M384" s="6" t="str">
         <f>IF(COUNTIF(K:K, K384)&gt;1, "Duplicate", "Unique")</f>
@@ -18588,7 +18568,7 @@
         <v>389</v>
       </c>
       <c r="E385" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F385" s="6" t="str">
         <f>C385 &amp; "/" &amp; D385</f>
@@ -18609,7 +18589,7 @@
         <v>Dragon/Flying</v>
       </c>
       <c r="L385" s="6">
-        <f>COUNTIF(K:K, K385)</f>
+        <f>COUNTIFS(K:K, K385, E:E, "T")</f>
         <v>4</v>
       </c>
       <c r="M385" s="6" t="str">
@@ -18631,7 +18611,7 @@
         <v>396</v>
       </c>
       <c r="E386" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F386" s="6" t="str">
         <f>C386 &amp; "/" &amp; D386</f>
@@ -18652,8 +18632,8 @@
         <v>Steel/Psychic</v>
       </c>
       <c r="L386" s="6">
-        <f>COUNTIF(K:K, K386)</f>
-        <v>5</v>
+        <f>COUNTIFS(K:K, K386, E:E, "T")</f>
+        <v>3</v>
       </c>
       <c r="M386" s="6" t="str">
         <f>IF(COUNTIF(K:K, K386)&gt;1, "Duplicate", "Unique")</f>
@@ -18672,7 +18652,7 @@
       </c>
       <c r="D387" s="10"/>
       <c r="E387" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F387" s="10" t="str">
         <f>C387 &amp; "/" &amp; D387</f>
@@ -18693,8 +18673,8 @@
         <v>Psychic/</v>
       </c>
       <c r="L387" s="10">
-        <f>COUNTIF(K:K, K387)</f>
-        <v>15</v>
+        <f>COUNTIFS(K:K, K387, E:E, "T")</f>
+        <v>9</v>
       </c>
       <c r="M387" s="10" t="str">
         <f>IF(COUNTIF(K:K, K387)&gt;1, "Duplicate", "Unique")</f>
